--- a/example/info/02 foot corrected info.xlsx
+++ b/example/info/02 foot corrected info.xlsx
@@ -566,13 +566,13 @@
         <v>0.002486644345176593</v>
       </c>
       <c r="M2" t="n">
-        <v>158.4063909161324</v>
+        <v>158.406047302999</v>
       </c>
       <c r="N2" t="n">
         <v>0.001167465321559093</v>
       </c>
       <c r="O2" t="n">
-        <v>74.3710783385158</v>
+        <v>74.37073472538241</v>
       </c>
       <c r="P2" t="n">
         <v>63702.73562050127</v>
@@ -631,13 +631,13 @@
         <v>0.003652802999034743</v>
       </c>
       <c r="M3" t="n">
-        <v>198.5134716935894</v>
+        <v>198.512982112349</v>
       </c>
       <c r="N3" t="n">
         <v>0.001348872139951843</v>
       </c>
       <c r="O3" t="n">
-        <v>73.30546416127233</v>
+        <v>73.3049745800319</v>
       </c>
       <c r="P3" t="n">
         <v>54345.38412413871</v>
@@ -696,13 +696,13 @@
         <v>0.001771310291409529</v>
       </c>
       <c r="M4" t="n">
-        <v>115.5909349434113</v>
+        <v>115.590404178709</v>
       </c>
       <c r="N4" t="n">
         <v>0.000558242918370003</v>
       </c>
       <c r="O4" t="n">
-        <v>36.42979156515903</v>
+        <v>36.4292608004567</v>
       </c>
       <c r="P4" t="n">
         <v>65257.0047943025</v>
@@ -757,13 +757,13 @@
         <v>0.003234063939585186</v>
       </c>
       <c r="M5" t="n">
-        <v>192.9471588276287</v>
+        <v>192.947593520996</v>
       </c>
       <c r="N5" t="n">
         <v>0.0005903185807671863</v>
       </c>
       <c r="O5" t="n">
-        <v>35.21858128699316</v>
+        <v>35.2190159803605</v>
       </c>
       <c r="P5" t="n">
         <v>59661.03241166723</v>
@@ -818,13 +818,13 @@
         <v>0.00381451361088899</v>
       </c>
       <c r="M6" t="n">
-        <v>212.4615012161644</v>
+        <v>212.461144507981</v>
       </c>
       <c r="N6" t="n">
         <v>0.0002194805336283904</v>
       </c>
       <c r="O6" t="n">
-        <v>12.225004495203</v>
+        <v>12.2246477870196</v>
       </c>
       <c r="P6" t="n">
         <v>55698.09579430651</v>
@@ -879,13 +879,13 @@
         <v>0.001422674189591884</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1160977889457</v>
+        <v>100.116005949159</v>
       </c>
       <c r="N7" t="n">
         <v>0.0005565689981795843</v>
       </c>
       <c r="O7" t="n">
-        <v>39.16680024042854</v>
+        <v>39.1667084006418</v>
       </c>
       <c r="P7" t="n">
         <v>70371.70329060289</v>
@@ -940,13 +940,13 @@
         <v>0.00215681772142884</v>
       </c>
       <c r="M8" t="n">
-        <v>133.4847491774616</v>
+        <v>133.484577967839</v>
       </c>
       <c r="N8" t="n">
         <v>0.0008960826996215404</v>
       </c>
       <c r="O8" t="n">
-        <v>55.45836769737319</v>
+        <v>55.4581964877506</v>
       </c>
       <c r="P8" t="n">
         <v>61889.59625174473</v>
@@ -1001,13 +1001,13 @@
         <v>0.002644136638289646</v>
       </c>
       <c r="M9" t="n">
-        <v>153.0248295440713</v>
+        <v>153.024416048495</v>
       </c>
       <c r="N9" t="n">
         <v>0.002418187927348046</v>
       </c>
       <c r="O9" t="n">
-        <v>139.9484744692012</v>
+        <v>139.948060973625</v>
       </c>
       <c r="P9" t="n">
         <v>57873.11208980431</v>
@@ -1062,13 +1062,13 @@
         <v>0.003383981439116137</v>
       </c>
       <c r="M10" t="n">
-        <v>183.5635998885492</v>
+        <v>183.56403158262</v>
       </c>
       <c r="N10" t="n">
         <v>0.0005319670038823366</v>
       </c>
       <c r="O10" t="n">
-        <v>28.85611189473629</v>
+        <v>28.8565435888071</v>
       </c>
       <c r="P10" t="n">
         <v>54244.98771203815</v>
@@ -1123,13 +1123,13 @@
         <v>0.003408700883743779</v>
       </c>
       <c r="M11" t="n">
-        <v>186.0033510010273</v>
+        <v>186.003104711952</v>
       </c>
       <c r="N11" t="n">
         <v>0.001751694515012279</v>
       </c>
       <c r="O11" t="n">
-        <v>95.58522995632265</v>
+        <v>95.5849836672474</v>
       </c>
       <c r="P11" t="n">
         <v>54567.15360359359</v>
@@ -1184,13 +1184,13 @@
         <v>0.003768694015879434</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8245950881387</v>
+        <v>197.823708886257</v>
       </c>
       <c r="N12" t="n">
         <v>0.003001317510089134</v>
       </c>
       <c r="O12" t="n">
-        <v>157.5439923520237</v>
+        <v>157.543106150142</v>
       </c>
       <c r="P12" t="n">
         <v>52491.31610386107</v>
@@ -1245,13 +1245,13 @@
         <v>0.002831397119518019</v>
       </c>
       <c r="M13" t="n">
-        <v>164.6106155871639</v>
+        <v>164.610840241371</v>
       </c>
       <c r="N13" t="n">
         <v>0.002369830775605819</v>
       </c>
       <c r="O13" t="n">
-        <v>137.776222356073</v>
+        <v>137.77644701028</v>
       </c>
       <c r="P13" t="n">
         <v>58137.67313198094</v>
@@ -1306,13 +1306,13 @@
         <v>0.003337599360594599</v>
       </c>
       <c r="M14" t="n">
-        <v>191.9331133055703</v>
+        <v>191.93280380166</v>
       </c>
       <c r="N14" t="n">
         <v>0.001092961678286598</v>
       </c>
       <c r="O14" t="n">
-        <v>62.85243065362881</v>
+        <v>62.8521211497185</v>
       </c>
       <c r="P14" t="n">
         <v>57506.24417888996</v>
@@ -1367,13 +1367,13 @@
         <v>0.003052171734517982</v>
       </c>
       <c r="M15" t="n">
-        <v>179.0136807905835</v>
+        <v>179.013564063243</v>
       </c>
       <c r="N15" t="n">
         <v>0.0007991534053124824</v>
       </c>
       <c r="O15" t="n">
-        <v>46.87143058571933</v>
+        <v>46.8713138583788</v>
       </c>
       <c r="P15" t="n">
         <v>58651.20957602798</v>
@@ -1428,13 +1428,13 @@
         <v>0.0007660653984972492</v>
       </c>
       <c r="M16" t="n">
-        <v>56.3770243526542</v>
+        <v>56.3769290357358</v>
       </c>
       <c r="N16" t="n">
         <v>0.0004235744015886492</v>
       </c>
       <c r="O16" t="n">
-        <v>31.1721388872994</v>
+        <v>31.172043570381</v>
       </c>
       <c r="P16" t="n">
         <v>73592.84095891487</v>
@@ -1489,13 +1489,13 @@
         <v>0.002407070069901566</v>
       </c>
       <c r="M17" t="n">
-        <v>144.2476107123307</v>
+        <v>144.247777516109</v>
       </c>
       <c r="N17" t="n">
         <v>0.0006398491389772658</v>
       </c>
       <c r="O17" t="n">
-        <v>38.34388366536361</v>
+        <v>38.3440504691419</v>
       </c>
       <c r="P17" t="n">
         <v>59926.70480174591</v>
@@ -1550,13 +1550,13 @@
         <v>0.004564315429236116</v>
       </c>
       <c r="M18" t="n">
-        <v>227.601982530018</v>
+        <v>227.601528876447</v>
       </c>
       <c r="N18" t="n">
         <v>0.001575554387021716</v>
       </c>
       <c r="O18" t="n">
-        <v>78.56614282947243</v>
+        <v>78.5656891759014</v>
       </c>
       <c r="P18" t="n">
         <v>49865.42503582808</v>
@@ -1611,13 +1611,13 @@
         <v>0.001810033408109702</v>
       </c>
       <c r="M19" t="n">
-        <v>102.2348148797844</v>
+        <v>102.235369819713</v>
       </c>
       <c r="N19" t="n">
         <v>0.0006185604438029022</v>
       </c>
       <c r="O19" t="n">
-        <v>34.93733926948187</v>
+        <v>34.9378942094105</v>
       </c>
       <c r="P19" t="n">
         <v>56482.58720621179</v>
@@ -1672,13 +1672,13 @@
         <v>0.002946729411013637</v>
       </c>
       <c r="M20" t="n">
-        <v>203.7238741583147</v>
+        <v>203.724300085789</v>
       </c>
       <c r="N20" t="n">
         <v>0.001213498041939837</v>
       </c>
       <c r="O20" t="n">
-        <v>83.89565164438143</v>
+        <v>83.8960775718557</v>
       </c>
       <c r="P20" t="n">
         <v>69135.73378144363</v>
@@ -1733,13 +1733,13 @@
         <v>0.003099591938447006</v>
       </c>
       <c r="M21" t="n">
-        <v>184.9622728844121</v>
+        <v>184.962353082935</v>
       </c>
       <c r="N21" t="n">
         <v>9.850138957700637e-05</v>
       </c>
       <c r="O21" t="n">
-        <v>5.877806039376653</v>
+        <v>5.87788623789952</v>
       </c>
       <c r="P21" t="n">
         <v>59673.13012680211</v>
@@ -1794,13 +1794,13 @@
         <v>0.002538236159027514</v>
       </c>
       <c r="M22" t="n">
-        <v>147.6501358560565</v>
+        <v>147.650044884146</v>
       </c>
       <c r="N22" t="n">
         <v>0.0008695210452605134</v>
       </c>
       <c r="O22" t="n">
-        <v>50.58042050657961</v>
+        <v>50.5803295346691</v>
       </c>
       <c r="P22" t="n">
         <v>58170.33389860614</v>
@@ -1855,13 +1855,13 @@
         <v>0.002986865689476005</v>
       </c>
       <c r="M23" t="n">
-        <v>176.9798684822098</v>
+        <v>176.979439785403</v>
       </c>
       <c r="N23" t="n">
         <v>0.001295917891209504</v>
       </c>
       <c r="O23" t="n">
-        <v>76.78688186818282</v>
+        <v>76.786453171376</v>
       </c>
       <c r="P23" t="n">
         <v>59252.56043784516</v>
@@ -1916,13 +1916,13 @@
         <v>0.002913928760891397</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5283642159548</v>
+        <v>164.528068453978</v>
       </c>
       <c r="N24" t="n">
         <v>0.0002542523812495404</v>
       </c>
       <c r="O24" t="n">
-        <v>14.35605275516236</v>
+        <v>14.3557569931856</v>
       </c>
       <c r="P24" t="n">
         <v>56462.62553228906</v>
@@ -1977,13 +1977,13 @@
         <v>0.002799291831076681</v>
       </c>
       <c r="M25" t="n">
-        <v>166.1483021730769</v>
+        <v>166.148394269309</v>
       </c>
       <c r="N25" t="n">
         <v>9.348677992880878e-06</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5547867555596939</v>
+        <v>0.554878851791746</v>
       </c>
       <c r="P25" t="n">
         <v>59353.72383286097</v>
@@ -2038,13 +2038,13 @@
         <v>0.002342094147758236</v>
       </c>
       <c r="M26" t="n">
-        <v>143.2646318769509</v>
+        <v>143.264709458966</v>
       </c>
       <c r="N26" t="n">
         <v>6.561829182213629e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>4.013760000940314</v>
+        <v>4.01383758295543</v>
       </c>
       <c r="P26" t="n">
         <v>61169.49209582098</v>
@@ -2099,13 +2099,13 @@
         <v>0.001877897583312018</v>
       </c>
       <c r="M27" t="n">
-        <v>114.9455756842076</v>
+        <v>114.945593796641</v>
       </c>
       <c r="N27" t="n">
         <v>4.202040312191429e-05</v>
       </c>
       <c r="O27" t="n">
-        <v>2.572039187892832</v>
+        <v>2.57205730032622</v>
       </c>
       <c r="P27" t="n">
         <v>61209.7245441433</v>
@@ -2160,13 +2160,13 @@
         <v>0.003608067645741652</v>
       </c>
       <c r="M28" t="n">
-        <v>211.2816199918306</v>
+        <v>211.28186215837</v>
       </c>
       <c r="N28" t="n">
         <v>0.0003993781755485524</v>
       </c>
       <c r="O28" t="n">
-        <v>23.38661554243398</v>
+        <v>23.3868577089734</v>
       </c>
       <c r="P28" t="n">
         <v>58558.17653744132</v>
@@ -2221,13 +2221,13 @@
         <v>0.001648224949389607</v>
       </c>
       <c r="M29" t="n">
-        <v>100.821098846987</v>
+        <v>100.820663952542</v>
       </c>
       <c r="N29" t="n">
         <v>0.000420692461308671</v>
       </c>
       <c r="O29" t="n">
-        <v>25.73387212015672</v>
+        <v>25.7334372257117</v>
       </c>
       <c r="P29" t="n">
         <v>61169.23784576812</v>
@@ -2282,13 +2282,13 @@
         <v>0.001742321762701669</v>
       </c>
       <c r="M30" t="n">
-        <v>117.0193528091357</v>
+        <v>117.019256302744</v>
       </c>
       <c r="N30" t="n">
         <v>0.0006749432958574685</v>
       </c>
       <c r="O30" t="n">
-        <v>45.33119677646712</v>
+        <v>45.3311002700754</v>
       </c>
       <c r="P30" t="n">
         <v>67162.82767500551</v>
@@ -2343,13 +2343,13 @@
         <v>0.003770420637788741</v>
       </c>
       <c r="M31" t="n">
-        <v>185.924558513989</v>
+        <v>185.923507771131</v>
       </c>
       <c r="N31" t="n">
         <v>0.001201807354363141</v>
       </c>
       <c r="O31" t="n">
-        <v>59.26346744747858</v>
+        <v>59.2624167046206</v>
       </c>
       <c r="P31" t="n">
         <v>49311.07842656266</v>
@@ -2404,13 +2404,13 @@
         <v>0.000542026924884292</v>
       </c>
       <c r="M32" t="n">
-        <v>46.12722918931409</v>
+        <v>46.1272742639521</v>
       </c>
       <c r="N32" t="n">
         <v>4.254760559954508e-05</v>
       </c>
       <c r="O32" t="n">
-        <v>3.620817621774421</v>
+        <v>3.62086269641244</v>
       </c>
       <c r="P32" t="n">
         <v>85101.44449705892</v>
@@ -2465,13 +2465,13 @@
         <v>0.003575680588424118</v>
       </c>
       <c r="M33" t="n">
-        <v>193.3422308899405</v>
+        <v>193.34158337017</v>
       </c>
       <c r="N33" t="n">
         <v>0.001764194556589218</v>
       </c>
       <c r="O33" t="n">
-        <v>95.39288418885208</v>
+        <v>95.3922366690816</v>
       </c>
       <c r="P33" t="n">
         <v>54071.26799750867</v>
@@ -2526,13 +2526,13 @@
         <v>0.0005830672385619013</v>
       </c>
       <c r="M34" t="n">
-        <v>44.36083542326781</v>
+        <v>44.360833762824</v>
       </c>
       <c r="N34" t="n">
         <v>0.0001722150993256013</v>
       </c>
       <c r="O34" t="n">
-        <v>13.10244489061711</v>
+        <v>13.1024432301733</v>
       </c>
       <c r="P34" t="n">
         <v>76081.84927734443</v>
@@ -2587,13 +2587,13 @@
         <v>0.0007326478168975564</v>
       </c>
       <c r="M35" t="n">
-        <v>48.18335937192787</v>
+        <v>48.1833180137349</v>
       </c>
       <c r="N35" t="n">
         <v>0.0004947773424867565</v>
       </c>
       <c r="O35" t="n">
-        <v>32.53956920389388</v>
+        <v>32.5395278457009</v>
       </c>
       <c r="P35" t="n">
         <v>65766.00230349448</v>
@@ -2648,13 +2648,13 @@
         <v>0.002594532464993202</v>
       </c>
       <c r="M36" t="n">
-        <v>144.0264646308588</v>
+        <v>144.025333226662</v>
       </c>
       <c r="N36" t="n">
         <v>0.0007298762958923019</v>
       </c>
       <c r="O36" t="n">
-        <v>40.51736242017908</v>
+        <v>40.5162310159823</v>
       </c>
       <c r="P36" t="n">
         <v>55511.09310441385</v>
@@ -2709,13 +2709,13 @@
         <v>0.004883037301830246</v>
       </c>
       <c r="M37" t="n">
-        <v>218.9485800295701</v>
+        <v>218.94767432926</v>
       </c>
       <c r="N37" t="n">
         <v>0.002233950269629646</v>
       </c>
       <c r="O37" t="n">
-        <v>100.1677047373161</v>
+        <v>100.166799037006</v>
       </c>
       <c r="P37" t="n">
         <v>44838.41936804264</v>
@@ -2770,13 +2770,13 @@
         <v>0.003201193006741849</v>
       </c>
       <c r="M38" t="n">
-        <v>174.5820286655862</v>
+        <v>174.581165598501</v>
       </c>
       <c r="N38" t="n">
         <v>0.0005973992805999486</v>
       </c>
       <c r="O38" t="n">
-        <v>32.58079889575783</v>
+        <v>32.5799358286726</v>
       </c>
       <c r="P38" t="n">
         <v>54536.28232687803</v>
@@ -2831,13 +2831,13 @@
         <v>0.003535944426428289</v>
       </c>
       <c r="M39" t="n">
-        <v>176.3048854168081</v>
+        <v>176.304083740973</v>
       </c>
       <c r="N39" t="n">
         <v>0.001604180994517588</v>
       </c>
       <c r="O39" t="n">
-        <v>79.98612561905968</v>
+        <v>79.9853239432246</v>
       </c>
       <c r="P39" t="n">
         <v>49860.53582269121</v>
@@ -2892,13 +2892,13 @@
         <v>0.002197614221644402</v>
       </c>
       <c r="M40" t="n">
-        <v>126.3279354864686</v>
+        <v>126.327924989666</v>
       </c>
       <c r="N40" t="n">
         <v>0.0003662964402999018</v>
       </c>
       <c r="O40" t="n">
-        <v>21.05623991980061</v>
+        <v>21.056229422998</v>
       </c>
       <c r="P40" t="n">
         <v>57484.122438532</v>
@@ -2953,13 +2953,13 @@
         <v>0.002440386540067831</v>
       </c>
       <c r="M41" t="n">
-        <v>127.1423105188142</v>
+        <v>127.142187354785</v>
       </c>
       <c r="N41" t="n">
         <v>0.001272923963641631</v>
       </c>
       <c r="O41" t="n">
-        <v>66.31844381384781</v>
+        <v>66.3183206498186</v>
       </c>
       <c r="P41" t="n">
         <v>52099.20037964602</v>
@@ -3014,13 +3014,13 @@
         <v>0.002919619240649738</v>
       </c>
       <c r="M42" t="n">
-        <v>137.9158431015865</v>
+        <v>137.914967289347</v>
       </c>
       <c r="N42" t="n">
         <v>0.0004717993448001379</v>
       </c>
       <c r="O42" t="n">
-        <v>22.28740903523806</v>
+        <v>22.2865332229986</v>
       </c>
       <c r="P42" t="n">
         <v>47237.31278694243</v>
@@ -3075,13 +3075,13 @@
         <v>0.0007756972094795218</v>
       </c>
       <c r="M43" t="n">
-        <v>43.69108441394191</v>
+        <v>43.69035133474</v>
       </c>
       <c r="N43" t="n">
         <v>0.0004853675214597392</v>
       </c>
       <c r="O43" t="n">
-        <v>27.3385619122806</v>
+        <v>27.3378288330787</v>
       </c>
       <c r="P43" t="n">
         <v>56323.97641865361</v>
@@ -3136,13 +3136,13 @@
         <v>0.004385461460634597</v>
       </c>
       <c r="M44" t="n">
-        <v>190.8077392575526</v>
+        <v>190.806708666229</v>
       </c>
       <c r="N44" t="n">
         <v>0.002048999318419596</v>
       </c>
       <c r="O44" t="n">
-        <v>89.15078587167571</v>
+        <v>89.1497552803521</v>
       </c>
       <c r="P44" t="n">
         <v>43508.92383366616</v>
@@ -3197,13 +3197,13 @@
         <v>0.002229400711533884</v>
       </c>
       <c r="M45" t="n">
-        <v>106.4245148630678</v>
+        <v>106.423782753718</v>
       </c>
       <c r="N45" t="n">
         <v>0.001046438241381984</v>
       </c>
       <c r="O45" t="n">
-        <v>49.95402919491335</v>
+        <v>49.9532970855636</v>
       </c>
       <c r="P45" t="n">
         <v>47736.49806565988</v>
@@ -3258,13 +3258,13 @@
         <v>0.001642667931312869</v>
       </c>
       <c r="M46" t="n">
-        <v>86.96944812573788</v>
+        <v>86.96884979516319</v>
       </c>
       <c r="N46" t="n">
         <v>0.0008846657864568686</v>
       </c>
       <c r="O46" t="n">
-        <v>46.83804151350449</v>
+        <v>46.8374431829298</v>
       </c>
       <c r="P46" t="n">
         <v>52943.65838484174</v>
@@ -3319,13 +3319,13 @@
         <v>0.002029688456395919</v>
       </c>
       <c r="M47" t="n">
-        <v>98.31398853798423</v>
+        <v>98.3135045128474</v>
       </c>
       <c r="N47" t="n">
         <v>0.0002692857965243188</v>
       </c>
       <c r="O47" t="n">
-        <v>13.04407713836243</v>
+        <v>13.0435931132256</v>
       </c>
       <c r="P47" t="n">
         <v>48437.73151640273</v>
@@ -3384,13 +3384,13 @@
         <v>0.002063402786403701</v>
       </c>
       <c r="M48" t="n">
-        <v>107.5314071020491</v>
+        <v>107.531322495733</v>
       </c>
       <c r="N48" t="n">
         <v>0.0004515525620684005</v>
       </c>
       <c r="O48" t="n">
-        <v>23.53210874406575</v>
+        <v>23.5320241377496</v>
       </c>
       <c r="P48" t="n">
         <v>52113.58790648386</v>
@@ -3445,13 +3445,13 @@
         <v>0.004696947534094185</v>
       </c>
       <c r="M49" t="n">
-        <v>214.623546449757</v>
+        <v>214.622689722153</v>
       </c>
       <c r="N49" t="n">
         <v>0.001324219784092684</v>
       </c>
       <c r="O49" t="n">
-        <v>60.50985960282357</v>
+        <v>60.5090028752196</v>
       </c>
       <c r="P49" t="n">
         <v>45694.07858279248</v>
@@ -3506,13 +3506,13 @@
         <v>0.002872619939431664</v>
       </c>
       <c r="M50" t="n">
-        <v>151.7381014629126</v>
+        <v>151.737831510864</v>
       </c>
       <c r="N50" t="n">
         <v>0.0005664390169995643</v>
       </c>
       <c r="O50" t="n">
-        <v>29.92077107468028</v>
+        <v>29.9205011226317</v>
       </c>
       <c r="P50" t="n">
         <v>52822.10480683522</v>
@@ -3571,13 +3571,13 @@
         <v>0.004423947936696039</v>
       </c>
       <c r="M51" t="n">
-        <v>179.1615060942508</v>
+        <v>179.160245834743</v>
       </c>
       <c r="N51" t="n">
         <v>0.002452435642864739</v>
       </c>
       <c r="O51" t="n">
-        <v>99.31955671253441</v>
+        <v>99.3182964530266</v>
       </c>
       <c r="P51" t="n">
         <v>40497.81968468332</v>
@@ -3636,13 +3636,13 @@
         <v>0.002485691494831069</v>
       </c>
       <c r="M52" t="n">
-        <v>134.338137300456</v>
+        <v>134.337541640328</v>
       </c>
       <c r="N52" t="n">
         <v>0.001082338208415669</v>
       </c>
       <c r="O52" t="n">
-        <v>58.49484341545506</v>
+        <v>58.4942477553271</v>
       </c>
       <c r="P52" t="n">
         <v>54044.33410971532</v>
@@ -3701,13 +3701,13 @@
         <v>0.001228066336613659</v>
       </c>
       <c r="M53" t="n">
-        <v>71.24205215734455</v>
+        <v>71.2418157261492</v>
       </c>
       <c r="N53" t="n">
         <v>0.0003861060149173587</v>
       </c>
       <c r="O53" t="n">
-        <v>22.39877692156444</v>
+        <v>22.3985404903691</v>
       </c>
       <c r="P53" t="n">
         <v>58011.37414335085</v>
@@ -3766,13 +3766,13 @@
         <v>0.004655036302394712</v>
       </c>
       <c r="M54" t="n">
-        <v>162.190358530785</v>
+        <v>162.188065728032</v>
       </c>
       <c r="N54" t="n">
         <v>0.004477101959842712</v>
       </c>
       <c r="O54" t="n">
-        <v>155.990873721128</v>
+        <v>155.988580918375</v>
       </c>
       <c r="P54" t="n">
         <v>34841.41802387166</v>
@@ -3827,13 +3827,13 @@
         <v>0.002787434520705606</v>
       </c>
       <c r="M55" t="n">
-        <v>152.3994744203073</v>
+        <v>152.399409973673</v>
       </c>
       <c r="N55" t="n">
         <v>0.0009389922022407065</v>
       </c>
       <c r="O55" t="n">
-        <v>51.33825966821714</v>
+        <v>51.3381952215828</v>
       </c>
       <c r="P55" t="n">
         <v>54673.71837495033</v>
@@ -3888,13 +3888,13 @@
         <v>0.002531234604146474</v>
       </c>
       <c r="M56" t="n">
-        <v>126.8047929170277</v>
+        <v>126.804257125663</v>
       </c>
       <c r="N56" t="n">
         <v>0.0009362218356743738</v>
       </c>
       <c r="O56" t="n">
-        <v>46.90133044036349</v>
+        <v>46.9007946489988</v>
       </c>
       <c r="P56" t="n">
         <v>50095.81368631024</v>
@@ -3953,13 +3953,13 @@
         <v>0.002571921967269722</v>
       </c>
       <c r="M57" t="n">
-        <v>149.984846787098</v>
+        <v>149.984671993292</v>
       </c>
       <c r="N57" t="n">
         <v>0.001076732829417522</v>
       </c>
       <c r="O57" t="n">
-        <v>62.79112346945066</v>
+        <v>62.7909486756447</v>
       </c>
       <c r="P57" t="n">
         <v>58316.18295655812</v>
@@ -4014,13 +4014,13 @@
         <v>0.003432602724840315</v>
       </c>
       <c r="M58" t="n">
-        <v>151.9698658975612</v>
+        <v>151.968738810775</v>
       </c>
       <c r="N58" t="n">
         <v>0.001448252989332415</v>
       </c>
       <c r="O58" t="n">
-        <v>64.11841589364063</v>
+        <v>64.1172888068544</v>
       </c>
       <c r="P58" t="n">
         <v>44272.16051279124</v>
@@ -4075,13 +4075,13 @@
         <v>0.004615041001057621</v>
       </c>
       <c r="M59" t="n">
-        <v>159.317311668464</v>
+        <v>159.315233127494</v>
       </c>
       <c r="N59" t="n">
         <v>0.004502664230031621</v>
       </c>
       <c r="O59" t="n">
-        <v>155.4379676994679</v>
+        <v>155.435889158498</v>
       </c>
       <c r="P59" t="n">
         <v>34520.87058186135</v>
@@ -4136,13 +4136,13 @@
         <v>0.002183439006668277</v>
       </c>
       <c r="M60" t="n">
-        <v>114.217133473448</v>
+        <v>114.21692709225</v>
       </c>
       <c r="N60" t="n">
         <v>0.001216178373921077</v>
       </c>
       <c r="O60" t="n">
-        <v>63.61918371057877</v>
+        <v>63.6189773293808</v>
       </c>
       <c r="P60" t="n">
         <v>52310.56454676712</v>
@@ -4201,13 +4201,13 @@
         <v>0.0009431448108916057</v>
       </c>
       <c r="M61" t="n">
-        <v>51.96723090106671</v>
+        <v>51.966869050494</v>
       </c>
       <c r="N61" t="n">
         <v>0.0005060832287942057</v>
       </c>
       <c r="O61" t="n">
-        <v>27.88532773883041</v>
+        <v>27.8849658882577</v>
       </c>
       <c r="P61" t="n">
         <v>55099.56525272816</v>
@@ -4266,13 +4266,13 @@
         <v>0.003881752702090299</v>
       </c>
       <c r="M62" t="n">
-        <v>157.455688597792</v>
+        <v>157.454775694613</v>
       </c>
       <c r="N62" t="n">
         <v>0.002624151374523599</v>
       </c>
       <c r="O62" t="n">
-        <v>106.443851898707</v>
+        <v>106.442938995528</v>
       </c>
       <c r="P62" t="n">
         <v>40562.80442848011</v>
@@ -4327,13 +4327,13 @@
         <v>0.002347687751566579</v>
       </c>
       <c r="M63" t="n">
-        <v>120.321844418785</v>
+        <v>120.321861081836</v>
       </c>
       <c r="N63" t="n">
         <v>0.001206472803963879</v>
       </c>
       <c r="O63" t="n">
-        <v>61.83318624934164</v>
+        <v>61.8332029123926</v>
       </c>
       <c r="P63" t="n">
         <v>51251.21984452443</v>
@@ -4388,13 +4388,13 @@
         <v>0.002376444629577968</v>
       </c>
       <c r="M64" t="n">
-        <v>117.9320406412402</v>
+        <v>117.932091658521</v>
       </c>
       <c r="N64" t="n">
         <v>0.0007500416501684681</v>
       </c>
       <c r="O64" t="n">
-        <v>37.2210899823665</v>
+        <v>37.2211409996473</v>
       </c>
       <c r="P64" t="n">
         <v>49625.43212271877</v>
@@ -4453,13 +4453,13 @@
         <v>0.002801238875892798</v>
       </c>
       <c r="M65" t="n">
-        <v>137.5294061384351</v>
+        <v>137.529404464271</v>
       </c>
       <c r="N65" t="n">
         <v>0.0007091321681881983</v>
       </c>
       <c r="O65" t="n">
-        <v>34.81549906593764</v>
+        <v>34.8154973917735</v>
       </c>
       <c r="P65" t="n">
         <v>49095.9216823086</v>
@@ -4518,13 +4518,13 @@
         <v>0.002836324709717948</v>
       </c>
       <c r="M66" t="n">
-        <v>125.6507290729383</v>
+        <v>125.650398590921</v>
       </c>
       <c r="N66" t="n">
         <v>0.002755051091441948</v>
       </c>
       <c r="O66" t="n">
-        <v>122.0502729981043</v>
+        <v>122.049942516087</v>
       </c>
       <c r="P66" t="n">
         <v>44300.42800121289</v>
@@ -4579,13 +4579,13 @@
         <v>0.002286106157598223</v>
       </c>
       <c r="M67" t="n">
-        <v>96.78739522297022</v>
+        <v>96.78575508036739</v>
       </c>
       <c r="N67" t="n">
         <v>0.001057175141954723</v>
       </c>
       <c r="O67" t="n">
-        <v>44.75874559293723</v>
+        <v>44.7571054503344</v>
       </c>
       <c r="P67" t="n">
         <v>42336.50950927417</v>
@@ -4640,13 +4640,13 @@
         <v>0.004985253954606032</v>
       </c>
       <c r="M68" t="n">
-        <v>165.15848855985</v>
+        <v>165.156659126179</v>
       </c>
       <c r="N68" t="n">
         <v>0.004869934368226032</v>
       </c>
       <c r="O68" t="n">
-        <v>161.338061798895</v>
+        <v>161.336232365224</v>
       </c>
       <c r="P68" t="n">
         <v>33129.03627980388</v>
@@ -4701,13 +4701,13 @@
         <v>0.004318579631240168</v>
       </c>
       <c r="M69" t="n">
-        <v>188.3592353572515</v>
+        <v>188.358407583882</v>
       </c>
       <c r="N69" t="n">
         <v>0.001009341110338468</v>
       </c>
       <c r="O69" t="n">
-        <v>44.02407163739537</v>
+        <v>44.0232438640259</v>
       </c>
       <c r="P69" t="n">
         <v>43615.8236428747</v>
@@ -4762,13 +4762,13 @@
         <v>0.004512857274977415</v>
       </c>
       <c r="M70" t="n">
-        <v>178.2473320944085</v>
+        <v>178.246468462332</v>
       </c>
       <c r="N70" t="n">
         <v>0.002002363297588115</v>
       </c>
       <c r="O70" t="n">
-        <v>79.08915839217553</v>
+        <v>79.088294760099</v>
       </c>
       <c r="P70" t="n">
         <v>39497.47523606849</v>
@@ -4827,13 +4827,13 @@
         <v>0.002394123425083844</v>
       </c>
       <c r="M71" t="n">
-        <v>89.57902472771565</v>
+        <v>89.5786348354455</v>
       </c>
       <c r="N71" t="n">
         <v>0.0007743519844788439</v>
       </c>
       <c r="O71" t="n">
-        <v>28.97358021528105</v>
+        <v>28.9731903230109</v>
       </c>
       <c r="P71" t="n">
         <v>37416.04709970556</v>
@@ -4892,13 +4892,13 @@
         <v>0.002247436524562911</v>
       </c>
       <c r="M72" t="n">
-        <v>94.78642685896079</v>
+        <v>94.7858175387026</v>
       </c>
       <c r="N72" t="n">
         <v>0.001122998209341511</v>
       </c>
       <c r="O72" t="n">
-        <v>47.36314979851969</v>
+        <v>47.3625404782615</v>
       </c>
       <c r="P72" t="n">
         <v>42175.08103243844</v>
@@ -4957,13 +4957,13 @@
         <v>0.003379981590037871</v>
       </c>
       <c r="M73" t="n">
-        <v>117.9854735511462</v>
+        <v>117.984652395155</v>
       </c>
       <c r="N73" t="n">
         <v>0.001742125797689571</v>
       </c>
       <c r="O73" t="n">
-        <v>60.81301826228763</v>
+        <v>60.8121971062964</v>
       </c>
       <c r="P73" t="n">
         <v>34906.89202062578</v>
@@ -5022,13 +5022,13 @@
         <v>0.002353998885612358</v>
       </c>
       <c r="M74" t="n">
-        <v>89.71014807334831</v>
+        <v>89.70936921435261</v>
       </c>
       <c r="N74" t="n">
         <v>0.001305101309399858</v>
       </c>
       <c r="O74" t="n">
-        <v>49.7373424328694</v>
+        <v>49.7365635738737</v>
       </c>
       <c r="P74" t="n">
         <v>38109.35075740957</v>
@@ -5087,13 +5087,13 @@
         <v>0.00086619561294452</v>
       </c>
       <c r="M75" t="n">
-        <v>46.67060984812696</v>
+        <v>46.6700725180651</v>
       </c>
       <c r="N75" t="n">
         <v>0.0004282357690355199</v>
       </c>
       <c r="O75" t="n">
-        <v>23.07361008296806</v>
+        <v>23.0730727529062</v>
       </c>
       <c r="P75" t="n">
         <v>53879.36837894645</v>
@@ -5152,13 +5152,13 @@
         <v>0.002126363259529328</v>
       </c>
       <c r="M76" t="n">
-        <v>79.62895968259609</v>
+        <v>79.6278853066987</v>
       </c>
       <c r="N76" t="n">
         <v>0.001482544388101528</v>
       </c>
       <c r="O76" t="n">
-        <v>55.51928085768599</v>
+        <v>55.5182064817886</v>
       </c>
       <c r="P76" t="n">
         <v>37447.92191543245</v>
@@ -5217,13 +5217,13 @@
         <v>0.001798177991279841</v>
       </c>
       <c r="M77" t="n">
-        <v>70.2108031923044</v>
+        <v>70.2101465114052</v>
       </c>
       <c r="N77" t="n">
         <v>0.0009939696897874406</v>
       </c>
       <c r="O77" t="n">
-        <v>38.81036177477699</v>
+        <v>38.8097050938778</v>
       </c>
       <c r="P77" t="n">
         <v>39045.15951807063</v>
@@ -5278,13 +5278,13 @@
         <v>0.002908448967036806</v>
       </c>
       <c r="M78" t="n">
-        <v>110.0829233613503</v>
+        <v>110.081902277342</v>
       </c>
       <c r="N78" t="n">
         <v>0.0004249535703063059</v>
       </c>
       <c r="O78" t="n">
-        <v>16.08509129773686</v>
+        <v>16.0840702137286</v>
       </c>
       <c r="P78" t="n">
         <v>37849.00595642768</v>
@@ -5343,13 +5343,13 @@
         <v>0.001390335852471714</v>
       </c>
       <c r="M79" t="n">
-        <v>60.0919685363724</v>
+        <v>60.0918208946391</v>
       </c>
       <c r="N79" t="n">
         <v>0.0008311687471325139</v>
       </c>
       <c r="O79" t="n">
-        <v>35.924160819639</v>
+        <v>35.9240131779057</v>
       </c>
       <c r="P79" t="n">
         <v>43221.08272458697</v>
@@ -5408,13 +5408,13 @@
         <v>0.003356995818494748</v>
       </c>
       <c r="M80" t="n">
-        <v>119.0909199183344</v>
+        <v>119.090300315133</v>
       </c>
       <c r="N80" t="n">
         <v>0.0003564904747817478</v>
       </c>
       <c r="O80" t="n">
-        <v>12.64721197229136</v>
+        <v>12.64659236909</v>
       </c>
       <c r="P80" t="n">
         <v>35475.26024876975</v>
@@ -5469,13 +5469,13 @@
         <v>0.002644959504997883</v>
       </c>
       <c r="M81" t="n">
-        <v>115.7162382385052</v>
+        <v>115.716025680978</v>
       </c>
       <c r="N81" t="n">
         <v>0.0006753540432521833</v>
       </c>
       <c r="O81" t="n">
-        <v>29.54670870049349</v>
+        <v>29.5464961429663</v>
       </c>
       <c r="P81" t="n">
         <v>43749.63981955958</v>
@@ -5530,13 +5530,13 @@
         <v>0.000916007180450091</v>
       </c>
       <c r="M82" t="n">
-        <v>43.10030926288472</v>
+        <v>43.099975477242</v>
       </c>
       <c r="N82" t="n">
         <v>0.0003289580731545218</v>
       </c>
       <c r="O82" t="n">
-        <v>15.47847106294452</v>
+        <v>15.4781372773018</v>
       </c>
       <c r="P82" t="n">
         <v>47052.00613827537</v>
@@ -5595,13 +5595,13 @@
         <v>0.001611940297469171</v>
       </c>
       <c r="M83" t="n">
-        <v>51.7862928738176</v>
+        <v>51.7861136852212</v>
       </c>
       <c r="N83" t="n">
         <v>0.0008208543378776712</v>
       </c>
       <c r="O83" t="n">
-        <v>26.3714139837567</v>
+        <v>26.3712347951603</v>
       </c>
       <c r="P83" t="n">
         <v>32126.57054763632</v>
@@ -5660,13 +5660,13 @@
         <v>0.001735194130145886</v>
       </c>
       <c r="M84" t="n">
-        <v>56.77423168040801</v>
+        <v>56.7732969744529</v>
       </c>
       <c r="N84" t="n">
         <v>0.001302955958264386</v>
       </c>
       <c r="O84" t="n">
-        <v>42.63196040966562</v>
+        <v>42.6310257037105</v>
       </c>
       <c r="P84" t="n">
         <v>32718.70045438644</v>
@@ -5725,13 +5725,13 @@
         <v>0.001133706609370434</v>
       </c>
       <c r="M85" t="n">
-        <v>56.9307150856711</v>
+        <v>56.9308587258361</v>
       </c>
       <c r="N85" t="n">
         <v>2.996225910133389e-05</v>
       </c>
       <c r="O85" t="n">
-        <v>1.504458278802527</v>
+        <v>1.50460191896753</v>
       </c>
       <c r="P85" t="n">
         <v>50216.57124981459</v>
@@ -5790,13 +5790,13 @@
         <v>0.001067499811414395</v>
       </c>
       <c r="M86" t="n">
-        <v>57.03524697731932</v>
+        <v>57.0351509504363</v>
       </c>
       <c r="N86" t="n">
         <v>0.0006235740665684951</v>
       </c>
       <c r="O86" t="n">
-        <v>33.31686164615603</v>
+        <v>33.316765619273</v>
       </c>
       <c r="P86" t="n">
         <v>53428.72227290324</v>
@@ -5855,13 +5855,13 @@
         <v>0.001197085137900995</v>
       </c>
       <c r="M87" t="n">
-        <v>51.89007595981722</v>
+        <v>51.8909929303517</v>
       </c>
       <c r="N87" t="n">
         <v>8.908567772309556e-05</v>
       </c>
       <c r="O87" t="n">
-        <v>3.860750112752852</v>
+        <v>3.86166708328733</v>
       </c>
       <c r="P87" t="n">
         <v>43347.78812920433</v>
@@ -5920,13 +5920,13 @@
         <v>0.0007068327420114108</v>
       </c>
       <c r="M88" t="n">
-        <v>43.4661887617794</v>
+        <v>43.4660299348499</v>
       </c>
       <c r="N88" t="n">
         <v>0.0004030275041435108</v>
       </c>
       <c r="O88" t="n">
-        <v>24.7839648371311</v>
+        <v>24.7838060102016</v>
       </c>
       <c r="P88" t="n">
         <v>61494.08106245905</v>
@@ -5985,13 +5985,13 @@
         <v>0.001528765867839196</v>
       </c>
       <c r="M89" t="n">
-        <v>61.76857277756732</v>
+        <v>61.7681774556576</v>
       </c>
       <c r="N89" t="n">
         <v>0.0002320617808629959</v>
       </c>
       <c r="O89" t="n">
-        <v>9.376607574268292</v>
+        <v>9.37621225235857</v>
       </c>
       <c r="P89" t="n">
         <v>40403.9485411606</v>
@@ -6050,13 +6050,13 @@
         <v>0.001342796750131465</v>
       </c>
       <c r="M90" t="n">
-        <v>56.27469490860413</v>
+        <v>56.27423602054</v>
       </c>
       <c r="N90" t="n">
         <v>0.0009467802092584651</v>
       </c>
       <c r="O90" t="n">
-        <v>39.67834234300313</v>
+        <v>39.677883454939</v>
       </c>
       <c r="P90" t="n">
         <v>41908.23072444175</v>
@@ -6111,13 +6111,13 @@
         <v>0.0007534672376625887</v>
       </c>
       <c r="M91" t="n">
-        <v>40.97033577119593</v>
+        <v>40.9703547439299</v>
       </c>
       <c r="N91" t="n">
         <v>0.0006351934706628887</v>
       </c>
       <c r="O91" t="n">
-        <v>34.53910963598793</v>
+        <v>34.5391286087219</v>
       </c>
       <c r="P91" t="n">
         <v>54375.76140805859</v>
@@ -6176,13 +6176,13 @@
         <v>0.001236940839766448</v>
       </c>
       <c r="M92" t="n">
-        <v>54.10323269412533</v>
+        <v>54.103419580053</v>
       </c>
       <c r="N92" t="n">
         <v>0.0001282871298544483</v>
       </c>
       <c r="O92" t="n">
-        <v>5.611053514661315</v>
+        <v>5.61124040058898</v>
       </c>
       <c r="P92" t="n">
         <v>43739.69865063918</v>
@@ -6237,13 +6237,13 @@
         <v>0.002307464252340363</v>
       </c>
       <c r="M93" t="n">
-        <v>66.95659507309348</v>
+        <v>66.9553327522687</v>
       </c>
       <c r="N93" t="n">
         <v>0.001651962618843763</v>
       </c>
       <c r="O93" t="n">
-        <v>47.93600572012499</v>
+        <v>47.9347433993002</v>
       </c>
       <c r="P93" t="n">
         <v>29016.84508627111</v>
@@ -6298,13 +6298,13 @@
         <v>0.000950103311477327</v>
       </c>
       <c r="M94" t="n">
-        <v>43.08654558554308</v>
+        <v>43.0868710364167</v>
       </c>
       <c r="N94" t="n">
         <v>3.835712248292705e-05</v>
       </c>
       <c r="O94" t="n">
-        <v>1.739157371452434</v>
+        <v>1.73948282232606</v>
       </c>
       <c r="P94" t="n">
         <v>45349.66936324052</v>
@@ -6363,13 +6363,13 @@
         <v>0.00131027395965521</v>
       </c>
       <c r="M95" t="n">
-        <v>59.72135790308972</v>
+        <v>59.7216564670194</v>
       </c>
       <c r="N95" t="n">
         <v>2.030809767081032e-05</v>
       </c>
       <c r="O95" t="n">
-        <v>0.9253347539407016</v>
+        <v>0.9256333178703851</v>
       </c>
       <c r="P95" t="n">
         <v>45579.5187158682</v>
@@ -6428,13 +6428,13 @@
         <v>0.0007541473740330103</v>
       </c>
       <c r="M96" t="n">
-        <v>54.06902831247294</v>
+        <v>54.0681392270688</v>
       </c>
       <c r="N96" t="n">
         <v>0.0004594203600666103</v>
       </c>
       <c r="O96" t="n">
-        <v>32.93875354947144</v>
+        <v>32.9378644640673</v>
       </c>
       <c r="P96" t="n">
         <v>71694.39434354132</v>
@@ -6493,13 +6493,13 @@
         <v>0.000948348554995344</v>
       </c>
       <c r="M97" t="n">
-        <v>41.45660575247632</v>
+        <v>41.4568277525965</v>
       </c>
       <c r="N97" t="n">
         <v>0.000656170014276044</v>
       </c>
       <c r="O97" t="n">
-        <v>28.68409149935502</v>
+        <v>28.6843134994752</v>
       </c>
       <c r="P97" t="n">
         <v>43714.75818065652</v>
@@ -6554,13 +6554,13 @@
         <v>0.001152142993344857</v>
       </c>
       <c r="M98" t="n">
-        <v>55.17400733632297</v>
+        <v>55.1712364974773</v>
       </c>
       <c r="N98" t="n">
         <v>0.0006578419678800566</v>
       </c>
       <c r="O98" t="n">
-        <v>31.50402979500116</v>
+        <v>31.5012589561555</v>
       </c>
       <c r="P98" t="n">
         <v>47885.75447332828</v>
@@ -6619,13 +6619,13 @@
         <v>0.002952844901490266</v>
       </c>
       <c r="M99" t="n">
-        <v>71.69955218050117</v>
+        <v>71.69828730701499</v>
       </c>
       <c r="N99" t="n">
         <v>0.001928083322311666</v>
       </c>
       <c r="O99" t="n">
-        <v>46.81722595738788</v>
+        <v>46.8159610839017</v>
       </c>
       <c r="P99" t="n">
         <v>24281.08813667447</v>
@@ -6680,13 +6680,13 @@
         <v>0.004018488165852548</v>
       </c>
       <c r="M100" t="n">
-        <v>77.33363319058918</v>
+        <v>77.33133438958311</v>
       </c>
       <c r="N100" t="n">
         <v>0.003915640838196349</v>
       </c>
       <c r="O100" t="n">
-        <v>75.35445078222958</v>
+        <v>75.3521519812235</v>
       </c>
       <c r="P100" t="n">
         <v>19243.88755122208</v>
@@ -6745,13 +6745,13 @@
         <v>0.002103394436134739</v>
       </c>
       <c r="M101" t="n">
-        <v>69.88165655707766</v>
+        <v>69.8810427182453</v>
       </c>
       <c r="N101" t="n">
         <v>0.001217403133788339</v>
       </c>
       <c r="O101" t="n">
-        <v>40.44638042264157</v>
+        <v>40.4457665838092</v>
       </c>
       <c r="P101" t="n">
         <v>33222.98543617944</v>

--- a/example/info/02 foot corrected info.xlsx
+++ b/example/info/02 foot corrected info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,42 +481,52 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>UPL_0</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UPL_1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LPL_0</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>LPL_1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>foot correction</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UPL_0</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>UPL_1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LPL_0</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>LPL_1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>foot correction</t>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_0</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_1</t>
         </is>
       </c>
     </row>
@@ -556,29 +566,39 @@
       <c r="I2" t="n">
         <v>3.175</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0.002486644345176593</v>
+      </c>
+      <c r="K2" t="n">
+        <v>158.406047302999</v>
+      </c>
       <c r="L2" t="n">
-        <v>0.002486644345176593</v>
+        <v>0.001167465321559093</v>
       </c>
       <c r="M2" t="n">
-        <v>158.406047302999</v>
+        <v>74.37073472538241</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001167465321559093</v>
+        <v>63702.73562050128</v>
       </c>
       <c r="O2" t="n">
-        <v>74.37073472538241</v>
-      </c>
-      <c r="P2" t="n">
-        <v>63702.73562050127</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.000343613133393793</v>
+        <v>-9.280770596475918e-17</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[0.00595534]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[251.96596728]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -617,33 +637,39 @@
       <c r="I3" t="n">
         <v>3.175</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>trim at 0.115</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0.003652802999034743</v>
+      </c>
+      <c r="K3" t="n">
+        <v>198.512982112349</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003652802999034743</v>
+        <v>0.001348872139951843</v>
       </c>
       <c r="M3" t="n">
-        <v>198.512982112349</v>
+        <v>73.3049745800319</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001348872139951843</v>
+        <v>54345.38412413871</v>
       </c>
       <c r="O3" t="n">
-        <v>73.3049745800319</v>
-      </c>
-      <c r="P3" t="n">
-        <v>54345.38412413871</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.0004895812404323431</v>
+        <v>-4.293440603042598e-17</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[0.00665334]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>[252.88748701]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -682,33 +708,39 @@
       <c r="I4" t="n">
         <v>3.175</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>trim at 0.105</t>
-        </is>
+      <c r="J4" t="n">
+        <v>0.001771310291409491</v>
+      </c>
+      <c r="K4" t="n">
+        <v>115.590404178709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001771310291409529</v>
+        <v>0.0005582429183699909</v>
       </c>
       <c r="M4" t="n">
-        <v>115.590404178709</v>
+        <v>36.4292608004567</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000558242918370003</v>
+        <v>65257.00479430391</v>
       </c>
       <c r="O4" t="n">
-        <v>36.4292608004567</v>
-      </c>
-      <c r="P4" t="n">
-        <v>65257.0047943025</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-0.000530764702328129</v>
+        <v>9.107298248878237e-18</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>[0.00589268]</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>[254.02447229]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -747,29 +779,39 @@
       <c r="I5" t="n">
         <v>3.175</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.003234063939585186</v>
+      </c>
+      <c r="K5" t="n">
+        <v>192.947593520996</v>
+      </c>
       <c r="L5" t="n">
-        <v>0.003234063939585186</v>
+        <v>0.0005903185807671863</v>
       </c>
       <c r="M5" t="n">
-        <v>192.947593520996</v>
+        <v>35.2190159803605</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0005903185807671863</v>
+        <v>59661.03241166723</v>
       </c>
       <c r="O5" t="n">
-        <v>35.2190159803605</v>
-      </c>
-      <c r="P5" t="n">
-        <v>59661.03241166723</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0004346933673407137</v>
+        <v>-8.630249292984615e-17</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>[0.0060991]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>[244.5562676]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -808,29 +850,39 @@
       <c r="I6" t="n">
         <v>3.175</v>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.00381451361088899</v>
+      </c>
+      <c r="K6" t="n">
+        <v>212.461144507981</v>
+      </c>
       <c r="L6" t="n">
-        <v>0.00381451361088899</v>
+        <v>0.0002194805336283902</v>
       </c>
       <c r="M6" t="n">
-        <v>212.461144507981</v>
+        <v>12.2246477870196</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0002194805336283904</v>
+        <v>55698.09579430651</v>
       </c>
       <c r="O6" t="n">
-        <v>12.2246477870196</v>
-      </c>
-      <c r="P6" t="n">
-        <v>55698.09579430651</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-0.0003567081833944904</v>
+        <v>-9.020562075079397e-17</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>[0.00630495]</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>[239.7774238]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -869,29 +921,39 @@
       <c r="I7" t="n">
         <v>3.175</v>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.001422674189591884</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100.116005949159</v>
+      </c>
       <c r="L7" t="n">
-        <v>0.001422674189591884</v>
+        <v>0.0005565689981795844</v>
       </c>
       <c r="M7" t="n">
-        <v>100.116005949159</v>
+        <v>39.1667084006418</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0005565689981795843</v>
+        <v>70371.70329060289</v>
       </c>
       <c r="O7" t="n">
-        <v>39.1667084006418</v>
-      </c>
-      <c r="P7" t="n">
-        <v>70371.70329060289</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-9.183978673318427e-05</v>
+        <v>-8.435092901937224e-17</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>[0.00540802]</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>[239.82784953]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -930,29 +992,39 @@
       <c r="I8" t="n">
         <v>3.175</v>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0.00215681772142884</v>
+      </c>
+      <c r="K8" t="n">
+        <v>133.484577967839</v>
+      </c>
       <c r="L8" t="n">
-        <v>0.00215681772142884</v>
+        <v>0.0008960826996215404</v>
       </c>
       <c r="M8" t="n">
-        <v>133.484577967839</v>
+        <v>55.4581964877506</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0008960826996215404</v>
+        <v>61889.59625174473</v>
       </c>
       <c r="O8" t="n">
-        <v>55.4581964877506</v>
-      </c>
-      <c r="P8" t="n">
-        <v>61889.59625174473</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-0.0001712096225899404</v>
+        <v>-4.033232081646076e-17</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>[0.00651891]</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>[279.67343248]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -991,29 +1063,43 @@
       <c r="I9" t="n">
         <v>3.175</v>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0.002644136638289646</v>
+      </c>
+      <c r="K9" t="n">
+        <v>153.024416048495</v>
+      </c>
       <c r="L9" t="n">
-        <v>0.002644136638289646</v>
+        <v>0.002418187927348046</v>
       </c>
       <c r="M9" t="n">
-        <v>153.024416048495</v>
+        <v>139.948060973625</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002418187927348046</v>
+        <v>57873.11208980431</v>
       </c>
       <c r="O9" t="n">
-        <v>139.948060973625</v>
-      </c>
-      <c r="P9" t="n">
-        <v>57873.11208980431</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.0004134955762651457</v>
+        <v>-0.0001010996543291454</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>[0.00643791]</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>[267.04645153]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1052,29 +1138,39 @@
       <c r="I10" t="n">
         <v>3.175</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0.003383981439116137</v>
+      </c>
+      <c r="K10" t="n">
+        <v>183.56403158262</v>
+      </c>
       <c r="L10" t="n">
-        <v>0.003383981439116137</v>
+        <v>0.0005319670038823366</v>
       </c>
       <c r="M10" t="n">
-        <v>183.56403158262</v>
+        <v>28.8565435888071</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0005319670038823366</v>
+        <v>54244.98771203815</v>
       </c>
       <c r="O10" t="n">
-        <v>28.8565435888071</v>
-      </c>
-      <c r="P10" t="n">
-        <v>54244.98771203815</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.0004316940708122634</v>
+        <v>-1.366094737331736e-16</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>[nan]</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>[nan]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1113,29 +1209,39 @@
       <c r="I11" t="n">
         <v>3.175</v>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0.003408700883743779</v>
+      </c>
+      <c r="K11" t="n">
+        <v>186.003104711952</v>
+      </c>
       <c r="L11" t="n">
-        <v>0.003408700883743779</v>
+        <v>0.001751694515012279</v>
       </c>
       <c r="M11" t="n">
-        <v>186.003104711952</v>
+        <v>95.5849836672474</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001751694515012279</v>
+        <v>54567.15360359359</v>
       </c>
       <c r="O11" t="n">
-        <v>95.5849836672474</v>
-      </c>
-      <c r="P11" t="n">
-        <v>54567.15360359359</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>-0.0002462890752533788</v>
+        <v>-7.892991815694472e-17</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>[0.00656171]</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>[248.91961011]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1174,29 +1280,43 @@
       <c r="I12" t="n">
         <v>3.175</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0.003768694015879434</v>
+      </c>
+      <c r="K12" t="n">
+        <v>197.823708886257</v>
+      </c>
       <c r="L12" t="n">
-        <v>0.003768694015879434</v>
+        <v>0.003001317510089134</v>
       </c>
       <c r="M12" t="n">
-        <v>197.823708886257</v>
+        <v>157.543106150142</v>
       </c>
       <c r="N12" t="n">
-        <v>0.003001317510089134</v>
+        <v>52491.31610386107</v>
       </c>
       <c r="O12" t="n">
-        <v>157.543106150142</v>
-      </c>
-      <c r="P12" t="n">
-        <v>52491.31610386107</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-0.0008862018816846342</v>
+        <v>-0.0002137776113951342</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>[0.00663752]</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>[258.06834779]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1235,29 +1355,39 @@
       <c r="I13" t="n">
         <v>3.175</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0.002831397119518019</v>
+      </c>
+      <c r="K13" t="n">
+        <v>164.610840241371</v>
+      </c>
       <c r="L13" t="n">
-        <v>0.002831397119518019</v>
+        <v>0.002369830775605819</v>
       </c>
       <c r="M13" t="n">
-        <v>164.610840241371</v>
+        <v>137.77644701028</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002369830775605819</v>
+        <v>58137.67313198094</v>
       </c>
       <c r="O13" t="n">
-        <v>137.77644701028</v>
-      </c>
-      <c r="P13" t="n">
-        <v>58137.67313198094</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.0002246542070388807</v>
+        <v>-1.951563910473908e-17</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>[0.00635436]</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>[253.15240602]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1296,29 +1426,39 @@
       <c r="I14" t="n">
         <v>3.175</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0.003337599360594598</v>
+      </c>
+      <c r="K14" t="n">
+        <v>191.93280380166</v>
+      </c>
       <c r="L14" t="n">
-        <v>0.003337599360594599</v>
+        <v>0.001092961678286598</v>
       </c>
       <c r="M14" t="n">
-        <v>191.93280380166</v>
+        <v>62.8521211497185</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001092961678286598</v>
+        <v>57506.24417888997</v>
       </c>
       <c r="O14" t="n">
-        <v>62.8521211497185</v>
-      </c>
-      <c r="P14" t="n">
-        <v>57506.24417888996</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>-0.0003095039103118984</v>
+        <v>-1.981921571303502e-16</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>[0.00631948]</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>[248.3971272]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1357,29 +1497,39 @@
       <c r="I15" t="n">
         <v>3.175</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0.003052171734517982</v>
+      </c>
+      <c r="K15" t="n">
+        <v>179.013564063243</v>
+      </c>
       <c r="L15" t="n">
-        <v>0.003052171734517982</v>
+        <v>0.0007991534053124824</v>
       </c>
       <c r="M15" t="n">
-        <v>179.013564063243</v>
+        <v>46.8713138583788</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0007991534053124824</v>
+        <v>58651.20957602798</v>
       </c>
       <c r="O15" t="n">
-        <v>46.8713138583788</v>
-      </c>
-      <c r="P15" t="n">
-        <v>58651.20957602798</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-0.0001167273405350824</v>
+        <v>-8.239936510889834e-17</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>[0.00618976]</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>[245.73442059]</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1418,29 +1568,39 @@
       <c r="I16" t="n">
         <v>3.175</v>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0.0007660653984972492</v>
+      </c>
+      <c r="K16" t="n">
+        <v>56.3769290357358</v>
+      </c>
       <c r="L16" t="n">
-        <v>0.0007660653984972492</v>
+        <v>0.0004235744015886492</v>
       </c>
       <c r="M16" t="n">
-        <v>56.3769290357358</v>
+        <v>31.172043570381</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0004235744015886492</v>
+        <v>73592.84095891487</v>
       </c>
       <c r="O16" t="n">
-        <v>31.172043570381</v>
-      </c>
-      <c r="P16" t="n">
-        <v>73592.84095891487</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-9.531691839774926e-05</v>
+        <v>-4.92227786308419e-17</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>[0.00527041]</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>[240.67871789]</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1479,29 +1639,39 @@
       <c r="I17" t="n">
         <v>3.175</v>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0.002407070069901567</v>
+      </c>
+      <c r="K17" t="n">
+        <v>144.247777516109</v>
+      </c>
       <c r="L17" t="n">
-        <v>0.002407070069901566</v>
+        <v>0.0006398491389772665</v>
       </c>
       <c r="M17" t="n">
-        <v>144.247777516109</v>
+        <v>38.3440504691419</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0006398491389772658</v>
+        <v>59926.70480174589</v>
       </c>
       <c r="O17" t="n">
-        <v>38.3440504691419</v>
-      </c>
-      <c r="P17" t="n">
-        <v>59926.70480174591</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.0001668037782862342</v>
+        <v>-1.665334536937735e-16</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>[0.007061]</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>[303.28881334]</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1540,29 +1710,39 @@
       <c r="I18" t="n">
         <v>3.175</v>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0.004564315429236116</v>
+      </c>
+      <c r="K18" t="n">
+        <v>227.601528876447</v>
+      </c>
       <c r="L18" t="n">
-        <v>0.004564315429236116</v>
+        <v>0.001575554387021716</v>
       </c>
       <c r="M18" t="n">
-        <v>227.601528876447</v>
+        <v>78.5656891759014</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001575554387021716</v>
+        <v>49865.42503582808</v>
       </c>
       <c r="O18" t="n">
-        <v>78.5656891759014</v>
-      </c>
-      <c r="P18" t="n">
-        <v>49865.42503582808</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>-0.0004536535710335157</v>
+        <v>-1.561251128379126e-17</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>[0.00767737]</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>[283.10466726]</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1601,29 +1781,39 @@
       <c r="I19" t="n">
         <v>3.175</v>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0.001810033408109702</v>
+      </c>
+      <c r="K19" t="n">
+        <v>102.235369819713</v>
+      </c>
       <c r="L19" t="n">
-        <v>0.001810033408109702</v>
+        <v>0.0006185604438029022</v>
       </c>
       <c r="M19" t="n">
-        <v>102.235369819713</v>
+        <v>34.9378942094105</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0006185604438029022</v>
+        <v>56482.58720621179</v>
       </c>
       <c r="O19" t="n">
-        <v>34.9378942094105</v>
-      </c>
-      <c r="P19" t="n">
-        <v>56482.58720621179</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.0005549399286298978</v>
+        <v>-2.168404344971009e-18</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>[0.00686329]</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>[274.69125295]</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1662,29 +1852,39 @@
       <c r="I20" t="n">
         <v>3.175</v>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0.002946729411013637</v>
+      </c>
+      <c r="K20" t="n">
+        <v>203.724300085789</v>
+      </c>
       <c r="L20" t="n">
-        <v>0.002946729411013637</v>
+        <v>0.001213498041939837</v>
       </c>
       <c r="M20" t="n">
-        <v>203.724300085789</v>
+        <v>83.8960775718557</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001213498041939837</v>
+        <v>69135.73378144363</v>
       </c>
       <c r="O20" t="n">
-        <v>83.8960775718557</v>
-      </c>
-      <c r="P20" t="n">
-        <v>69135.73378144363</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0004259274742736629</v>
+        <v>-3.729655473350135e-17</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>[0.00587294]</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>[267.7587454]</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1723,29 +1923,39 @@
       <c r="I21" t="n">
         <v>3.175</v>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0.003099591938446999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>184.962353082935</v>
+      </c>
       <c r="L21" t="n">
-        <v>0.003099591938447006</v>
+        <v>9.850138957700593e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>184.962353082935</v>
+        <v>5.87788623789952</v>
       </c>
       <c r="N21" t="n">
-        <v>9.850138957700637e-05</v>
+        <v>59673.13012680225</v>
       </c>
       <c r="O21" t="n">
-        <v>5.87788623789952</v>
-      </c>
-      <c r="P21" t="n">
-        <v>59673.13012680211</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>8.019852286719363e-05</v>
+        <v>8.673617379884035e-19</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>[0.00602558]</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>[240.21867153]</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1784,29 +1994,39 @@
       <c r="I22" t="n">
         <v>3.175</v>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0.002538236159027514</v>
+      </c>
+      <c r="K22" t="n">
+        <v>147.650044884146</v>
+      </c>
       <c r="L22" t="n">
-        <v>0.002538236159027514</v>
+        <v>0.0008695210452605136</v>
       </c>
       <c r="M22" t="n">
-        <v>147.650044884146</v>
+        <v>50.5803295346691</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0008695210452605134</v>
+        <v>58170.33389860614</v>
       </c>
       <c r="O22" t="n">
-        <v>50.5803295346691</v>
-      </c>
-      <c r="P22" t="n">
-        <v>58170.33389860614</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>-9.097191051991339e-05</v>
+        <v>-1.136243876764809e-16</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[0.0055403]</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>[205.94052989]</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1845,29 +2065,39 @@
       <c r="I23" t="n">
         <v>3.175</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0.002986865689476004</v>
+      </c>
+      <c r="K23" t="n">
+        <v>176.979439785403</v>
+      </c>
       <c r="L23" t="n">
-        <v>0.002986865689476005</v>
+        <v>0.001295917891209504</v>
       </c>
       <c r="M23" t="n">
-        <v>176.979439785403</v>
+        <v>76.786453171376</v>
       </c>
       <c r="N23" t="n">
-        <v>0.001295917891209504</v>
+        <v>59252.56043784517</v>
       </c>
       <c r="O23" t="n">
-        <v>76.786453171376</v>
-      </c>
-      <c r="P23" t="n">
-        <v>59252.56043784516</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>-0.0004286968068274045</v>
+        <v>-1.040834085586084e-16</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[0.00605723]</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>[240.40125743]</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1906,29 +2136,39 @@
       <c r="I24" t="n">
         <v>3.175</v>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0.002913928760891336</v>
+      </c>
+      <c r="K24" t="n">
+        <v>164.528068453978</v>
+      </c>
       <c r="L24" t="n">
-        <v>0.002913928760891397</v>
+        <v>0.0002542523812495356</v>
       </c>
       <c r="M24" t="n">
-        <v>164.528068453978</v>
+        <v>14.3557569931856</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0002542523812495404</v>
+        <v>56462.62553229024</v>
       </c>
       <c r="O24" t="n">
-        <v>14.3557569931856</v>
-      </c>
-      <c r="P24" t="n">
-        <v>56462.62553228906</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>-0.0002957619767601969</v>
+        <v>-3.556183125752455e-17</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[0.00618052]</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>[236.04290754]</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1967,29 +2207,39 @@
       <c r="I25" t="n">
         <v>3.175</v>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.002799291831076499</v>
+      </c>
+      <c r="K25" t="n">
+        <v>166.148394269309</v>
+      </c>
       <c r="L25" t="n">
-        <v>0.002799291831076681</v>
+        <v>9.348677992879144e-06</v>
       </c>
       <c r="M25" t="n">
-        <v>166.148394269309</v>
+        <v>0.554878851791746</v>
       </c>
       <c r="N25" t="n">
-        <v>9.348677992880878e-06</v>
+        <v>59353.72383286482</v>
       </c>
       <c r="O25" t="n">
-        <v>0.554878851791746</v>
-      </c>
-      <c r="P25" t="n">
-        <v>59353.72383286097</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>9.209623205211912e-05</v>
+        <v>1.301042606982605e-18</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[0.00585036]</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>[228.53323184]</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2028,29 +2278,39 @@
       <c r="I26" t="n">
         <v>3.175</v>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.002342094147758199</v>
+      </c>
+      <c r="K26" t="n">
+        <v>143.264709458966</v>
+      </c>
       <c r="L26" t="n">
-        <v>0.002342094147758236</v>
+        <v>6.561829182213499e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>143.264709458966</v>
+        <v>4.01383758295543</v>
       </c>
       <c r="N26" t="n">
-        <v>6.561829182213629e-05</v>
+        <v>61169.49209582195</v>
       </c>
       <c r="O26" t="n">
-        <v>4.01383758295543</v>
-      </c>
-      <c r="P26" t="n">
-        <v>61169.49209582098</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>7.758201511646372e-05</v>
+        <v>1.301042606982605e-18</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>[0.00586016]</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>[236.12430816]</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2089,29 +2349,39 @@
       <c r="I27" t="n">
         <v>3.175</v>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0.001877897583311999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>114.945593796641</v>
+      </c>
       <c r="L27" t="n">
-        <v>0.001877897583312018</v>
+        <v>4.202040312191342e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>114.945593796641</v>
+        <v>2.57205730032622</v>
       </c>
       <c r="N27" t="n">
-        <v>4.202040312191429e-05</v>
+        <v>61209.72454414391</v>
       </c>
       <c r="O27" t="n">
-        <v>2.57205730032622</v>
-      </c>
-      <c r="P27" t="n">
-        <v>61209.7245441433</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.811243338828211e-05</v>
+        <v>8.673617379884035e-19</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>[0.00604259]</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>[247.44590736]</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2150,29 +2420,39 @@
       <c r="I28" t="n">
         <v>3.175</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0.003608067645741652</v>
+      </c>
+      <c r="K28" t="n">
+        <v>211.28186215837</v>
+      </c>
       <c r="L28" t="n">
-        <v>0.003608067645741652</v>
+        <v>0.0003993781755485525</v>
       </c>
       <c r="M28" t="n">
-        <v>211.28186215837</v>
+        <v>23.3868577089734</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0003993781755485524</v>
+        <v>58558.17653744132</v>
       </c>
       <c r="O28" t="n">
-        <v>23.3868577089734</v>
-      </c>
-      <c r="P28" t="n">
-        <v>58558.17653744132</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.0002421665394191476</v>
+        <v>-5.247538514829841e-17</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>[0.00625276]</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>[249.03406727]</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -2211,29 +2491,39 @@
       <c r="I29" t="n">
         <v>3.175</v>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0.001648224949389693</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100.820663952542</v>
+      </c>
       <c r="L29" t="n">
-        <v>0.001648224949389607</v>
+        <v>0.000420692461308693</v>
       </c>
       <c r="M29" t="n">
-        <v>100.820663952542</v>
+        <v>25.7334372257117</v>
       </c>
       <c r="N29" t="n">
-        <v>0.000420692461308671</v>
+        <v>61169.23784576494</v>
       </c>
       <c r="O29" t="n">
-        <v>25.7334372257117</v>
-      </c>
-      <c r="P29" t="n">
-        <v>61169.23784576812</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>-0.0004348944450230073</v>
+        <v>-9.302454639925628e-17</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>[0.00608051]</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>[249.6013985]</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2272,29 +2562,39 @@
       <c r="I30" t="n">
         <v>3.175</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0.001742321762701669</v>
+      </c>
+      <c r="K30" t="n">
+        <v>117.019256302744</v>
+      </c>
       <c r="L30" t="n">
-        <v>0.001742321762701669</v>
+        <v>0.0006749432958574685</v>
       </c>
       <c r="M30" t="n">
-        <v>117.019256302744</v>
+        <v>45.3311002700754</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0006749432958574685</v>
+        <v>67162.82767500551</v>
       </c>
       <c r="O30" t="n">
-        <v>45.3311002700754</v>
-      </c>
-      <c r="P30" t="n">
-        <v>67162.82767500551</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>-9.650639171126857e-05</v>
+        <v>-1.684850176042474e-16</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>[0.00562653]</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>[243.56803442]</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -2333,29 +2633,39 @@
       <c r="I31" t="n">
         <v>3.175</v>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0.00377042063778874</v>
+      </c>
+      <c r="K31" t="n">
+        <v>185.923507771131</v>
+      </c>
       <c r="L31" t="n">
-        <v>0.003770420637788741</v>
+        <v>0.00120180735436314</v>
       </c>
       <c r="M31" t="n">
-        <v>185.923507771131</v>
+        <v>59.2624167046206</v>
       </c>
       <c r="N31" t="n">
-        <v>0.001201807354363141</v>
+        <v>49311.07842656267</v>
       </c>
       <c r="O31" t="n">
-        <v>59.2624167046206</v>
-      </c>
-      <c r="P31" t="n">
-        <v>49311.07842656266</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>-0.001050742857985741</v>
+        <v>-3.989863994746656e-17</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>[0.0070141]</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>[247.25043481]</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2394,29 +2704,39 @@
       <c r="I32" t="n">
         <v>3.175</v>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0.0005420269248841921</v>
+      </c>
+      <c r="K32" t="n">
+        <v>46.1272742639521</v>
+      </c>
       <c r="L32" t="n">
-        <v>0.000542026924884292</v>
+        <v>4.254760559953716e-05</v>
       </c>
       <c r="M32" t="n">
-        <v>46.1272742639521</v>
+        <v>3.62086269641244</v>
       </c>
       <c r="N32" t="n">
-        <v>4.254760559954508e-05</v>
+        <v>85101.44449707461</v>
       </c>
       <c r="O32" t="n">
-        <v>3.62086269641244</v>
-      </c>
-      <c r="P32" t="n">
-        <v>85101.44449705892</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4.507463801850802e-05</v>
+        <v>7.914675859144182e-18</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>[0.00493244]</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>[249.55500899]</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -2455,29 +2775,39 @@
       <c r="I33" t="n">
         <v>3.175</v>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0.003575680588424118</v>
+      </c>
+      <c r="K33" t="n">
+        <v>193.34158337017</v>
+      </c>
       <c r="L33" t="n">
-        <v>0.003575680588424118</v>
+        <v>0.001764194556589218</v>
       </c>
       <c r="M33" t="n">
-        <v>193.34158337017</v>
+        <v>95.3922366690816</v>
       </c>
       <c r="N33" t="n">
-        <v>0.001764194556589218</v>
+        <v>54071.26799750867</v>
       </c>
       <c r="O33" t="n">
-        <v>95.3922366690816</v>
-      </c>
-      <c r="P33" t="n">
-        <v>54071.26799750867</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>-0.0006475197704802183</v>
+        <v>-1.821459649775647e-17</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>[0.00639713]</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>[237.75820578]</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2516,29 +2846,39 @@
       <c r="I34" t="n">
         <v>3.175</v>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0.0005830672385619013</v>
+      </c>
+      <c r="K34" t="n">
+        <v>44.360833762824</v>
+      </c>
       <c r="L34" t="n">
-        <v>0.0005830672385619013</v>
+        <v>0.0001722150993256013</v>
       </c>
       <c r="M34" t="n">
-        <v>44.360833762824</v>
+        <v>13.1024432301733</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0001722150993256013</v>
+        <v>76081.84927734443</v>
       </c>
       <c r="O34" t="n">
-        <v>13.1024432301733</v>
-      </c>
-      <c r="P34" t="n">
-        <v>76081.84927734443</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>-1.660443807201283e-06</v>
+        <v>-1.301042606982605e-18</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>[0.00507792]</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>[234.17396009]</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -2577,29 +2917,39 @@
       <c r="I35" t="n">
         <v>3.175</v>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.0007326478168975564</v>
+      </c>
+      <c r="K35" t="n">
+        <v>48.1833180137349</v>
+      </c>
       <c r="L35" t="n">
-        <v>0.0007326478168975564</v>
+        <v>0.0004947773424867565</v>
       </c>
       <c r="M35" t="n">
-        <v>48.1833180137349</v>
+        <v>32.5395278457009</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0004947773424867565</v>
+        <v>65766.00230349448</v>
       </c>
       <c r="O35" t="n">
-        <v>32.5395278457009</v>
-      </c>
-      <c r="P35" t="n">
-        <v>65766.00230349448</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>-4.135819297285646e-05</v>
+        <v>-5.648693318649478e-17</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>[0.00557583]</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>[235.16789173]</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2638,29 +2988,39 @@
       <c r="I36" t="n">
         <v>3.175</v>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.002594532464993202</v>
+      </c>
+      <c r="K36" t="n">
+        <v>144.025333226662</v>
+      </c>
       <c r="L36" t="n">
-        <v>0.002594532464993202</v>
+        <v>0.0007298762958923017</v>
       </c>
       <c r="M36" t="n">
-        <v>144.025333226662</v>
+        <v>40.5162310159823</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0007298762958923019</v>
+        <v>55511.09310441386</v>
       </c>
       <c r="O36" t="n">
-        <v>40.5162310159823</v>
-      </c>
-      <c r="P36" t="n">
-        <v>55511.09310441385</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>-0.001131404196779302</v>
+        <v>-1.734723475976807e-18</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>[0.00694048]</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>[274.25136363]</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -2699,29 +3059,39 @@
       <c r="I37" t="n">
         <v>3.175</v>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.004883037301830246</v>
+      </c>
+      <c r="K37" t="n">
+        <v>218.94767432926</v>
+      </c>
       <c r="L37" t="n">
-        <v>0.004883037301830246</v>
+        <v>0.002233950269629646</v>
       </c>
       <c r="M37" t="n">
-        <v>218.94767432926</v>
+        <v>100.166799037006</v>
       </c>
       <c r="N37" t="n">
-        <v>0.002233950269629646</v>
+        <v>44838.41936804264</v>
       </c>
       <c r="O37" t="n">
-        <v>100.166799037006</v>
-      </c>
-      <c r="P37" t="n">
-        <v>44838.41936804264</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-0.0009057003101174462</v>
+        <v>-4.597017211338539e-17</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>[0.00785175]</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>[262.3832283]</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -2760,29 +3130,39 @@
       <c r="I38" t="n">
         <v>3.175</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0.003201193006741849</v>
+      </c>
+      <c r="K38" t="n">
+        <v>174.581165598501</v>
+      </c>
       <c r="L38" t="n">
-        <v>0.003201193006741849</v>
+        <v>0.0005973992805999487</v>
       </c>
       <c r="M38" t="n">
-        <v>174.581165598501</v>
+        <v>32.5799358286726</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0005973992805999486</v>
+        <v>54536.28232687803</v>
       </c>
       <c r="O38" t="n">
-        <v>32.5799358286726</v>
-      </c>
-      <c r="P38" t="n">
-        <v>54536.28232687803</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>-0.0008630670852242486</v>
+        <v>-1.487525380650112e-16</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[0.00699255]</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>[272.27523845]</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2821,29 +3201,39 @@
       <c r="I39" t="n">
         <v>3.175</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0.003535944426428287</v>
+      </c>
+      <c r="K39" t="n">
+        <v>176.304083740973</v>
+      </c>
       <c r="L39" t="n">
-        <v>0.003535944426428289</v>
+        <v>0.001604180994517587</v>
       </c>
       <c r="M39" t="n">
-        <v>176.304083740973</v>
+        <v>79.9853239432246</v>
       </c>
       <c r="N39" t="n">
-        <v>0.001604180994517588</v>
+        <v>49860.53582269123</v>
       </c>
       <c r="O39" t="n">
-        <v>79.9853239432246</v>
-      </c>
-      <c r="P39" t="n">
-        <v>49860.53582269121</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>-0.0008016758350805884</v>
+        <v>-1.873501354054952e-16</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>[0.00707856]</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>[253.21952832]</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2882,29 +3272,39 @@
       <c r="I40" t="n">
         <v>3.175</v>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.002197614221644403</v>
+      </c>
+      <c r="K40" t="n">
+        <v>126.327924989666</v>
+      </c>
       <c r="L40" t="n">
-        <v>0.002197614221644402</v>
+        <v>0.0003662964402999023</v>
       </c>
       <c r="M40" t="n">
-        <v>126.327924989666</v>
+        <v>21.056229422998</v>
       </c>
       <c r="N40" t="n">
-        <v>0.0003662964402999018</v>
+        <v>57484.12243853199</v>
       </c>
       <c r="O40" t="n">
-        <v>21.056229422998</v>
-      </c>
-      <c r="P40" t="n">
-        <v>57484.122438532</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-1.049680261430187e-05</v>
+        <v>-1.023486850826316e-16</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[0.00570956]</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>[213.2409893]</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -2943,29 +3343,39 @@
       <c r="I41" t="n">
         <v>3.175</v>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.002440386540067832</v>
+      </c>
+      <c r="K41" t="n">
+        <v>127.142187354785</v>
+      </c>
       <c r="L41" t="n">
-        <v>0.002440386540067831</v>
+        <v>0.001272923963641632</v>
       </c>
       <c r="M41" t="n">
-        <v>127.142187354785</v>
+        <v>66.3183206498186</v>
       </c>
       <c r="N41" t="n">
-        <v>0.001272923963641631</v>
+        <v>52099.200379646</v>
       </c>
       <c r="O41" t="n">
-        <v>66.3183206498186</v>
-      </c>
-      <c r="P41" t="n">
-        <v>52099.20037964602</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-0.0001231640292093314</v>
+        <v>-3.209238430557093e-17</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[0.00610135]</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>[213.67688741]</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3004,29 +3414,39 @@
       <c r="I42" t="n">
         <v>3.175</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.002919619240649737</v>
+      </c>
+      <c r="K42" t="n">
+        <v>137.914967289347</v>
+      </c>
       <c r="L42" t="n">
-        <v>0.002919619240649738</v>
+        <v>0.0004717993448001373</v>
       </c>
       <c r="M42" t="n">
-        <v>137.914967289347</v>
+        <v>22.2865332229986</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0004717993448001379</v>
+        <v>47237.31278694244</v>
       </c>
       <c r="O42" t="n">
-        <v>22.2865332229986</v>
-      </c>
-      <c r="P42" t="n">
-        <v>47237.31278694243</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-0.000875812239462738</v>
+        <v>-3.729655473350135e-17</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>[0.00689806]</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>[231.37142148]</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3065,29 +3485,39 @@
       <c r="I43" t="n">
         <v>3.175</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.0007756972094795681</v>
+      </c>
+      <c r="K43" t="n">
+        <v>43.69035133474</v>
+      </c>
       <c r="L43" t="n">
-        <v>0.0007756972094795218</v>
+        <v>0.0004853675214597681</v>
       </c>
       <c r="M43" t="n">
-        <v>43.69035133474</v>
+        <v>27.3378288330787</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0004853675214597392</v>
+        <v>56323.97641865025</v>
       </c>
       <c r="O43" t="n">
-        <v>27.3378288330787</v>
-      </c>
-      <c r="P43" t="n">
-        <v>56323.97641865361</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-0.0007330792019057392</v>
+        <v>-6.808789643208968e-17</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>[0.00607948]</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>[229.77271333]</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3126,29 +3556,39 @@
       <c r="I44" t="n">
         <v>3.175</v>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.004385461460634597</v>
+      </c>
+      <c r="K44" t="n">
+        <v>190.806708666229</v>
+      </c>
       <c r="L44" t="n">
-        <v>0.004385461460634597</v>
+        <v>0.002048999318419596</v>
       </c>
       <c r="M44" t="n">
-        <v>190.806708666229</v>
+        <v>89.1497552803521</v>
       </c>
       <c r="N44" t="n">
-        <v>0.002048999318419596</v>
+        <v>43508.92383366616</v>
       </c>
       <c r="O44" t="n">
-        <v>89.1497552803521</v>
-      </c>
-      <c r="P44" t="n">
-        <v>43508.92383366616</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>-0.001030591323611097</v>
+        <v>-9.627715291671279e-17</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>[0.00729047]</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>[230.18281857]</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3187,29 +3627,39 @@
       <c r="I45" t="n">
         <v>3.175</v>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.002229400711533884</v>
+      </c>
+      <c r="K45" t="n">
+        <v>106.423782753718</v>
+      </c>
       <c r="L45" t="n">
-        <v>0.002229400711533884</v>
+        <v>0.001046438241381984</v>
       </c>
       <c r="M45" t="n">
-        <v>106.423782753718</v>
+        <v>49.9532970855636</v>
       </c>
       <c r="N45" t="n">
-        <v>0.001046438241381984</v>
+        <v>47736.49806565988</v>
       </c>
       <c r="O45" t="n">
-        <v>49.9532970855636</v>
-      </c>
-      <c r="P45" t="n">
-        <v>47736.49806565988</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>-0.0007321093497570839</v>
+        <v>-1.838806884535416e-16</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>[0.00680595]</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>[229.41907001]</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3248,29 +3698,39 @@
       <c r="I46" t="n">
         <v>3.175</v>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.001642667931312868</v>
+      </c>
+      <c r="K46" t="n">
+        <v>86.96884979516319</v>
+      </c>
       <c r="L46" t="n">
-        <v>0.001642667931312869</v>
+        <v>0.0008846657864568685</v>
       </c>
       <c r="M46" t="n">
-        <v>86.96884979516319</v>
+        <v>46.8374431829298</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0008846657864568686</v>
+        <v>52943.65838484175</v>
       </c>
       <c r="O46" t="n">
-        <v>46.8374431829298</v>
-      </c>
-      <c r="P46" t="n">
-        <v>52943.65838484174</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>-0.0005983305746827686</v>
+        <v>-1.684850176042474e-16</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[0.00608636]</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>[216.34693032]</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3309,29 +3769,39 @@
       <c r="I47" t="n">
         <v>3.175</v>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.002029688456395918</v>
+      </c>
+      <c r="K47" t="n">
+        <v>98.3135045128474</v>
+      </c>
       <c r="L47" t="n">
-        <v>0.002029688456395919</v>
+        <v>0.0002692857965243178</v>
       </c>
       <c r="M47" t="n">
-        <v>98.3135045128474</v>
+        <v>13.0435931132256</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0002692857965243188</v>
+        <v>48437.73151640275</v>
       </c>
       <c r="O47" t="n">
-        <v>13.0435931132256</v>
-      </c>
-      <c r="P47" t="n">
-        <v>48437.73151640273</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-0.0004840251368253188</v>
+        <v>-1.778091562876227e-17</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[0.00607457]</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>[197.36300395]</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -3370,33 +3840,39 @@
       <c r="I48" t="n">
         <v>3.175</v>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>trim at 0.13</t>
-        </is>
+      <c r="J48" t="n">
+        <v>0.002063402786403701</v>
+      </c>
+      <c r="K48" t="n">
+        <v>107.531322495733</v>
       </c>
       <c r="L48" t="n">
-        <v>0.002063402786403701</v>
+        <v>0.0004515525620684006</v>
       </c>
       <c r="M48" t="n">
-        <v>107.531322495733</v>
+        <v>23.5320241377496</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0004515525620684005</v>
+        <v>52113.58790648386</v>
       </c>
       <c r="O48" t="n">
-        <v>23.5320241377496</v>
-      </c>
-      <c r="P48" t="n">
-        <v>52113.58790648386</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>-8.460631615250054e-05</v>
+        <v>-1.006139616066548e-16</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[0.00675115]</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>[247.59971195]</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -3435,29 +3911,39 @@
       <c r="I49" t="n">
         <v>3.175</v>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.004696947534094185</v>
+      </c>
+      <c r="K49" t="n">
+        <v>214.622689722153</v>
+      </c>
       <c r="L49" t="n">
-        <v>0.004696947534094185</v>
+        <v>0.001324219784092685</v>
       </c>
       <c r="M49" t="n">
-        <v>214.622689722153</v>
+        <v>60.5090028752196</v>
       </c>
       <c r="N49" t="n">
-        <v>0.001324219784092684</v>
+        <v>45694.07858279248</v>
       </c>
       <c r="O49" t="n">
-        <v>60.5090028752196</v>
-      </c>
-      <c r="P49" t="n">
-        <v>45694.07858279248</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>-0.0008567276039679844</v>
+        <v>-8.500145032286355e-17</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>[0.00726536]</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>[240.59583819]</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3496,29 +3982,39 @@
       <c r="I50" t="n">
         <v>3.175</v>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0.002872619939431664</v>
+      </c>
+      <c r="K50" t="n">
+        <v>151.737831510864</v>
+      </c>
       <c r="L50" t="n">
-        <v>0.002872619939431664</v>
+        <v>0.0005664390169995642</v>
       </c>
       <c r="M50" t="n">
-        <v>151.737831510864</v>
+        <v>29.9205011226317</v>
       </c>
       <c r="N50" t="n">
-        <v>0.0005664390169995643</v>
+        <v>52822.10480683522</v>
       </c>
       <c r="O50" t="n">
-        <v>29.9205011226317</v>
-      </c>
-      <c r="P50" t="n">
-        <v>52822.10480683522</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>-0.0002699520485847642</v>
+        <v>-6.418476861114186e-17</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>[0.00682053]</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>[254.63062289]</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -3557,33 +4053,39 @@
       <c r="I51" t="n">
         <v>3.175</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>trim at 0.16</t>
-        </is>
+      <c r="J51" t="n">
+        <v>0.004423947936696039</v>
+      </c>
+      <c r="K51" t="n">
+        <v>179.160245834743</v>
       </c>
       <c r="L51" t="n">
-        <v>0.004423947936696039</v>
+        <v>0.002452435642864739</v>
       </c>
       <c r="M51" t="n">
-        <v>179.160245834743</v>
+        <v>99.3182964530266</v>
       </c>
       <c r="N51" t="n">
-        <v>0.002452435642864739</v>
+        <v>40497.81968468332</v>
       </c>
       <c r="O51" t="n">
-        <v>99.3182964530266</v>
-      </c>
-      <c r="P51" t="n">
-        <v>40497.81968468332</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>-0.001260259507802939</v>
+        <v>-1.387778780781446e-16</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>[0.00796062]</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>[241.39220896]</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -3622,33 +4124,39 @@
       <c r="I52" t="n">
         <v>3.175</v>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
-        </is>
+      <c r="J52" t="n">
+        <v>0.002485691494831069</v>
+      </c>
+      <c r="K52" t="n">
+        <v>134.337541640328</v>
       </c>
       <c r="L52" t="n">
-        <v>0.002485691494831069</v>
+        <v>0.001082338208415669</v>
       </c>
       <c r="M52" t="n">
-        <v>134.337541640328</v>
+        <v>58.4942477553271</v>
       </c>
       <c r="N52" t="n">
-        <v>0.001082338208415669</v>
+        <v>54044.33410971532</v>
       </c>
       <c r="O52" t="n">
-        <v>58.4942477553271</v>
-      </c>
-      <c r="P52" t="n">
-        <v>54044.33410971532</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>-0.0005956601279578689</v>
+        <v>-6.895525817007808e-17</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>[0.00545578]</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>[186.76539531]</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -3687,33 +4195,39 @@
       <c r="I53" t="n">
         <v>3.175</v>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>trim at 0.2</t>
-        </is>
+      <c r="J53" t="n">
+        <v>0.001228066336613659</v>
+      </c>
+      <c r="K53" t="n">
+        <v>71.2418157261492</v>
       </c>
       <c r="L53" t="n">
-        <v>0.001228066336613659</v>
+        <v>0.0003861060149173587</v>
       </c>
       <c r="M53" t="n">
-        <v>71.2418157261492</v>
+        <v>22.3985404903691</v>
       </c>
       <c r="N53" t="n">
-        <v>0.0003861060149173587</v>
+        <v>58011.37414335085</v>
       </c>
       <c r="O53" t="n">
-        <v>22.3985404903691</v>
-      </c>
-      <c r="P53" t="n">
-        <v>58011.37414335085</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>-0.0002364311953404587</v>
+        <v>-1.587271980518778e-16</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[0.00465399]</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>[153.96170388]</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3752,33 +4266,43 @@
       <c r="I54" t="n">
         <v>3.175</v>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
-        </is>
+      <c r="J54" t="n">
+        <v>0.004655036302394712</v>
+      </c>
+      <c r="K54" t="n">
+        <v>162.188065728032</v>
       </c>
       <c r="L54" t="n">
-        <v>0.004655036302394712</v>
+        <v>0.004477101959842712</v>
       </c>
       <c r="M54" t="n">
-        <v>162.188065728032</v>
+        <v>155.988580918375</v>
       </c>
       <c r="N54" t="n">
-        <v>0.004477101959842712</v>
+        <v>34841.41802387166</v>
       </c>
       <c r="O54" t="n">
-        <v>155.988580918375</v>
-      </c>
-      <c r="P54" t="n">
-        <v>34841.41802387166</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>-0.002292802753004312</v>
+        <v>-0.0009700428058604122</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[0.00634629]</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>[191.29395231]</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -3817,29 +4341,39 @@
       <c r="I55" t="n">
         <v>3.175</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.002787434520705606</v>
+      </c>
+      <c r="K55" t="n">
+        <v>152.399409973673</v>
+      </c>
       <c r="L55" t="n">
-        <v>0.002787434520705606</v>
+        <v>0.0009389922022407065</v>
       </c>
       <c r="M55" t="n">
-        <v>152.399409973673</v>
+        <v>51.3381952215828</v>
       </c>
       <c r="N55" t="n">
-        <v>0.0009389922022407065</v>
+        <v>54673.71837495033</v>
       </c>
       <c r="O55" t="n">
-        <v>51.3381952215828</v>
-      </c>
-      <c r="P55" t="n">
-        <v>54673.71837495033</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>-6.444663434220649e-05</v>
+        <v>-6.505213034913027e-18</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>[0.0054088]</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>[186.37201145]</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -3878,29 +4412,39 @@
       <c r="I56" t="n">
         <v>3.175</v>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.002531234604146474</v>
+      </c>
+      <c r="K56" t="n">
+        <v>126.804257125663</v>
+      </c>
       <c r="L56" t="n">
-        <v>0.002531234604146474</v>
+        <v>0.0009362218356743739</v>
       </c>
       <c r="M56" t="n">
-        <v>126.804257125663</v>
+        <v>46.9007946489988</v>
       </c>
       <c r="N56" t="n">
-        <v>0.0009362218356743738</v>
+        <v>50095.81368631023</v>
       </c>
       <c r="O56" t="n">
-        <v>46.9007946489988</v>
-      </c>
-      <c r="P56" t="n">
-        <v>50095.81368631024</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>-0.0005357913646937737</v>
+        <v>-1.739060284666749e-16</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>[0.00574067]</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>[187.39180035]</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -3939,33 +4483,39 @@
       <c r="I57" t="n">
         <v>3.175</v>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
-        </is>
+      <c r="J57" t="n">
+        <v>0.002571921967269722</v>
+      </c>
+      <c r="K57" t="n">
+        <v>149.984671993292</v>
       </c>
       <c r="L57" t="n">
-        <v>0.002571921967269722</v>
+        <v>0.001076732829417522</v>
       </c>
       <c r="M57" t="n">
-        <v>149.984671993292</v>
+        <v>62.7909486756447</v>
       </c>
       <c r="N57" t="n">
-        <v>0.001076732829417522</v>
+        <v>58316.18295655812</v>
       </c>
       <c r="O57" t="n">
-        <v>62.7909486756447</v>
-      </c>
-      <c r="P57" t="n">
-        <v>58316.18295655812</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>-0.0001747938059600222</v>
+        <v>-2.211772431870429e-17</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>[0.00529155]</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>[191.95047384]</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4004,29 +4554,39 @@
       <c r="I58" t="n">
         <v>3.175</v>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.003432602724840315</v>
+      </c>
+      <c r="K58" t="n">
+        <v>151.968738810775</v>
+      </c>
       <c r="L58" t="n">
-        <v>0.003432602724840315</v>
+        <v>0.001448252989332415</v>
       </c>
       <c r="M58" t="n">
-        <v>151.968738810775</v>
+        <v>64.1172888068544</v>
       </c>
       <c r="N58" t="n">
-        <v>0.001448252989332415</v>
+        <v>44272.16051279124</v>
       </c>
       <c r="O58" t="n">
-        <v>64.1172888068544</v>
-      </c>
-      <c r="P58" t="n">
-        <v>44272.16051279124</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>-0.001127086786231615</v>
+        <v>-1.474514954580286e-17</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>[0.00658279]</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>[202.89022806]</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4065,29 +4625,43 @@
       <c r="I59" t="n">
         <v>3.175</v>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.004615041001057621</v>
+      </c>
+      <c r="K59" t="n">
+        <v>159.315233127494</v>
+      </c>
       <c r="L59" t="n">
-        <v>0.004615041001057621</v>
+        <v>0.004502664230031621</v>
       </c>
       <c r="M59" t="n">
-        <v>159.315233127494</v>
+        <v>155.435889158498</v>
       </c>
       <c r="N59" t="n">
-        <v>0.004502664230031621</v>
+        <v>34520.87058186135</v>
       </c>
       <c r="O59" t="n">
-        <v>155.435889158498</v>
-      </c>
-      <c r="P59" t="n">
-        <v>34520.87058186135</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>-0.002078540969966321</v>
+        <v>-0.0009358046877391214</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>[0.00663262]</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>[200.59782047]</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4126,29 +4700,39 @@
       <c r="I60" t="n">
         <v>3.175</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.002183439006668278</v>
+      </c>
+      <c r="K60" t="n">
+        <v>114.21692709225</v>
+      </c>
       <c r="L60" t="n">
-        <v>0.002183439006668277</v>
+        <v>0.001216178373921078</v>
       </c>
       <c r="M60" t="n">
-        <v>114.21692709225</v>
+        <v>63.6189773293808</v>
       </c>
       <c r="N60" t="n">
-        <v>0.001216178373921077</v>
+        <v>52310.56454676711</v>
       </c>
       <c r="O60" t="n">
-        <v>63.6189773293808</v>
-      </c>
-      <c r="P60" t="n">
-        <v>52310.56454676712</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>-0.0002063811979691773</v>
+        <v>-7.762887554996212e-17</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>[0.00580383]</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>[198.98072405]</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4187,33 +4771,39 @@
       <c r="I61" t="n">
         <v>3.175</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J61" t="n">
+        <v>0.0009431448108916057</v>
+      </c>
+      <c r="K61" t="n">
+        <v>51.966869050494</v>
       </c>
       <c r="L61" t="n">
-        <v>0.0009431448108916057</v>
+        <v>0.0005060832287942057</v>
       </c>
       <c r="M61" t="n">
-        <v>51.966869050494</v>
+        <v>27.8849658882577</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0005060832287942057</v>
+        <v>55099.56525272816</v>
       </c>
       <c r="O61" t="n">
-        <v>27.8849658882577</v>
-      </c>
-      <c r="P61" t="n">
-        <v>55099.56525272816</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>-0.0003618505727106058</v>
+        <v>-5.746271514173174e-18</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>[0.00573765]</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>[205.94279353]</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4252,33 +4842,43 @@
       <c r="I62" t="n">
         <v>3.175</v>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>trim at 0.17</t>
-        </is>
+      <c r="J62" t="n">
+        <v>0.003881752702090299</v>
+      </c>
+      <c r="K62" t="n">
+        <v>157.454775694613</v>
       </c>
       <c r="L62" t="n">
-        <v>0.003881752702090299</v>
+        <v>0.002624151374523599</v>
       </c>
       <c r="M62" t="n">
-        <v>157.454775694613</v>
+        <v>106.442938995528</v>
       </c>
       <c r="N62" t="n">
-        <v>0.002624151374523599</v>
+        <v>40562.80442848011</v>
       </c>
       <c r="O62" t="n">
-        <v>106.442938995528</v>
-      </c>
-      <c r="P62" t="n">
-        <v>40562.80442848011</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>-0.0009129031790100989</v>
+        <v>-0.000255984054904099</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>LPL @ 75</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>[0.00632875]</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>[187.98306967]</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4317,29 +4917,39 @@
       <c r="I63" t="n">
         <v>3.175</v>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.002347687751566579</v>
+      </c>
+      <c r="K63" t="n">
+        <v>120.321861081836</v>
+      </c>
       <c r="L63" t="n">
-        <v>0.002347687751566579</v>
+        <v>0.001206472803963879</v>
       </c>
       <c r="M63" t="n">
-        <v>120.321861081836</v>
+        <v>61.8332029123926</v>
       </c>
       <c r="N63" t="n">
-        <v>0.001206472803963879</v>
+        <v>51251.21984452444</v>
       </c>
       <c r="O63" t="n">
-        <v>61.8332029123926</v>
-      </c>
-      <c r="P63" t="n">
-        <v>51251.21984452443</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>1.666305095732092e-05</v>
+        <v>-7.892991815694472e-17</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>[0.00578348]</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>[193.90783315]</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4378,29 +4988,39 @@
       <c r="I64" t="n">
         <v>3.175</v>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.002376444629577968</v>
+      </c>
+      <c r="K64" t="n">
+        <v>117.932091658521</v>
+      </c>
       <c r="L64" t="n">
-        <v>0.002376444629577968</v>
+        <v>0.0007500416501684681</v>
       </c>
       <c r="M64" t="n">
-        <v>117.932091658521</v>
+        <v>37.2211409996473</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0007500416501684681</v>
+        <v>49625.43212271877</v>
       </c>
       <c r="O64" t="n">
-        <v>37.2211409996473</v>
-      </c>
-      <c r="P64" t="n">
-        <v>49625.43212271877</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5.101728079533185e-05</v>
+        <v>-6.808789643208968e-17</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>[0.00566904]</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>[182.07793808]</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4439,33 +5059,39 @@
       <c r="I65" t="n">
         <v>3.175</v>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>trim at 0.2</t>
-        </is>
+      <c r="J65" t="n">
+        <v>0.002801238875892799</v>
+      </c>
+      <c r="K65" t="n">
+        <v>137.529404464271</v>
       </c>
       <c r="L65" t="n">
-        <v>0.002801238875892798</v>
+        <v>0.0007091321681881988</v>
       </c>
       <c r="M65" t="n">
-        <v>137.529404464271</v>
+        <v>34.8154973917735</v>
       </c>
       <c r="N65" t="n">
-        <v>0.0007091321681881983</v>
+        <v>49095.92168230859</v>
       </c>
       <c r="O65" t="n">
-        <v>34.8154973917735</v>
-      </c>
-      <c r="P65" t="n">
-        <v>49095.9216823086</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>-1.674164147798338e-06</v>
+        <v>-9.8879238130678e-17</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>[0.00579331]</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>[186.23587121]</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4504,33 +5130,43 @@
       <c r="I66" t="n">
         <v>3.175</v>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>trim at 0.175</t>
-        </is>
+      <c r="J66" t="n">
+        <v>0.002836324709717948</v>
+      </c>
+      <c r="K66" t="n">
+        <v>125.650398590921</v>
       </c>
       <c r="L66" t="n">
-        <v>0.002836324709717948</v>
+        <v>0.002755051091441948</v>
       </c>
       <c r="M66" t="n">
-        <v>125.650398590921</v>
+        <v>122.049942516087</v>
       </c>
       <c r="N66" t="n">
-        <v>0.002755051091441948</v>
+        <v>44300.42800121289</v>
       </c>
       <c r="O66" t="n">
-        <v>122.049942516087</v>
-      </c>
-      <c r="P66" t="n">
-        <v>44300.42800121289</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>-0.000330482017258148</v>
+        <v>-0.0002349608756214479</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>[0.00581521]</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>[184.28113182]</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4569,29 +5205,39 @@
       <c r="I67" t="n">
         <v>3.175</v>
       </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.002286106157598223</v>
+      </c>
+      <c r="K67" t="n">
+        <v>96.78575508036739</v>
+      </c>
       <c r="L67" t="n">
-        <v>0.002286106157598223</v>
+        <v>0.001057175141954723</v>
       </c>
       <c r="M67" t="n">
-        <v>96.78575508036739</v>
+        <v>44.7571054503344</v>
       </c>
       <c r="N67" t="n">
-        <v>0.001057175141954723</v>
+        <v>42336.50950927416</v>
       </c>
       <c r="O67" t="n">
-        <v>44.7571054503344</v>
-      </c>
-      <c r="P67" t="n">
-        <v>42336.50950927417</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>-0.001640142602827623</v>
+        <v>-2.298508605669269e-17</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>[0.00681378]</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>[203.79857259]</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4630,29 +5276,43 @@
       <c r="I68" t="n">
         <v>3.175</v>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.004985253954606032</v>
+      </c>
+      <c r="K68" t="n">
+        <v>165.156659126179</v>
+      </c>
       <c r="L68" t="n">
-        <v>0.004985253954606032</v>
+        <v>0.004869934368226032</v>
       </c>
       <c r="M68" t="n">
-        <v>165.156659126179</v>
+        <v>161.336232365224</v>
       </c>
       <c r="N68" t="n">
-        <v>0.004869934368226032</v>
+        <v>33129.03627980388</v>
       </c>
       <c r="O68" t="n">
-        <v>161.336232365224</v>
-      </c>
-      <c r="P68" t="n">
-        <v>33129.03627980388</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>-0.001829433671051533</v>
+        <v>-0.0009581021085890325</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>LPL @ 100</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>[0.00699032]</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>[204.65696578]</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -4691,29 +5351,39 @@
       <c r="I69" t="n">
         <v>3.175</v>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.004318579631240166</v>
+      </c>
+      <c r="K69" t="n">
+        <v>188.358407583882</v>
+      </c>
       <c r="L69" t="n">
-        <v>0.004318579631240168</v>
+        <v>0.001009341110338466</v>
       </c>
       <c r="M69" t="n">
-        <v>188.358407583882</v>
+        <v>44.0232438640259</v>
       </c>
       <c r="N69" t="n">
-        <v>0.001009341110338468</v>
+        <v>43615.82364287472</v>
       </c>
       <c r="O69" t="n">
-        <v>44.0232438640259</v>
-      </c>
-      <c r="P69" t="n">
-        <v>43615.8236428747</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>-0.0008277733694668681</v>
+        <v>-6.591949208711867e-17</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>[0.0071111]</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>[222.92474578]</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4752,29 +5422,39 @@
       <c r="I70" t="n">
         <v>3.175</v>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.004512857274977414</v>
+      </c>
+      <c r="K70" t="n">
+        <v>178.246468462332</v>
+      </c>
       <c r="L70" t="n">
-        <v>0.004512857274977415</v>
+        <v>0.002002363297588115</v>
       </c>
       <c r="M70" t="n">
-        <v>178.246468462332</v>
+        <v>79.088294760099</v>
       </c>
       <c r="N70" t="n">
-        <v>0.002002363297588115</v>
+        <v>39497.4752360685</v>
       </c>
       <c r="O70" t="n">
-        <v>79.088294760099</v>
-      </c>
-      <c r="P70" t="n">
-        <v>39497.47523606849</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>-0.0008636320765332151</v>
+        <v>-1.474514954580286e-17</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>[0.0073493]</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>[211.28392598]</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -4813,33 +5493,39 @@
       <c r="I71" t="n">
         <v>3.175</v>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
-        </is>
+      <c r="J71" t="n">
+        <v>0.002394123425083844</v>
+      </c>
+      <c r="K71" t="n">
+        <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.002394123425083844</v>
+        <v>0.000774351984478844</v>
       </c>
       <c r="M71" t="n">
-        <v>89.5786348354455</v>
+        <v>28.9731903230109</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0007743519844788439</v>
+        <v>37416.04709970555</v>
       </c>
       <c r="O71" t="n">
-        <v>28.9731903230109</v>
-      </c>
-      <c r="P71" t="n">
-        <v>37416.04709970556</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>-0.0003898922701446438</v>
+        <v>-1.43982048506075e-16</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>[0.00546613]</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>[129.6889121]</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -4878,33 +5564,39 @@
       <c r="I72" t="n">
         <v>3.175</v>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>trim at 0.13</t>
-        </is>
+      <c r="J72" t="n">
+        <v>0.002247436524562911</v>
+      </c>
+      <c r="K72" t="n">
+        <v>94.7858175387026</v>
       </c>
       <c r="L72" t="n">
-        <v>0.002247436524562911</v>
+        <v>0.001122998209341511</v>
       </c>
       <c r="M72" t="n">
-        <v>94.7858175387026</v>
+        <v>47.3625404782615</v>
       </c>
       <c r="N72" t="n">
-        <v>0.001122998209341511</v>
+        <v>42175.08103243844</v>
       </c>
       <c r="O72" t="n">
-        <v>47.3625404782615</v>
-      </c>
-      <c r="P72" t="n">
-        <v>42175.08103243844</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>-0.0006093202581949112</v>
+        <v>-1.127570259384925e-17</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>[0.00514178]</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>[132.50463468]</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -4943,33 +5635,39 @@
       <c r="I73" t="n">
         <v>3.175</v>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>trim at 0.09</t>
-        </is>
+      <c r="J73" t="n">
+        <v>0.003379981590037871</v>
+      </c>
+      <c r="K73" t="n">
+        <v>117.984652395155</v>
       </c>
       <c r="L73" t="n">
-        <v>0.003379981590037871</v>
+        <v>0.001742125797689571</v>
       </c>
       <c r="M73" t="n">
-        <v>117.984652395155</v>
+        <v>60.8121971062964</v>
       </c>
       <c r="N73" t="n">
-        <v>0.001742125797689571</v>
+        <v>34906.89202062578</v>
       </c>
       <c r="O73" t="n">
-        <v>60.8121971062964</v>
-      </c>
-      <c r="P73" t="n">
-        <v>34906.89202062578</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>-0.0008211559912235707</v>
+        <v>-1.708702623837155e-16</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>[0.00605676]</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>[141.60878781]</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -5008,33 +5706,39 @@
       <c r="I74" t="n">
         <v>3.175</v>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>trim at 0.11</t>
-        </is>
+      <c r="J74" t="n">
+        <v>0.002353998885612358</v>
+      </c>
+      <c r="K74" t="n">
+        <v>89.70936921435261</v>
       </c>
       <c r="L74" t="n">
-        <v>0.002353998885612358</v>
+        <v>0.001305101309399858</v>
       </c>
       <c r="M74" t="n">
-        <v>89.70936921435261</v>
+        <v>49.7365635738737</v>
       </c>
       <c r="N74" t="n">
-        <v>0.001305101309399858</v>
+        <v>38109.35075740957</v>
       </c>
       <c r="O74" t="n">
-        <v>49.7365635738737</v>
-      </c>
-      <c r="P74" t="n">
-        <v>38109.35075740957</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>-0.0007788589957005581</v>
+        <v>-5.811323644522304e-17</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>[0.00557443]</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>[136.21916497]</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -5073,33 +5777,39 @@
       <c r="I75" t="n">
         <v>3.175</v>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J75" t="n">
+        <v>0.0008661956129445198</v>
+      </c>
+      <c r="K75" t="n">
+        <v>46.6700725180651</v>
       </c>
       <c r="L75" t="n">
-        <v>0.00086619561294452</v>
+        <v>0.0004282357690355198</v>
       </c>
       <c r="M75" t="n">
-        <v>46.6700725180651</v>
+        <v>23.0730727529062</v>
       </c>
       <c r="N75" t="n">
-        <v>0.0004282357690355199</v>
+        <v>53879.36837894645</v>
       </c>
       <c r="O75" t="n">
-        <v>23.0730727529062</v>
-      </c>
-      <c r="P75" t="n">
-        <v>53879.36837894645</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>-0.0005373300618622199</v>
+        <v>-1.198043400596482e-16</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>[0.00462111]</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>[141.22362941]</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -5138,33 +5848,39 @@
       <c r="I76" t="n">
         <v>3.175</v>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
-        </is>
+      <c r="J76" t="n">
+        <v>0.002126363259529328</v>
+      </c>
+      <c r="K76" t="n">
+        <v>79.6278853066987</v>
       </c>
       <c r="L76" t="n">
-        <v>0.002126363259529328</v>
+        <v>0.001482544388101528</v>
       </c>
       <c r="M76" t="n">
-        <v>79.6278853066987</v>
+        <v>55.5182064817886</v>
       </c>
       <c r="N76" t="n">
-        <v>0.001482544388101528</v>
+        <v>37447.92191543245</v>
       </c>
       <c r="O76" t="n">
-        <v>55.5182064817886</v>
-      </c>
-      <c r="P76" t="n">
-        <v>37447.92191543245</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>-0.001074375897386028</v>
+        <v>-1.279358563532895e-16</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>[0.00564098]</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>[136.3471848]</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -5203,33 +5919,39 @@
       <c r="I77" t="n">
         <v>3.175</v>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>trim at 0.15</t>
-        </is>
+      <c r="J77" t="n">
+        <v>0.001798177991279841</v>
+      </c>
+      <c r="K77" t="n">
+        <v>70.2101465114052</v>
       </c>
       <c r="L77" t="n">
-        <v>0.001798177991279841</v>
+        <v>0.0009939696897874406</v>
       </c>
       <c r="M77" t="n">
-        <v>70.2101465114052</v>
+        <v>38.8097050938778</v>
       </c>
       <c r="N77" t="n">
-        <v>0.0009939696897874406</v>
+        <v>39045.15951807063</v>
       </c>
       <c r="O77" t="n">
-        <v>38.8097050938778</v>
-      </c>
-      <c r="P77" t="n">
-        <v>39045.15951807063</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>-0.0006566808991932407</v>
+        <v>-1.407294419886185e-16</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>[0.00533035]</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>[130.03415098]</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -5268,29 +5990,39 @@
       <c r="I78" t="n">
         <v>3.175</v>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.002908448967036807</v>
+      </c>
+      <c r="K78" t="n">
+        <v>110.081902277342</v>
+      </c>
       <c r="L78" t="n">
-        <v>0.002908448967036806</v>
+        <v>0.0004249535703063067</v>
       </c>
       <c r="M78" t="n">
-        <v>110.081902277342</v>
+        <v>16.0840702137286</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0004249535703063059</v>
+        <v>37849.00595642767</v>
       </c>
       <c r="O78" t="n">
-        <v>16.0840702137286</v>
-      </c>
-      <c r="P78" t="n">
-        <v>37849.00595642768</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>-0.001021084008256706</v>
+        <v>-1.066854937725736e-16</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>[0.0058033]</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>[143.95125506]</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -5329,33 +6061,39 @@
       <c r="I79" t="n">
         <v>3.175</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>trim at 0.05</t>
-        </is>
+      <c r="J79" t="n">
+        <v>0.001390335852471714</v>
+      </c>
+      <c r="K79" t="n">
+        <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.001390335852471714</v>
+        <v>0.0008311687471325139</v>
       </c>
       <c r="M79" t="n">
-        <v>60.0918208946391</v>
+        <v>35.9240131779057</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0008311687471325139</v>
+        <v>43221.08272458698</v>
       </c>
       <c r="O79" t="n">
-        <v>35.9240131779057</v>
-      </c>
-      <c r="P79" t="n">
-        <v>43221.08272458697</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>-0.0001476417332973139</v>
+        <v>-1.387778780781446e-17</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>[0.00536874]</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>[145.60052924]</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -5394,33 +6132,39 @@
       <c r="I80" t="n">
         <v>3.175</v>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J80" t="n">
+        <v>0.003356995818494748</v>
+      </c>
+      <c r="K80" t="n">
+        <v>119.090300315133</v>
       </c>
       <c r="L80" t="n">
-        <v>0.003356995818494748</v>
+        <v>0.0003564904747817477</v>
       </c>
       <c r="M80" t="n">
-        <v>119.090300315133</v>
+        <v>12.64659236909</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0003564904747817478</v>
+        <v>35475.26024876975</v>
       </c>
       <c r="O80" t="n">
-        <v>12.64659236909</v>
-      </c>
-      <c r="P80" t="n">
-        <v>35475.26024876975</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>-0.0006196032013576478</v>
+        <v>-4.77048955893622e-17</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>[0.00592656]</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>[139.29562962]</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -5459,29 +6203,39 @@
       <c r="I81" t="n">
         <v>3.175</v>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.002644959504997883</v>
+      </c>
+      <c r="K81" t="n">
+        <v>115.716025680978</v>
+      </c>
       <c r="L81" t="n">
-        <v>0.002644959504997883</v>
+        <v>0.0006753540432521833</v>
       </c>
       <c r="M81" t="n">
-        <v>115.716025680978</v>
+        <v>29.5464961429663</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0006753540432521833</v>
+        <v>43749.63981955958</v>
       </c>
       <c r="O81" t="n">
-        <v>29.5464961429663</v>
-      </c>
-      <c r="P81" t="n">
-        <v>43749.63981955958</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>-0.0002125575271850833</v>
+        <v>-8.326672684688674e-17</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>[0.00580823]</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>[166.60858725]</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -5520,29 +6274,39 @@
       <c r="I82" t="n">
         <v>3.175</v>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.0009160071804499832</v>
+      </c>
+      <c r="K82" t="n">
+        <v>43.099975477242</v>
+      </c>
       <c r="L82" t="n">
-        <v>0.000916007180450091</v>
+        <v>0.0003289580731544832</v>
       </c>
       <c r="M82" t="n">
-        <v>43.099975477242</v>
+        <v>15.4781372773018</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0003289580731545218</v>
+        <v>47052.00613828091</v>
       </c>
       <c r="O82" t="n">
-        <v>15.4781372773018</v>
-      </c>
-      <c r="P82" t="n">
-        <v>47052.00613827537</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>-0.000333785642721991</v>
+        <v>1.680513367352532e-17</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>[0.00507381]</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>[144.6287459]</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -5581,33 +6345,39 @@
       <c r="I83" t="n">
         <v>3.175</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>trim at 0.2</t>
-        </is>
+      <c r="J83" t="n">
+        <v>0.001611940297469171</v>
+      </c>
+      <c r="K83" t="n">
+        <v>51.7861136852212</v>
       </c>
       <c r="L83" t="n">
-        <v>0.001611940297469171</v>
+        <v>0.0008208543378776714</v>
       </c>
       <c r="M83" t="n">
-        <v>51.7861136852212</v>
+        <v>26.3712347951603</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0008208543378776712</v>
+        <v>32126.57054763632</v>
       </c>
       <c r="O83" t="n">
-        <v>26.3712347951603</v>
-      </c>
-      <c r="P83" t="n">
-        <v>32126.57054763632</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>-0.0001791885963953713</v>
+        <v>-7.134050294954619e-17</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>[0.00401321]</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>[64.67745758]</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -5646,33 +6416,43 @@
       <c r="I84" t="n">
         <v>3.175</v>
       </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
-        </is>
+      <c r="J84" t="n">
+        <v>0.001735194130145886</v>
+      </c>
+      <c r="K84" t="n">
+        <v>56.7732969744529</v>
       </c>
       <c r="L84" t="n">
-        <v>0.001735194130145886</v>
+        <v>0.001302955958264386</v>
       </c>
       <c r="M84" t="n">
-        <v>56.7732969744529</v>
+        <v>42.6310257037105</v>
       </c>
       <c r="N84" t="n">
-        <v>0.001302955958264386</v>
+        <v>32718.70045438644</v>
       </c>
       <c r="O84" t="n">
-        <v>42.6310257037105</v>
-      </c>
-      <c r="P84" t="n">
-        <v>32718.70045438644</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>-0.0009347059551158865</v>
+        <v>-0.0003903194479703866</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>[0.00364606]</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>[69.48773288]</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -5711,33 +6491,39 @@
       <c r="I85" t="n">
         <v>3.175</v>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>trim at 0.105</t>
-        </is>
+      <c r="J85" t="n">
+        <v>0.001133706609370296</v>
+      </c>
+      <c r="K85" t="n">
+        <v>56.9308587258361</v>
       </c>
       <c r="L85" t="n">
-        <v>0.001133706609370434</v>
+        <v>2.996225910132999e-05</v>
       </c>
       <c r="M85" t="n">
-        <v>56.9308587258361</v>
+        <v>1.50460191896753</v>
       </c>
       <c r="N85" t="n">
-        <v>2.996225910133389e-05</v>
+        <v>50216.57124982067</v>
       </c>
       <c r="O85" t="n">
-        <v>1.50460191896753</v>
-      </c>
-      <c r="P85" t="n">
-        <v>50216.57124981459</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0.0001436401650030661</v>
+        <v>3.686287386450715e-18</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>[0.0035729]</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>[78.98547761]</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -5776,33 +6562,39 @@
       <c r="I86" t="n">
         <v>3.175</v>
       </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>trim at 0.125</t>
-        </is>
+      <c r="J86" t="n">
+        <v>0.001067499811414395</v>
+      </c>
+      <c r="K86" t="n">
+        <v>57.0351509504363</v>
       </c>
       <c r="L86" t="n">
-        <v>0.001067499811414395</v>
+        <v>0.0006235740665684952</v>
       </c>
       <c r="M86" t="n">
-        <v>57.0351509504363</v>
+        <v>33.316765619273</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0006235740665684951</v>
+        <v>53428.72227290323</v>
       </c>
       <c r="O86" t="n">
-        <v>33.316765619273</v>
-      </c>
-      <c r="P86" t="n">
-        <v>53428.72227290324</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>-9.602688302589506e-05</v>
+        <v>-9.519295074422729e-17</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>[0.00356227]</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>[83.46997454]</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -5841,33 +6633,39 @@
       <c r="I87" t="n">
         <v>3.175</v>
       </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>trim at 0.14</t>
-        </is>
+      <c r="J87" t="n">
+        <v>0.001197085137900892</v>
+      </c>
+      <c r="K87" t="n">
+        <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>0.001197085137900995</v>
+        <v>8.908567772308797e-05</v>
       </c>
       <c r="M87" t="n">
-        <v>51.8909929303517</v>
+        <v>3.86166708328733</v>
       </c>
       <c r="N87" t="n">
-        <v>8.908567772309556e-05</v>
+        <v>43347.78812920808</v>
       </c>
       <c r="O87" t="n">
-        <v>3.86166708328733</v>
-      </c>
-      <c r="P87" t="n">
-        <v>43347.78812920433</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.0009169705344778045</v>
+        <v>8.023096076392733e-18</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>[0.00384293]</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>[79.88715192]</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -5906,33 +6704,39 @@
       <c r="I88" t="n">
         <v>3.175</v>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>trim at 0.15</t>
-        </is>
+      <c r="J88" t="n">
+        <v>0.0007068327420114109</v>
+      </c>
+      <c r="K88" t="n">
+        <v>43.4660299348499</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0007068327420114108</v>
+        <v>0.0004030275041435108</v>
       </c>
       <c r="M88" t="n">
-        <v>43.4660299348499</v>
+        <v>24.7838060102016</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0004030275041435108</v>
+        <v>61494.08106245904</v>
       </c>
       <c r="O88" t="n">
-        <v>24.7838060102016</v>
-      </c>
-      <c r="P88" t="n">
-        <v>61494.08106245905</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>-0.0001588269294999108</v>
+        <v>-1.084202172485504e-17</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>[0.00331263]</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>[80.71874585]</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -5971,33 +6775,39 @@
       <c r="I89" t="n">
         <v>3.175</v>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J89" t="n">
+        <v>0.001528765867839196</v>
+      </c>
+      <c r="K89" t="n">
+        <v>61.7681774556576</v>
       </c>
       <c r="L89" t="n">
-        <v>0.001528765867839196</v>
+        <v>0.0002320617808629958</v>
       </c>
       <c r="M89" t="n">
-        <v>61.7681774556576</v>
+        <v>9.37621225235857</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0002320617808629959</v>
+        <v>40403.94854116061</v>
       </c>
       <c r="O89" t="n">
-        <v>9.37621225235857</v>
-      </c>
-      <c r="P89" t="n">
-        <v>40403.9485411606</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>-0.0003953219097204959</v>
+        <v>-9.584347204771859e-17</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>[0.00411088]</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>[85.28803901]</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -6036,33 +6846,39 @@
       <c r="I90" t="n">
         <v>3.175</v>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J90" t="n">
+        <v>0.001342796750131465</v>
+      </c>
+      <c r="K90" t="n">
+        <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.001342796750131465</v>
+        <v>0.0009467802092584649</v>
       </c>
       <c r="M90" t="n">
-        <v>56.27423602054</v>
+        <v>39.677883454939</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0009467802092584651</v>
+        <v>41908.23072444176</v>
       </c>
       <c r="O90" t="n">
-        <v>39.677883454939</v>
-      </c>
-      <c r="P90" t="n">
-        <v>41908.23072444175</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>-0.000458888064130165</v>
+        <v>-6.483528991463317e-17</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>[0.00418117]</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>[91.40909649]</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -6101,29 +6917,39 @@
       <c r="I91" t="n">
         <v>3.175</v>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.0007534672376625887</v>
+      </c>
+      <c r="K91" t="n">
+        <v>40.9703547439299</v>
+      </c>
       <c r="L91" t="n">
-        <v>0.0007534672376625887</v>
+        <v>0.0006351934706628887</v>
       </c>
       <c r="M91" t="n">
-        <v>40.9703547439299</v>
+        <v>34.5391286087219</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0006351934706628887</v>
+        <v>54375.76140805859</v>
       </c>
       <c r="O91" t="n">
-        <v>34.5391286087219</v>
-      </c>
-      <c r="P91" t="n">
-        <v>54375.76140805859</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>1.897273397861131e-05</v>
+        <v>-8.868773770931426e-17</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>[0.00384502]</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>[100.32410037]</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -6162,33 +6988,39 @@
       <c r="I92" t="n">
         <v>3.175</v>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>trim at 0.13</t>
-        </is>
+      <c r="J92" t="n">
+        <v>0.001236940839766448</v>
+      </c>
+      <c r="K92" t="n">
+        <v>54.103419580053</v>
       </c>
       <c r="L92" t="n">
-        <v>0.001236940839766448</v>
+        <v>0.0001282871298544484</v>
       </c>
       <c r="M92" t="n">
-        <v>54.103419580053</v>
+        <v>5.61124040058898</v>
       </c>
       <c r="N92" t="n">
-        <v>0.0001282871298544483</v>
+        <v>43739.69865063917</v>
       </c>
       <c r="O92" t="n">
-        <v>5.61124040058898</v>
-      </c>
-      <c r="P92" t="n">
-        <v>43739.69865063918</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.0001868859276654517</v>
+        <v>-4.83554168928535e-17</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>[0.00382425]</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>[79.79221366]</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -6227,29 +7059,43 @@
       <c r="I93" t="n">
         <v>3.175</v>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.002307464252340363</v>
+      </c>
+      <c r="K93" t="n">
+        <v>66.9553327522687</v>
+      </c>
       <c r="L93" t="n">
-        <v>0.002307464252340363</v>
+        <v>0.001651962618843763</v>
       </c>
       <c r="M93" t="n">
-        <v>66.9553327522687</v>
+        <v>47.9347433993002</v>
       </c>
       <c r="N93" t="n">
-        <v>0.001651962618843763</v>
+        <v>29016.84508627111</v>
       </c>
       <c r="O93" t="n">
-        <v>47.9347433993002</v>
-      </c>
-      <c r="P93" t="n">
-        <v>29016.84508627111</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>-0.001262320824785163</v>
+        <v>-0.0006562035763068631</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>[0.00404133]</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>[82.77179247]</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -6288,29 +7134,39 @@
       <c r="I94" t="n">
         <v>3.175</v>
       </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0.0009501033114772988</v>
+      </c>
+      <c r="K94" t="n">
+        <v>43.0868710364167</v>
+      </c>
       <c r="L94" t="n">
-        <v>0.000950103311477327</v>
+        <v>3.835712248292586e-05</v>
       </c>
       <c r="M94" t="n">
-        <v>43.0868710364167</v>
+        <v>1.73948282232606</v>
       </c>
       <c r="N94" t="n">
-        <v>3.835712248292705e-05</v>
+        <v>45349.66936324187</v>
       </c>
       <c r="O94" t="n">
-        <v>1.73948282232606</v>
-      </c>
-      <c r="P94" t="n">
-        <v>45349.66936324052</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.0003254508736255729</v>
+        <v>1.192622389734055e-18</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>[0.00392154]</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>[87.14115823]</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -6349,33 +7205,39 @@
       <c r="I95" t="n">
         <v>3.175</v>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>trim at 0.18</t>
-        </is>
+      <c r="J95" t="n">
+        <v>0.0013102739596552</v>
+      </c>
+      <c r="K95" t="n">
+        <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>0.00131027395965521</v>
+        <v>2.030809767081033e-05</v>
       </c>
       <c r="M95" t="n">
-        <v>59.7216564670194</v>
+        <v>0.9256333178703851</v>
       </c>
       <c r="N95" t="n">
-        <v>2.030809767081032e-05</v>
+        <v>45579.51871586858</v>
       </c>
       <c r="O95" t="n">
-        <v>0.9256333178703851</v>
-      </c>
-      <c r="P95" t="n">
-        <v>45579.5187158682</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.0002985639296833897</v>
+        <v>4.336808689942018e-19</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>[0.00376918]</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>[80.63825522]</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -6414,33 +7276,39 @@
       <c r="I96" t="n">
         <v>3.175</v>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>trim at 0.175</t>
-        </is>
+      <c r="J96" t="n">
+        <v>0.0007541473740330103</v>
+      </c>
+      <c r="K96" t="n">
+        <v>54.0681392270688</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0007541473740330103</v>
+        <v>0.0004594203600666103</v>
       </c>
       <c r="M96" t="n">
-        <v>54.0681392270688</v>
+        <v>32.9378644640673</v>
       </c>
       <c r="N96" t="n">
-        <v>0.0004594203600666103</v>
+        <v>71694.39434354132</v>
       </c>
       <c r="O96" t="n">
-        <v>32.9378644640673</v>
-      </c>
-      <c r="P96" t="n">
-        <v>71694.39434354132</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>-0.0008890854041372103</v>
+        <v>-1.029992063861229e-17</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>[0.00315583]</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>[82.86657251]</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -6479,33 +7347,39 @@
       <c r="I97" t="n">
         <v>3.175</v>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>trim at 0.175</t>
-        </is>
+      <c r="J97" t="n">
+        <v>0.0009483485549953443</v>
+      </c>
+      <c r="K97" t="n">
+        <v>41.4568277525965</v>
       </c>
       <c r="L97" t="n">
-        <v>0.000948348554995344</v>
+        <v>0.0006561700142760442</v>
       </c>
       <c r="M97" t="n">
-        <v>41.4568277525965</v>
+        <v>28.6843134994752</v>
       </c>
       <c r="N97" t="n">
-        <v>0.000656170014276044</v>
+        <v>43714.75818065651</v>
       </c>
       <c r="O97" t="n">
-        <v>28.6843134994752</v>
-      </c>
-      <c r="P97" t="n">
-        <v>43714.75818065652</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.000222000120179656</v>
+        <v>-4.423544863740858e-17</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>[0.0037197]</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>[75.17641343]</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -6544,29 +7418,39 @@
       <c r="I98" t="n">
         <v>3.175</v>
       </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.001152142993344857</v>
+      </c>
+      <c r="K98" t="n">
+        <v>55.1712364974773</v>
+      </c>
       <c r="L98" t="n">
-        <v>0.001152142993344857</v>
+        <v>0.0006578419678800567</v>
       </c>
       <c r="M98" t="n">
-        <v>55.1712364974773</v>
+        <v>31.5012589561555</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0006578419678800566</v>
+        <v>47885.75447332828</v>
       </c>
       <c r="O98" t="n">
-        <v>31.5012589561555</v>
-      </c>
-      <c r="P98" t="n">
-        <v>47885.75447332828</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>-0.002770838845663657</v>
+        <v>-1.567756341414039e-16</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>[0.00366839]</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>[79.8920284]</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -6605,33 +7489,43 @@
       <c r="I99" t="n">
         <v>3.175</v>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>trim at 0.1</t>
-        </is>
+      <c r="J99" t="n">
+        <v>0.002952844901490267</v>
+      </c>
+      <c r="K99" t="n">
+        <v>71.69828730701499</v>
       </c>
       <c r="L99" t="n">
-        <v>0.002952844901490266</v>
+        <v>0.001928083322311667</v>
       </c>
       <c r="M99" t="n">
-        <v>71.69828730701499</v>
+        <v>46.8159610839017</v>
       </c>
       <c r="N99" t="n">
-        <v>0.001928083322311666</v>
+        <v>24281.08813667446</v>
       </c>
       <c r="O99" t="n">
-        <v>46.8159610839017</v>
-      </c>
-      <c r="P99" t="n">
-        <v>24281.08813667447</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>-0.001264873486175366</v>
+        <v>-0.0002674287413348669</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>[0.00526576]</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>[87.19286708]</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -6670,29 +7564,43 @@
       <c r="I100" t="n">
         <v>3.175</v>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.004018488165852548</v>
+      </c>
+      <c r="K100" t="n">
+        <v>77.33133438958311</v>
+      </c>
       <c r="L100" t="n">
-        <v>0.004018488165852548</v>
+        <v>0.003915640838196349</v>
       </c>
       <c r="M100" t="n">
-        <v>77.33133438958311</v>
+        <v>75.3521519812235</v>
       </c>
       <c r="N100" t="n">
-        <v>0.003915640838196349</v>
+        <v>19243.88755122208</v>
       </c>
       <c r="O100" t="n">
-        <v>75.3521519812235</v>
-      </c>
-      <c r="P100" t="n">
-        <v>19243.88755122208</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>-0.002298801006081748</v>
+        <v>-0.001375693056716748</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>LPL @ 30</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>[0.00502987]</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>[88.65760866]</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -6731,33 +7639,39 @@
       <c r="I101" t="n">
         <v>3.175</v>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>trim at 0.12</t>
-        </is>
+      <c r="J101" t="n">
+        <v>0.002103394436134739</v>
+      </c>
+      <c r="K101" t="n">
+        <v>69.8810427182453</v>
       </c>
       <c r="L101" t="n">
-        <v>0.002103394436134739</v>
+        <v>0.001217403133788339</v>
       </c>
       <c r="M101" t="n">
-        <v>69.8810427182453</v>
+        <v>40.4457665838092</v>
       </c>
       <c r="N101" t="n">
-        <v>0.001217403133788339</v>
+        <v>33222.98543617944</v>
       </c>
       <c r="O101" t="n">
-        <v>40.4457665838092</v>
-      </c>
-      <c r="P101" t="n">
-        <v>33222.98543617944</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>-0.0006138388323634388</v>
+        <v>-1.387778780781446e-16</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>[0.00479692]</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>[92.92190035]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/example/info/02 foot corrected info.xlsx
+++ b/example/info/02 foot corrected info.xlsx
@@ -511,22 +511,22 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>YP_0.002_0</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>YP_0.002_1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>reject</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_0</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_1</t>
         </is>
       </c>
     </row>
@@ -579,27 +579,27 @@
         <v>74.37073472538241</v>
       </c>
       <c r="N2" t="n">
-        <v>63702.73562050128</v>
+        <v>63702.73562050127</v>
       </c>
       <c r="O2" t="n">
-        <v>-9.280770596475918e-17</v>
+        <v>-1.929879867024198e-16</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr"/>
+          <t>[0.00595534]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[251.96596728]</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.00595534]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[251.96596728]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -657,20 +657,20 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+          <t>[0.00665334]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[252.88748701]</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.00665334]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[252.88748701]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -724,24 +724,24 @@
         <v>65257.00479430391</v>
       </c>
       <c r="O4" t="n">
-        <v>9.107298248878237e-18</v>
+        <v>-1.908195823574488e-16</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+          <t>[0.00589268]</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>[254.02447229]</t>
+        </is>
+      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.00589268]</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>[254.02447229]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -799,20 +799,20 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+          <t>[0.0060991]</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>[244.5562676]</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.0060991]</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>[244.5562676]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -870,20 +870,20 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+          <t>[0.00630495]</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>[239.7774238]</t>
+        </is>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.00630495]</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>[239.7774238]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -941,20 +941,20 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+          <t>[0.00540802]</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>[239.82784953]</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.00540802]</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>[239.82784953]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1012,20 +1012,20 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+          <t>[0.00651891]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>[279.67343248]</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.00651891]</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>[279.67343248]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1083,22 +1083,22 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00643791]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>[267.04645153]</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>[0.00643791]</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>[267.04645153]</t>
         </is>
       </c>
     </row>
@@ -1158,20 +1158,20 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+          <t>[0.00687551]</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>[264.47172192]</t>
+        </is>
+      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[nan]</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>[nan]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,20 +1229,20 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+          <t>[0.00656171]</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>[248.91961011]</t>
+        </is>
+      </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.00656171]</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>[248.91961011]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1300,22 +1300,22 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00663752]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>[258.06834779]</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>[0.00663752]</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>[258.06834779]</t>
         </is>
       </c>
     </row>
@@ -1375,20 +1375,20 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+          <t>[0.00635436]</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>[253.15240602]</t>
+        </is>
+      </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.00635436]</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>[253.15240602]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1442,24 +1442,24 @@
         <v>57506.24417888997</v>
       </c>
       <c r="O14" t="n">
-        <v>-1.981921571303502e-16</v>
+        <v>-9.80118763926896e-17</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+          <t>[0.00631948]</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>[248.3971272]</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.00631948]</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>[248.3971272]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1517,20 +1517,20 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr"/>
+          <t>[0.00618976]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[245.73442059]</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.00618976]</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>[245.73442059]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1588,20 +1588,20 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr"/>
+          <t>[0.00527041]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[240.67871789]</t>
+        </is>
+      </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.00527041]</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>[240.67871789]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1659,20 +1659,20 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+          <t>[0.007061]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[303.28881334]</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.007061]</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>[303.28881334]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr"/>
+          <t>[0.00767737]</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>[283.10466726]</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.00767737]</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>[283.10466726]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1801,20 +1801,20 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+          <t>[0.00686329]</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>[274.69125295]</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.00686329]</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>[274.69125295]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1872,20 +1872,20 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr"/>
+          <t>[0.00587294]</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>[267.7587454]</t>
+        </is>
+      </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.00587294]</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>[267.7587454]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1924,39 +1924,39 @@
         <v>3.175</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003099591938446999</v>
+        <v>0.003099591938446897</v>
       </c>
       <c r="K21" t="n">
         <v>184.962353082935</v>
       </c>
       <c r="L21" t="n">
-        <v>9.850138957700593e-05</v>
+        <v>9.850138957700245e-05</v>
       </c>
       <c r="M21" t="n">
         <v>5.87788623789952</v>
       </c>
       <c r="N21" t="n">
-        <v>59673.13012680225</v>
+        <v>59673.13012680422</v>
       </c>
       <c r="O21" t="n">
-        <v>8.673617379884035e-19</v>
+        <v>3.469446951953614e-18</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr"/>
+          <t>[0.00602558]</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>[240.21867153]</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.00602558]</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>[240.21867153]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2014,20 +2014,20 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr"/>
+          <t>[0.0055403]</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>[205.94052989]</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.0055403]</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>[205.94052989]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2066,7 +2066,7 @@
         <v>3.175</v>
       </c>
       <c r="J23" t="n">
-        <v>0.002986865689476004</v>
+        <v>0.002986865689476005</v>
       </c>
       <c r="K23" t="n">
         <v>176.979439785403</v>
@@ -2078,27 +2078,27 @@
         <v>76.786453171376</v>
       </c>
       <c r="N23" t="n">
-        <v>59252.56043784517</v>
+        <v>59252.56043784516</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.040834085586084e-16</v>
+        <v>-4.336808689942018e-18</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr"/>
+          <t>[0.00605723]</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>[240.40125743]</t>
+        </is>
+      </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.00605723]</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>[240.40125743]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2137,39 +2137,39 @@
         <v>3.175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002913928760891336</v>
+        <v>0.002913928760891335</v>
       </c>
       <c r="K24" t="n">
         <v>164.528068453978</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002542523812495356</v>
+        <v>0.0002542523812495349</v>
       </c>
       <c r="M24" t="n">
         <v>14.3557569931856</v>
       </c>
       <c r="N24" t="n">
-        <v>56462.62553229024</v>
+        <v>56462.62553229026</v>
       </c>
       <c r="O24" t="n">
-        <v>-3.556183125752455e-17</v>
+        <v>-1.348747502571968e-16</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr"/>
+          <t>[0.00618052]</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>[236.04290754]</t>
+        </is>
+      </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.00618052]</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>[236.04290754]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2208,7 +2208,7 @@
         <v>3.175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002799291831076499</v>
+        <v>0.0027992918310763</v>
       </c>
       <c r="K25" t="n">
         <v>166.148394269309</v>
@@ -2220,27 +2220,27 @@
         <v>0.554878851791746</v>
       </c>
       <c r="N25" t="n">
-        <v>59353.72383286482</v>
+        <v>59353.72383286903</v>
       </c>
       <c r="O25" t="n">
-        <v>1.301042606982605e-18</v>
+        <v>-4.336808689942018e-19</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+          <t>[0.00585036]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>[228.53323184]</t>
+        </is>
+      </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.00585036]</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>[228.53323184]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2279,39 +2279,39 @@
         <v>3.175</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002342094147758199</v>
+        <v>0.002342094147757995</v>
       </c>
       <c r="K26" t="n">
         <v>143.264709458966</v>
       </c>
       <c r="L26" t="n">
-        <v>6.561829182213499e-05</v>
+        <v>6.561829182212935e-05</v>
       </c>
       <c r="M26" t="n">
         <v>4.01383758295543</v>
       </c>
       <c r="N26" t="n">
-        <v>61169.49209582195</v>
+        <v>61169.49209582728</v>
       </c>
       <c r="O26" t="n">
-        <v>1.301042606982605e-18</v>
+        <v>5.204170427930421e-18</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+          <t>[0.00586016]</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>[236.12430816]</t>
+        </is>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.00586016]</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>[236.12430816]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2350,39 +2350,39 @@
         <v>3.175</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001877897583311999</v>
+        <v>0.001877897583311898</v>
       </c>
       <c r="K27" t="n">
         <v>114.945593796641</v>
       </c>
       <c r="L27" t="n">
-        <v>4.202040312191342e-05</v>
+        <v>4.202040312191125e-05</v>
       </c>
       <c r="M27" t="n">
         <v>2.57205730032622</v>
       </c>
       <c r="N27" t="n">
-        <v>61209.72454414391</v>
+        <v>61209.72454414721</v>
       </c>
       <c r="O27" t="n">
-        <v>8.673617379884035e-19</v>
+        <v>2.168404344971009e-18</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr"/>
+          <t>[0.00604259]</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>[247.44590736]</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.00604259]</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>[247.44590736]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2440,20 +2440,20 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+          <t>[0.00625276]</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>[249.03406727]</t>
+        </is>
+      </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.00625276]</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>[249.03406727]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2511,20 +2511,20 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+          <t>[0.00608051]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>[249.6013985]</t>
+        </is>
+      </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.00608051]</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>[249.6013985]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2582,20 +2582,20 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr"/>
+          <t>[0.00562653]</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>[243.56803442]</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.00562653]</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>[243.56803442]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2653,20 +2653,20 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr"/>
+          <t>[0.0070141]</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>[247.25043481]</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.0070141]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[247.25043481]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2705,39 +2705,39 @@
         <v>3.175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0005420269248841921</v>
+        <v>0.0005420269248840922</v>
       </c>
       <c r="K32" t="n">
         <v>46.1272742639521</v>
       </c>
       <c r="L32" t="n">
-        <v>4.254760559953716e-05</v>
+        <v>4.254760559952936e-05</v>
       </c>
       <c r="M32" t="n">
         <v>3.62086269641244</v>
       </c>
       <c r="N32" t="n">
-        <v>85101.44449707461</v>
+        <v>85101.4444970903</v>
       </c>
       <c r="O32" t="n">
-        <v>7.914675859144182e-18</v>
+        <v>7.806255641895632e-18</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr"/>
+          <t>[0.00493244]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>[249.55500899]</t>
+        </is>
+      </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.00493244]</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>[249.55500899]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2795,20 +2795,20 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+          <t>[0.00639713]</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>[237.75820578]</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.00639713]</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>[237.75820578]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2866,20 +2866,20 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr"/>
+          <t>[0.00507792]</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>[234.17396009]</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.00507792]</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>[234.17396009]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2937,20 +2937,20 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+          <t>[0.00557583]</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>[235.16789173]</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.00557583]</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>[235.16789173]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2995,33 +2995,33 @@
         <v>144.025333226662</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0007298762958923017</v>
+        <v>0.0007298762958923019</v>
       </c>
       <c r="M36" t="n">
         <v>40.5162310159823</v>
       </c>
       <c r="N36" t="n">
-        <v>55511.09310441386</v>
+        <v>55511.09310441385</v>
       </c>
       <c r="O36" t="n">
-        <v>-1.734723475976807e-18</v>
+        <v>-1.019150042136374e-16</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+          <t>[0.00694048]</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>[274.25136363]</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[0.00694048]</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>[274.25136363]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3079,20 +3079,20 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+          <t>[0.00785175]</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>[262.3832283]</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.00785175]</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>[262.3832283]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3150,20 +3150,20 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+          <t>[0.00699255]</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[272.27523845]</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[0.00699255]</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>[272.27523845]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3202,39 +3202,39 @@
         <v>3.175</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003535944426428287</v>
+        <v>0.003535944426428288</v>
       </c>
       <c r="K39" t="n">
         <v>176.304083740973</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001604180994517587</v>
+        <v>0.001604180994517588</v>
       </c>
       <c r="M39" t="n">
         <v>79.9853239432246</v>
       </c>
       <c r="N39" t="n">
-        <v>49860.53582269123</v>
+        <v>49860.53582269122</v>
       </c>
       <c r="O39" t="n">
-        <v>-1.873501354054952e-16</v>
+        <v>-8.760353553682876e-17</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr"/>
+          <t>[0.00707856]</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[253.21952832]</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.00707856]</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>[253.21952832]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3292,20 +3292,20 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr"/>
+          <t>[0.00570956]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[213.2409893]</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.00570956]</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>[213.2409893]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3363,20 +3363,20 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr"/>
+          <t>[0.00610135]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[213.67688741]</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[0.00610135]</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>[213.67688741]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3434,20 +3434,20 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr"/>
+          <t>[0.00689806]</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>[231.37142148]</t>
+        </is>
+      </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.00689806]</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>[231.37142148]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3505,20 +3505,20 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr"/>
+          <t>[0.00607948]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>[229.77271333]</t>
+        </is>
+      </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.00607948]</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>[229.77271333]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3576,20 +3576,20 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr"/>
+          <t>[0.00729047]</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[230.18281857]</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.00729047]</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>[230.18281857]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3647,20 +3647,20 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr"/>
+          <t>[0.00680595]</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>[229.41907001]</t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.00680595]</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>[229.41907001]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3699,39 +3699,39 @@
         <v>3.175</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001642667931312868</v>
+        <v>0.001642667931312869</v>
       </c>
       <c r="K46" t="n">
         <v>86.96884979516319</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008846657864568685</v>
+        <v>0.0008846657864568686</v>
       </c>
       <c r="M46" t="n">
         <v>46.8374431829298</v>
       </c>
       <c r="N46" t="n">
-        <v>52943.65838484175</v>
+        <v>52943.65838484174</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.684850176042474e-16</v>
+        <v>-6.852157730108388e-17</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr"/>
+          <t>[0.00608636]</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>[216.34693032]</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.00608636]</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>[216.34693032]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3776,33 +3776,33 @@
         <v>98.3135045128474</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002692857965243178</v>
+        <v>0.0002692857965243184</v>
       </c>
       <c r="M47" t="n">
         <v>13.0435931132256</v>
       </c>
       <c r="N47" t="n">
-        <v>48437.73151640275</v>
+        <v>48437.73151640274</v>
       </c>
       <c r="O47" t="n">
-        <v>-1.778091562876227e-17</v>
+        <v>-1.183948772354171e-16</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr"/>
+          <t>[0.00607457]</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[197.36300395]</t>
+        </is>
+      </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.00607457]</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>[197.36300395]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3860,20 +3860,20 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr"/>
+          <t>[0.00675115]</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[247.59971195]</t>
+        </is>
+      </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[0.00675115]</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>[247.59971195]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3931,20 +3931,20 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr"/>
+          <t>[0.00726536]</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[240.59583819]</t>
+        </is>
+      </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.00726536]</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>[240.59583819]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4002,20 +4002,20 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr"/>
+          <t>[0.00682053]</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[254.63062289]</t>
+        </is>
+      </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[0.00682053]</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>[254.63062289]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4073,20 +4073,20 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr"/>
+          <t>[0.00796062]</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>[241.39220896]</t>
+        </is>
+      </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.00796062]</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>[241.39220896]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4144,20 +4144,20 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr"/>
+          <t>[0.00545578]</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[186.76539531]</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[0.00545578]</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>[186.76539531]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4215,20 +4215,20 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr"/>
+          <t>[0.00465399]</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>[153.96170388]</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.00465399]</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>[153.96170388]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4282,26 +4282,26 @@
         <v>34841.41802387166</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.0009700428058604122</v>
+        <v>-0.0009700428058606121</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00634629]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
+          <t>[191.29395231]</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[0.00634629]</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>[191.29395231]</t>
         </is>
       </c>
     </row>
@@ -4361,20 +4361,20 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr"/>
+          <t>[0.0054088]</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>[186.37201145]</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.0054088]</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>[186.37201145]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4419,33 +4419,33 @@
         <v>126.804257125663</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0009362218356743739</v>
+        <v>0.0009362218356743738</v>
       </c>
       <c r="M56" t="n">
         <v>46.9007946489988</v>
       </c>
       <c r="N56" t="n">
-        <v>50095.81368631023</v>
+        <v>50095.81368631024</v>
       </c>
       <c r="O56" t="n">
-        <v>-1.739060284666749e-16</v>
+        <v>-7.37257477290143e-17</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr"/>
+          <t>[0.00574067]</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>[187.39180035]</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[0.00574067]</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>[187.39180035]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4503,20 +4503,20 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr"/>
+          <t>[0.00529155]</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>[191.95047384]</t>
+        </is>
+      </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.00529155]</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>[191.95047384]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4574,20 +4574,20 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr"/>
+          <t>[0.00658279]</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>[202.89022806]</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[0.00658279]</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>[202.89022806]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4645,22 +4645,22 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00663262]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>[200.59782047]</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>[0.00663262]</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>[200.59782047]</t>
         </is>
       </c>
     </row>
@@ -4701,39 +4701,39 @@
         <v>3.175</v>
       </c>
       <c r="J60" t="n">
-        <v>0.002183439006668278</v>
+        <v>0.002183439006668277</v>
       </c>
       <c r="K60" t="n">
         <v>114.21692709225</v>
       </c>
       <c r="L60" t="n">
-        <v>0.001216178373921078</v>
+        <v>0.001216178373921077</v>
       </c>
       <c r="M60" t="n">
         <v>63.6189773293808</v>
       </c>
       <c r="N60" t="n">
-        <v>52310.56454676711</v>
+        <v>52310.56454676712</v>
       </c>
       <c r="O60" t="n">
-        <v>-7.762887554996212e-17</v>
+        <v>-1.773754754186285e-16</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr"/>
+          <t>[0.00580383]</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>[198.98072405]</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[0.00580383]</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>[198.98072405]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4791,20 +4791,20 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
+          <t>[0.00573765]</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>[205.94279353]</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[0.00573765]</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>[205.94279353]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4862,22 +4862,22 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00632875]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>[187.98306967]</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
           <t>LPL @ 75</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>[0.00632875]</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>[187.98306967]</t>
         </is>
       </c>
     </row>
@@ -4930,27 +4930,27 @@
         <v>61.8332029123926</v>
       </c>
       <c r="N63" t="n">
-        <v>51251.21984452444</v>
+        <v>51251.21984452443</v>
       </c>
       <c r="O63" t="n">
-        <v>-7.892991815694472e-17</v>
+        <v>-1.791101988946053e-16</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
+          <t>[0.00578348]</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>[193.90783315]</t>
+        </is>
+      </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[0.00578348]</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>[193.90783315]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5008,20 +5008,20 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr"/>
+          <t>[0.00566904]</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>[182.07793808]</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[0.00566904]</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>[182.07793808]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5079,20 +5079,20 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr"/>
+          <t>[0.00579331]</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>[186.23587121]</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[0.00579331]</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>[186.23587121]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5150,22 +5150,22 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00581521]</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>[184.28113182]</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>[0.00581521]</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>[184.28113182]</t>
         </is>
       </c>
     </row>
@@ -5225,20 +5225,20 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr"/>
+          <t>[0.00681378]</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>[203.79857259]</t>
+        </is>
+      </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[0.00681378]</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>[203.79857259]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5296,22 +5296,22 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00699032]</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>[204.65696578]</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
           <t>LPL @ 100</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>[0.00699032]</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>[204.65696578]</t>
         </is>
       </c>
     </row>
@@ -5358,33 +5358,33 @@
         <v>188.358407583882</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001009341110338466</v>
+        <v>0.001009341110338467</v>
       </c>
       <c r="M69" t="n">
         <v>44.0232438640259</v>
       </c>
       <c r="N69" t="n">
-        <v>43615.82364287472</v>
+        <v>43615.82364287471</v>
       </c>
       <c r="O69" t="n">
-        <v>-6.591949208711867e-17</v>
+        <v>-1.665334536937735e-16</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
+          <t>[0.0071111]</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>[222.92474578]</t>
+        </is>
+      </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[0.0071111]</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>[222.92474578]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5442,20 +5442,20 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr"/>
+          <t>[0.0073493]</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>[211.28392598]</t>
+        </is>
+      </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[0.0073493]</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>[211.28392598]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5500,33 +5500,33 @@
         <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.000774351984478844</v>
+        <v>0.0007743519844788438</v>
       </c>
       <c r="M71" t="n">
         <v>28.9731903230109</v>
       </c>
       <c r="N71" t="n">
-        <v>37416.04709970555</v>
+        <v>37416.04709970556</v>
       </c>
       <c r="O71" t="n">
-        <v>-1.43982048506075e-16</v>
+        <v>-4.380176776841438e-17</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr"/>
+          <t>[0.00546613]</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>[129.6889121]</t>
+        </is>
+      </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[0.00546613]</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>[129.6889121]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5584,20 +5584,20 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr"/>
+          <t>[0.00514178]</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>[132.50463468]</t>
+        </is>
+      </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[0.00514178]</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>[132.50463468]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5655,20 +5655,20 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr"/>
+          <t>[0.00605676]</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>[141.60878781]</t>
+        </is>
+      </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[0.00605676]</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>[141.60878781]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5726,20 +5726,20 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr"/>
+          <t>[0.00557443]</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>[136.21916497]</t>
+        </is>
+      </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[0.00557443]</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>[136.21916497]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5793,24 +5793,24 @@
         <v>53879.36837894645</v>
       </c>
       <c r="O75" t="n">
-        <v>-1.198043400596482e-16</v>
+        <v>-1.984089975648473e-17</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr"/>
+          <t>[0.00462111]</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>[141.22362941]</t>
+        </is>
+      </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[0.00462111]</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>[141.22362941]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5868,20 +5868,20 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr"/>
+          <t>[0.00564098]</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>[136.3471848]</t>
+        </is>
+      </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[0.00564098]</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>[136.3471848]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5939,20 +5939,20 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr"/>
+          <t>[0.00533035]</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>[130.03415098]</t>
+        </is>
+      </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[0.00533035]</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>[130.03415098]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6010,20 +6010,20 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr"/>
+          <t>[0.0058033]</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>[143.95125506]</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[0.0058033]</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>[143.95125506]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6068,33 +6068,33 @@
         <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0008311687471325139</v>
+        <v>0.000831168747132514</v>
       </c>
       <c r="M79" t="n">
         <v>35.9240131779057</v>
       </c>
       <c r="N79" t="n">
-        <v>43221.08272458698</v>
+        <v>43221.08272458697</v>
       </c>
       <c r="O79" t="n">
-        <v>-1.387778780781446e-17</v>
+        <v>-1.140580685454751e-16</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr"/>
+          <t>[0.00536874]</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>[145.60052924]</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[0.00536874]</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>[145.60052924]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6152,20 +6152,20 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr"/>
+          <t>[0.00592656]</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>[139.29562962]</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[0.00592656]</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>[139.29562962]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6223,20 +6223,20 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr"/>
+          <t>[0.00580823]</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>[166.60858725]</t>
+        </is>
+      </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[0.00580823]</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>[166.60858725]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6290,24 +6290,24 @@
         <v>47052.00613828091</v>
       </c>
       <c r="O82" t="n">
-        <v>1.680513367352532e-17</v>
+        <v>-8.326672684688674e-17</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr"/>
+          <t>[0.00507381]</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>[144.6287459]</t>
+        </is>
+      </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[0.00507381]</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>[144.6287459]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6365,20 +6365,20 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr"/>
+          <t>[0.00401321]</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>[64.67745758]</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[0.00401321]</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>[64.67745758]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6436,22 +6436,22 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00364606]</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>[69.48773288]</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>[0.00364606]</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>[69.48773288]</t>
         </is>
       </c>
     </row>
@@ -6492,39 +6492,39 @@
         <v>3.175</v>
       </c>
       <c r="J85" t="n">
-        <v>0.001133706609370296</v>
+        <v>0.001133706609370197</v>
       </c>
       <c r="K85" t="n">
         <v>56.9308587258361</v>
       </c>
       <c r="L85" t="n">
-        <v>2.996225910132999e-05</v>
+        <v>2.996225910132739e-05</v>
       </c>
       <c r="M85" t="n">
         <v>1.50460191896753</v>
       </c>
       <c r="N85" t="n">
-        <v>50216.57124982067</v>
+        <v>50216.57124982507</v>
       </c>
       <c r="O85" t="n">
-        <v>3.686287386450715e-18</v>
+        <v>3.035766082959412e-18</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr"/>
+          <t>[0.0035729]</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>[78.98547761]</t>
+        </is>
+      </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[0.0035729]</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>[78.98547761]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6582,20 +6582,20 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr"/>
+          <t>[0.00356227]</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>[83.46997454]</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[0.00356227]</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>[83.46997454]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6634,39 +6634,39 @@
         <v>3.175</v>
       </c>
       <c r="J87" t="n">
-        <v>0.001197085137900892</v>
+        <v>0.001197085137900793</v>
       </c>
       <c r="K87" t="n">
         <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>8.908567772308797e-05</v>
+        <v>8.90856777230806e-05</v>
       </c>
       <c r="M87" t="n">
         <v>3.86166708328733</v>
       </c>
       <c r="N87" t="n">
-        <v>43347.78812920808</v>
+        <v>43347.78812921167</v>
       </c>
       <c r="O87" t="n">
-        <v>8.023096076392733e-18</v>
+        <v>7.37257477290143e-18</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr"/>
+          <t>[0.00384293]</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>[79.88715192]</t>
+        </is>
+      </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[0.00384293]</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>[79.88715192]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6724,20 +6724,20 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr"/>
+          <t>[0.00331263]</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>[80.71874585]</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[0.00331263]</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>[80.71874585]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6791,24 +6791,24 @@
         <v>40403.94854116061</v>
       </c>
       <c r="O89" t="n">
-        <v>-9.584347204771859e-17</v>
+        <v>-1.958069123508821e-16</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr"/>
+          <t>[0.00411088]</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>[85.28803901]</t>
+        </is>
+      </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[0.00411088]</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>[85.28803901]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6853,33 +6853,33 @@
         <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0009467802092584649</v>
+        <v>0.000946780209258465</v>
       </c>
       <c r="M90" t="n">
         <v>39.677883454939</v>
       </c>
       <c r="N90" t="n">
-        <v>41908.23072444176</v>
+        <v>41908.23072444175</v>
       </c>
       <c r="O90" t="n">
-        <v>-6.483528991463317e-17</v>
+        <v>-1.650155706522938e-16</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr"/>
+          <t>[0.00418117]</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>[91.40909649]</t>
+        </is>
+      </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[0.00418117]</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>[91.40909649]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6937,20 +6937,20 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr"/>
+          <t>[0.00384502]</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>[100.32410037]</t>
+        </is>
+      </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[0.00384502]</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>[100.32410037]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7008,20 +7008,20 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr"/>
+          <t>[0.00382425]</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>[79.79221366]</t>
+        </is>
+      </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[0.00382425]</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>[79.79221366]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7079,22 +7079,22 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00404133]</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>[82.77179247]</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>[0.00404133]</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>[82.77179247]</t>
         </is>
       </c>
     </row>
@@ -7135,39 +7135,39 @@
         <v>3.175</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0009501033114772988</v>
+        <v>0.0009501033114771959</v>
       </c>
       <c r="K94" t="n">
         <v>43.0868710364167</v>
       </c>
       <c r="L94" t="n">
-        <v>3.835712248292586e-05</v>
+        <v>3.835712248292174e-05</v>
       </c>
       <c r="M94" t="n">
         <v>1.73948282232606</v>
       </c>
       <c r="N94" t="n">
-        <v>45349.66936324187</v>
+        <v>45349.66936324678</v>
       </c>
       <c r="O94" t="n">
-        <v>1.192622389734055e-18</v>
+        <v>4.119968255444917e-18</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr"/>
+          <t>[0.00392154]</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>[87.14115823]</t>
+        </is>
+      </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[0.00392154]</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>[87.14115823]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7206,39 +7206,39 @@
         <v>3.175</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0013102739596552</v>
+        <v>0.001310273959654997</v>
       </c>
       <c r="K95" t="n">
         <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>2.030809767081033e-05</v>
+        <v>2.030809767080685e-05</v>
       </c>
       <c r="M95" t="n">
         <v>0.9256333178703851</v>
       </c>
       <c r="N95" t="n">
-        <v>45579.51871586858</v>
+        <v>45579.51871587562</v>
       </c>
       <c r="O95" t="n">
-        <v>4.336808689942018e-19</v>
+        <v>3.035766082959412e-18</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr"/>
+          <t>[0.00376918]</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>[80.63825522]</t>
+        </is>
+      </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[0.00376918]</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>[80.63825522]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7296,20 +7296,20 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr"/>
+          <t>[0.00315583]</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>[82.86657251]</t>
+        </is>
+      </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[0.00315583]</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>[82.86657251]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7367,20 +7367,20 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr"/>
+          <t>[0.0037197]</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>[75.17641343]</t>
+        </is>
+      </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[0.0037197]</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>[75.17641343]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7438,20 +7438,20 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr"/>
+          <t>[0.00366839]</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>[79.8920284]</t>
+        </is>
+      </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[0.00366839]</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>[79.8920284]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7509,22 +7509,22 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00526576]</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>[87.19286708]</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>[0.00526576]</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>[87.19286708]</t>
         </is>
       </c>
     </row>
@@ -7584,22 +7584,22 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>/Off</t>
+          <t>[0.00502987]</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>[88.65760866]</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
           <t>LPL @ 30</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>[0.00502987]</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>[88.65760866]</t>
         </is>
       </c>
     </row>
@@ -7659,20 +7659,20 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr"/>
+          <t>[0.00479692]</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>[92.92190035]</t>
+        </is>
+      </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[0.00479692]</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>[92.92190035]</t>
-        </is>
-      </c>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/example/info/02 foot corrected info.xlsx
+++ b/example/info/02 foot corrected info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,34 +506,24 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>foot correction</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_0</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>YP_0.002_1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>reject</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>comment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test_ID_055</t>
+          <t>test_ID_080</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -561,7 +551,7 @@
         <v>0.000866</v>
       </c>
       <c r="H2" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I2" t="n">
         <v>3.175</v>
@@ -581,30 +571,20 @@
       <c r="N2" t="n">
         <v>63702.73562050127</v>
       </c>
-      <c r="O2" t="n">
-        <v>-1.929879867024198e-16</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.00595534]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[251.96596728]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>0.000343613133393793</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test_ID_056</t>
+          <t>test_ID_081</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -632,7 +612,7 @@
         <v>0.000866</v>
       </c>
       <c r="H3" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I3" t="n">
         <v>3.175</v>
@@ -652,30 +632,20 @@
       <c r="N3" t="n">
         <v>54345.38412413871</v>
       </c>
-      <c r="O3" t="n">
-        <v>-4.293440603042598e-17</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.00665334]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[252.88748701]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>0.0004895812404323431</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>test_ID_057</t>
+          <t>test_ID_082</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -703,55 +673,45 @@
         <v>0.000866</v>
       </c>
       <c r="H4" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I4" t="n">
         <v>3.175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001771310291409491</v>
+        <v>0.001771310291409529</v>
       </c>
       <c r="K4" t="n">
         <v>115.590404178709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005582429183699909</v>
+        <v>0.000558242918370003</v>
       </c>
       <c r="M4" t="n">
         <v>36.4292608004567</v>
       </c>
       <c r="N4" t="n">
-        <v>65257.00479430391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-1.908195823574488e-16</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>[0.00589268]</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>[254.02447229]</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>65257.0047943025</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0.000530764702328129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>test_ID_058</t>
+          <t>test_ID_078</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T_020_B_1_004_059_01.csv</t>
+          <t>T_020_B_3_006_063_03.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -768,61 +728,51 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>0.000866</v>
       </c>
       <c r="H5" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I5" t="n">
         <v>3.175</v>
       </c>
       <c r="J5" t="n">
-        <v>0.003234063939585186</v>
+        <v>0.001422674189591884</v>
       </c>
       <c r="K5" t="n">
-        <v>192.947593520996</v>
+        <v>100.116005949159</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005903185807671863</v>
+        <v>0.0005565689981795843</v>
       </c>
       <c r="M5" t="n">
-        <v>35.2190159803605</v>
+        <v>39.1667084006418</v>
       </c>
       <c r="N5" t="n">
-        <v>59661.03241166723</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-8.630249292984615e-17</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>[0.0060991]</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>[244.5562676]</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+        <v>70371.70329060289</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>9.183978673318427e-05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>test_ID_059</t>
+          <t>test_ID_083</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T_020_B_2_005_061_02.csv</t>
+          <t>T_020_B_1_004_059_01.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -839,61 +789,51 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0.000866</v>
       </c>
       <c r="H6" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I6" t="n">
         <v>3.175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00381451361088899</v>
+        <v>0.003234063939585186</v>
       </c>
       <c r="K6" t="n">
-        <v>212.461144507981</v>
+        <v>192.947593520996</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002194805336283902</v>
+        <v>0.0005903185807671863</v>
       </c>
       <c r="M6" t="n">
-        <v>12.2246477870196</v>
+        <v>35.2190159803605</v>
       </c>
       <c r="N6" t="n">
-        <v>55698.09579430651</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-9.020562075079397e-17</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[0.00630495]</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>[239.7774238]</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+        <v>59661.03241166723</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>-0.0004346933673407137</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>test_ID_060</t>
+          <t>test_ID_084</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T_020_B_3_006_063_03.csv</t>
+          <t>T_020_B_2_005_061_02.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -910,56 +850,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0.000866</v>
       </c>
       <c r="H7" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I7" t="n">
         <v>3.175</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001422674189591884</v>
+        <v>0.00381451361088899</v>
       </c>
       <c r="K7" t="n">
-        <v>100.116005949159</v>
+        <v>212.461144507981</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005565689981795844</v>
+        <v>0.0002194805336283904</v>
       </c>
       <c r="M7" t="n">
-        <v>39.1667084006418</v>
+        <v>12.2246477870196</v>
       </c>
       <c r="N7" t="n">
-        <v>70371.70329060289</v>
-      </c>
-      <c r="O7" t="n">
-        <v>-8.435092901937224e-17</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>[0.00540802]</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>[239.82784953]</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+        <v>55698.09579430651</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>0.0003567081833944904</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>test_ID_061</t>
+          <t>test_ID_086</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -987,7 +917,7 @@
         <v>0.000866</v>
       </c>
       <c r="H8" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I8" t="n">
         <v>3.175</v>
@@ -1007,30 +937,20 @@
       <c r="N8" t="n">
         <v>61889.59625174473</v>
       </c>
-      <c r="O8" t="n">
-        <v>-4.033232081646076e-17</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>[0.00651891]</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>[279.67343248]</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>0.0001712096225899404</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>test_ID_062</t>
+          <t>test_ID_087</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1058,7 +978,7 @@
         <v>0.000866</v>
       </c>
       <c r="H9" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I9" t="n">
         <v>3.175</v>
@@ -1078,34 +998,20 @@
       <c r="N9" t="n">
         <v>57873.11208980431</v>
       </c>
-      <c r="O9" t="n">
-        <v>-0.0001010996543291454</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>[0.00643791]</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>[267.04645153]</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>LPL @ 100</t>
-        </is>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>0.0004134955762651457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>test_ID_063</t>
+          <t>test_ID_088</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1133,7 +1039,7 @@
         <v>0.000866</v>
       </c>
       <c r="H10" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I10" t="n">
         <v>3.175</v>
@@ -1153,35 +1059,25 @@
       <c r="N10" t="n">
         <v>54244.98771203815</v>
       </c>
-      <c r="O10" t="n">
-        <v>-1.366094737331736e-16</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>[0.00687551]</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>[264.47172192]</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>-0.0004316940708122634</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>test_ID_064</t>
+          <t>test_ID_079</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T_020_D_1_010_064_01.csv</t>
+          <t>T_020_D_3_012_066_03.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1198,56 +1094,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0.000866</v>
       </c>
       <c r="H11" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I11" t="n">
         <v>3.175</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003408700883743779</v>
+        <v>0.002831397119518019</v>
       </c>
       <c r="K11" t="n">
-        <v>186.003104711952</v>
+        <v>164.610840241371</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001751694515012279</v>
+        <v>0.002369830775605819</v>
       </c>
       <c r="M11" t="n">
-        <v>95.5849836672474</v>
+        <v>137.77644701028</v>
       </c>
       <c r="N11" t="n">
-        <v>54567.15360359359</v>
-      </c>
-      <c r="O11" t="n">
-        <v>-7.892991815694472e-17</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>[0.00656171]</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>[248.91961011]</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>58137.67313198094</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>-0.0002246542070388807</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>test_ID_065</t>
+          <t>test_ID_089</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1275,7 +1161,7 @@
         <v>0.000866</v>
       </c>
       <c r="H12" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I12" t="n">
         <v>3.175</v>
@@ -1295,39 +1181,25 @@
       <c r="N12" t="n">
         <v>52491.31610386107</v>
       </c>
-      <c r="O12" t="n">
-        <v>-0.0002137776113951342</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>[0.00663752]</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>[258.06834779]</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>LPL @ 100</t>
-        </is>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>0.0008862018816846342</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>test_ID_066</t>
+          <t>test_ID_090</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T_020_D_3_012_066_03.csv</t>
+          <t>T_020_D_1_010_064_01.csv</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1344,56 +1216,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0.000866</v>
       </c>
       <c r="H13" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I13" t="n">
         <v>3.175</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002831397119518019</v>
+        <v>0.003408700883743779</v>
       </c>
       <c r="K13" t="n">
-        <v>164.610840241371</v>
+        <v>186.003104711952</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002369830775605819</v>
+        <v>0.001751694515012279</v>
       </c>
       <c r="M13" t="n">
-        <v>137.77644701028</v>
+        <v>95.5849836672474</v>
       </c>
       <c r="N13" t="n">
-        <v>58137.67313198094</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-1.951563910473908e-17</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>[0.00635436]</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>[253.15240602]</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+        <v>54567.15360359359</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0.0002462890752533788</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>test_ID_067</t>
+          <t>test_ID_091</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1421,13 +1283,13 @@
         <v>0.000866</v>
       </c>
       <c r="H14" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I14" t="n">
         <v>3.175</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003337599360594598</v>
+        <v>0.003337599360594599</v>
       </c>
       <c r="K14" t="n">
         <v>191.93280380166</v>
@@ -1439,32 +1301,22 @@
         <v>62.8521211497185</v>
       </c>
       <c r="N14" t="n">
-        <v>57506.24417888997</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-9.80118763926896e-17</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>[0.00631948]</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>[248.3971272]</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+        <v>57506.24417888996</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>0.0003095039103118984</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>test_ID_068</t>
+          <t>test_ID_092</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1492,7 +1344,7 @@
         <v>0.000866</v>
       </c>
       <c r="H15" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I15" t="n">
         <v>3.175</v>
@@ -1512,30 +1364,20 @@
       <c r="N15" t="n">
         <v>58651.20957602798</v>
       </c>
-      <c r="O15" t="n">
-        <v>-8.239936510889834e-17</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>[0.00618976]</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>[245.73442059]</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>0.0001167273405350824</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>test_ID_069</t>
+          <t>test_ID_093</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1563,7 +1405,7 @@
         <v>0.000866</v>
       </c>
       <c r="H16" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I16" t="n">
         <v>3.175</v>
@@ -1583,30 +1425,20 @@
       <c r="N16" t="n">
         <v>73592.84095891487</v>
       </c>
-      <c r="O16" t="n">
-        <v>-4.92227786308419e-17</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>[0.00527041]</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>[240.67871789]</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>9.531691839774926e-05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>test_ID_070</t>
+          <t>test_ID_094</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1634,50 +1466,40 @@
         <v>0.000866</v>
       </c>
       <c r="H17" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I17" t="n">
         <v>3.175</v>
       </c>
       <c r="J17" t="n">
-        <v>0.002407070069901567</v>
+        <v>0.002407070069901566</v>
       </c>
       <c r="K17" t="n">
         <v>144.247777516109</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006398491389772665</v>
+        <v>0.0006398491389772658</v>
       </c>
       <c r="M17" t="n">
         <v>38.3440504691419</v>
       </c>
       <c r="N17" t="n">
-        <v>59926.70480174589</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-1.665334536937735e-16</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>[0.007061]</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>[303.28881334]</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+        <v>59926.70480174591</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>-0.0001668037782862342</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>test_ID_071</t>
+          <t>test_ID_095</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1705,7 +1527,7 @@
         <v>0.000866</v>
       </c>
       <c r="H18" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I18" t="n">
         <v>3.175</v>
@@ -1725,30 +1547,20 @@
       <c r="N18" t="n">
         <v>49865.42503582808</v>
       </c>
-      <c r="O18" t="n">
-        <v>-1.561251128379126e-17</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>[0.00767737]</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>[283.10466726]</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>0.0004536535710335157</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>test_ID_072</t>
+          <t>test_ID_096</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1776,7 +1588,7 @@
         <v>0.000866</v>
       </c>
       <c r="H19" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I19" t="n">
         <v>3.175</v>
@@ -1796,30 +1608,20 @@
       <c r="N19" t="n">
         <v>56482.58720621179</v>
       </c>
-      <c r="O19" t="n">
-        <v>-2.168404344971009e-18</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>[0.00686329]</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>[274.69125295]</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>-0.0005549399286298978</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>test_ID_073</t>
+          <t>test_ID_097</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1847,7 +1649,7 @@
         <v>0.000866</v>
       </c>
       <c r="H20" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I20" t="n">
         <v>3.175</v>
@@ -1867,30 +1669,20 @@
       <c r="N20" t="n">
         <v>69135.73378144363</v>
       </c>
-      <c r="O20" t="n">
-        <v>-3.729655473350135e-17</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>[0.00587294]</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>[267.7587454]</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>-0.0004259274742736629</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>test_ID_074</t>
+          <t>test_ID_098</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1918,50 +1710,40 @@
         <v>0.000866</v>
       </c>
       <c r="H21" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I21" t="n">
         <v>3.175</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003099591938446897</v>
+        <v>0.003099591938447006</v>
       </c>
       <c r="K21" t="n">
         <v>184.962353082935</v>
       </c>
       <c r="L21" t="n">
-        <v>9.850138957700245e-05</v>
+        <v>9.850138957700637e-05</v>
       </c>
       <c r="M21" t="n">
         <v>5.87788623789952</v>
       </c>
       <c r="N21" t="n">
-        <v>59673.13012680422</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3.469446951953614e-18</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>[0.00602558]</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>[240.21867153]</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+        <v>59673.13012680211</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>-8.019852286719363e-05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>test_ID_075</t>
+          <t>test_ID_099</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1989,7 +1771,7 @@
         <v>0.000866</v>
       </c>
       <c r="H22" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I22" t="n">
         <v>3.175</v>
@@ -2001,7 +1783,7 @@
         <v>147.650044884146</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0008695210452605136</v>
+        <v>0.0008695210452605134</v>
       </c>
       <c r="M22" t="n">
         <v>50.5803295346691</v>
@@ -2009,30 +1791,20 @@
       <c r="N22" t="n">
         <v>58170.33389860614</v>
       </c>
-      <c r="O22" t="n">
-        <v>-1.136243876764809e-16</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>[0.0055403]</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>[205.94052989]</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>9.097191051991339e-05</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>test_ID_076</t>
+          <t>test_ID_100</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2060,7 +1832,7 @@
         <v>0.000866</v>
       </c>
       <c r="H23" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I23" t="n">
         <v>3.175</v>
@@ -2080,35 +1852,25 @@
       <c r="N23" t="n">
         <v>59252.56043784516</v>
       </c>
-      <c r="O23" t="n">
-        <v>-4.336808689942018e-18</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>[0.00605723]</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>[240.40125743]</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>0.0004286968068274045</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>test_ID_077</t>
+          <t>test_ID_001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T_100_B_1_035_060_06.csv</t>
+          <t>T_100_B_2_036_067_08.csv</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2125,61 +1887,51 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
         <v>0.000866</v>
       </c>
       <c r="H24" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I24" t="n">
         <v>3.175</v>
       </c>
       <c r="J24" t="n">
-        <v>0.002913928760891335</v>
+        <v>0.002799291831076681</v>
       </c>
       <c r="K24" t="n">
-        <v>164.528068453978</v>
+        <v>166.148394269309</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002542523812495349</v>
+        <v>9.348677992880878e-06</v>
       </c>
       <c r="M24" t="n">
-        <v>14.3557569931856</v>
+        <v>0.554878851791746</v>
       </c>
       <c r="N24" t="n">
-        <v>56462.62553229026</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-1.348747502571968e-16</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>[0.00618052]</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>[236.04290754]</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+        <v>59353.72383286097</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>-9.209623205211912e-05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>test_ID_078</t>
+          <t>test_ID_011</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T_100_B_2_036_067_08.csv</t>
+          <t>T_100_B_3_037_096_09.csv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2196,61 +1948,51 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>0.000866</v>
       </c>
       <c r="H25" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I25" t="n">
         <v>3.175</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0027992918310763</v>
+        <v>0.002342094147758236</v>
       </c>
       <c r="K25" t="n">
-        <v>166.148394269309</v>
+        <v>143.264709458966</v>
       </c>
       <c r="L25" t="n">
-        <v>9.348677992879144e-06</v>
+        <v>6.561829182213629e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.554878851791746</v>
+        <v>4.01383758295543</v>
       </c>
       <c r="N25" t="n">
-        <v>59353.72383286903</v>
-      </c>
-      <c r="O25" t="n">
-        <v>-4.336808689942018e-19</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>[0.00585036]</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>[228.53323184]</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+        <v>61169.49209582098</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>-7.758201511646372e-05</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>test_ID_079</t>
+          <t>test_ID_085</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T_100_B_3_037_096_09.csv</t>
+          <t>T_100_B_1_035_060_06.csv</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2267,61 +2009,51 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0.000866</v>
       </c>
       <c r="H26" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I26" t="n">
         <v>3.175</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002342094147757995</v>
+        <v>0.002913928760891397</v>
       </c>
       <c r="K26" t="n">
-        <v>143.264709458966</v>
+        <v>164.528068453978</v>
       </c>
       <c r="L26" t="n">
-        <v>6.561829182212935e-05</v>
+        <v>0.0002542523812495404</v>
       </c>
       <c r="M26" t="n">
-        <v>4.01383758295543</v>
+        <v>14.3557569931856</v>
       </c>
       <c r="N26" t="n">
-        <v>61169.49209582728</v>
-      </c>
-      <c r="O26" t="n">
-        <v>5.204170427930421e-18</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>[0.00586016]</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>[236.12430816]</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+        <v>56462.62553228906</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>0.0002957619767601969</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>test_ID_080</t>
+          <t>test_ID_023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T_100_C_1_038_049_04.csv</t>
+          <t>T_100_C_2_039_095_05.csv</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2338,61 +2070,51 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>0.000866</v>
       </c>
       <c r="H27" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I27" t="n">
         <v>3.175</v>
       </c>
       <c r="J27" t="n">
-        <v>0.001877897583311898</v>
+        <v>0.003608067645741652</v>
       </c>
       <c r="K27" t="n">
-        <v>114.945593796641</v>
+        <v>211.28186215837</v>
       </c>
       <c r="L27" t="n">
-        <v>4.202040312191125e-05</v>
+        <v>0.0003993781755485524</v>
       </c>
       <c r="M27" t="n">
-        <v>2.57205730032622</v>
+        <v>23.3868577089734</v>
       </c>
       <c r="N27" t="n">
-        <v>61209.72454414721</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2.168404344971009e-18</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>[0.00604259]</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>[247.44590736]</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+        <v>58558.17653744132</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>-0.0002421665394191476</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>test_ID_081</t>
+          <t>test_ID_024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>T_100_C_2_039_095_05.csv</t>
+          <t>T_100_C_3_040_051_06.csv</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2409,61 +2131,51 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
         <v>0.000866</v>
       </c>
       <c r="H28" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I28" t="n">
         <v>3.175</v>
       </c>
       <c r="J28" t="n">
-        <v>0.003608067645741652</v>
+        <v>0.001648224949389607</v>
       </c>
       <c r="K28" t="n">
-        <v>211.28186215837</v>
+        <v>100.820663952542</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0003993781755485525</v>
+        <v>0.000420692461308671</v>
       </c>
       <c r="M28" t="n">
-        <v>23.3868577089734</v>
+        <v>25.7334372257117</v>
       </c>
       <c r="N28" t="n">
-        <v>58558.17653744132</v>
-      </c>
-      <c r="O28" t="n">
-        <v>-5.247538514829841e-17</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>[0.00625276]</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>[249.03406727]</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+        <v>61169.23784576812</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>0.0004348944450230073</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>test_ID_082</t>
+          <t>test_ID_076</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T_100_C_3_040_051_06.csv</t>
+          <t>T_100_C_1_038_049_04.csv</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2480,56 +2192,46 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0.000866</v>
       </c>
       <c r="H29" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I29" t="n">
         <v>3.175</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001648224949389693</v>
+        <v>0.001877897583312018</v>
       </c>
       <c r="K29" t="n">
-        <v>100.820663952542</v>
+        <v>114.945593796641</v>
       </c>
       <c r="L29" t="n">
-        <v>0.000420692461308693</v>
+        <v>4.202040312191429e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>25.7334372257117</v>
+        <v>2.57205730032622</v>
       </c>
       <c r="N29" t="n">
-        <v>61169.23784576494</v>
-      </c>
-      <c r="O29" t="n">
-        <v>-9.302454639925628e-17</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>[0.00608051]</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>[249.6013985]</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+        <v>61209.7245441433</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>-1.811243338828211e-05</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>test_ID_083</t>
+          <t>test_ID_025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2557,7 +2259,7 @@
         <v>0.000866</v>
       </c>
       <c r="H30" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I30" t="n">
         <v>3.175</v>
@@ -2577,30 +2279,20 @@
       <c r="N30" t="n">
         <v>67162.82767500551</v>
       </c>
-      <c r="O30" t="n">
-        <v>-1.684850176042474e-16</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>[0.00562653]</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>[243.56803442]</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>9.650639171126857e-05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>test_ID_084</t>
+          <t>test_ID_026</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2628,50 +2320,40 @@
         <v>0.000866</v>
       </c>
       <c r="H31" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I31" t="n">
         <v>3.175</v>
       </c>
       <c r="J31" t="n">
-        <v>0.00377042063778874</v>
+        <v>0.003770420637788741</v>
       </c>
       <c r="K31" t="n">
         <v>185.923507771131</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00120180735436314</v>
+        <v>0.001201807354363141</v>
       </c>
       <c r="M31" t="n">
         <v>59.2624167046206</v>
       </c>
       <c r="N31" t="n">
-        <v>49311.07842656267</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-3.989863994746656e-17</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>[0.0070141]</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>[247.25043481]</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+        <v>49311.07842656266</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>0.001050742857985741</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>test_ID_085</t>
+          <t>test_ID_027</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2699,50 +2381,40 @@
         <v>0.000866</v>
       </c>
       <c r="H32" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I32" t="n">
         <v>3.175</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0005420269248840922</v>
+        <v>0.000542026924884292</v>
       </c>
       <c r="K32" t="n">
         <v>46.1272742639521</v>
       </c>
       <c r="L32" t="n">
-        <v>4.254760559952936e-05</v>
+        <v>4.254760559954508e-05</v>
       </c>
       <c r="M32" t="n">
         <v>3.62086269641244</v>
       </c>
       <c r="N32" t="n">
-        <v>85101.4444970903</v>
-      </c>
-      <c r="O32" t="n">
-        <v>7.806255641895632e-18</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>[0.00493244]</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>[249.55500899]</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr"/>
+        <v>85101.44449705892</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>-4.507463801850802e-05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>test_ID_086</t>
+          <t>test_ID_028</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2770,7 +2442,7 @@
         <v>0.000866</v>
       </c>
       <c r="H33" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I33" t="n">
         <v>3.175</v>
@@ -2790,30 +2462,20 @@
       <c r="N33" t="n">
         <v>54071.26799750867</v>
       </c>
-      <c r="O33" t="n">
-        <v>-1.821459649775647e-17</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>[0.00639713]</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>[237.75820578]</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>0.0006475197704802183</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>test_ID_087</t>
+          <t>test_ID_029</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2841,7 +2503,7 @@
         <v>0.000866</v>
       </c>
       <c r="H34" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I34" t="n">
         <v>3.175</v>
@@ -2861,30 +2523,20 @@
       <c r="N34" t="n">
         <v>76081.84927734443</v>
       </c>
-      <c r="O34" t="n">
-        <v>-1.301042606982605e-18</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>[0.00507792]</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>[234.17396009]</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>1.660443807201283e-06</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>test_ID_088</t>
+          <t>test_ID_030</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2912,7 +2564,7 @@
         <v>0.000866</v>
       </c>
       <c r="H35" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I35" t="n">
         <v>3.175</v>
@@ -2932,30 +2584,20 @@
       <c r="N35" t="n">
         <v>65766.00230349448</v>
       </c>
-      <c r="O35" t="n">
-        <v>-5.648693318649478e-17</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>[0.00557583]</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>[235.16789173]</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>4.135819297285646e-05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>test_ID_089</t>
+          <t>test_ID_031</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2983,7 +2625,7 @@
         <v>0.000866</v>
       </c>
       <c r="H36" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I36" t="n">
         <v>3.175</v>
@@ -3003,30 +2645,20 @@
       <c r="N36" t="n">
         <v>55511.09310441385</v>
       </c>
-      <c r="O36" t="n">
-        <v>-1.019150042136374e-16</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>[0.00694048]</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>[274.25136363]</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>0.001131404196779302</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>test_ID_090</t>
+          <t>test_ID_032</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3054,7 +2686,7 @@
         <v>0.000866</v>
       </c>
       <c r="H37" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I37" t="n">
         <v>3.175</v>
@@ -3074,30 +2706,20 @@
       <c r="N37" t="n">
         <v>44838.41936804264</v>
       </c>
-      <c r="O37" t="n">
-        <v>-4.597017211338539e-17</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>[0.00785175]</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>[262.3832283]</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>0.0009057003101174462</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>test_ID_091</t>
+          <t>test_ID_033</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3125,7 +2747,7 @@
         <v>0.000866</v>
       </c>
       <c r="H38" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I38" t="n">
         <v>3.175</v>
@@ -3137,7 +2759,7 @@
         <v>174.581165598501</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0005973992805999487</v>
+        <v>0.0005973992805999486</v>
       </c>
       <c r="M38" t="n">
         <v>32.5799358286726</v>
@@ -3145,30 +2767,20 @@
       <c r="N38" t="n">
         <v>54536.28232687803</v>
       </c>
-      <c r="O38" t="n">
-        <v>-1.487525380650112e-16</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>[0.00699255]</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>[272.27523845]</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>0.0008630670852242486</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>test_ID_092</t>
+          <t>test_ID_034</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3196,13 +2808,13 @@
         <v>0.000866</v>
       </c>
       <c r="H39" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I39" t="n">
         <v>3.175</v>
       </c>
       <c r="J39" t="n">
-        <v>0.003535944426428288</v>
+        <v>0.003535944426428289</v>
       </c>
       <c r="K39" t="n">
         <v>176.304083740973</v>
@@ -3214,32 +2826,22 @@
         <v>79.9853239432246</v>
       </c>
       <c r="N39" t="n">
-        <v>49860.53582269122</v>
-      </c>
-      <c r="O39" t="n">
-        <v>-8.760353553682876e-17</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>[0.00707856]</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>[253.21952832]</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+        <v>49860.53582269121</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>0.0008016758350805884</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>test_ID_093</t>
+          <t>test_ID_035</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3267,50 +2869,40 @@
         <v>0.000866</v>
       </c>
       <c r="H40" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I40" t="n">
         <v>3.175</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002197614221644403</v>
+        <v>0.002197614221644402</v>
       </c>
       <c r="K40" t="n">
         <v>126.327924989666</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0003662964402999023</v>
+        <v>0.0003662964402999018</v>
       </c>
       <c r="M40" t="n">
         <v>21.056229422998</v>
       </c>
       <c r="N40" t="n">
-        <v>57484.12243853199</v>
-      </c>
-      <c r="O40" t="n">
-        <v>-1.023486850826316e-16</v>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>[0.00570956]</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>[213.2409893]</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+        <v>57484.122438532</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>1.049680261430187e-05</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>test_ID_094</t>
+          <t>test_ID_036</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3338,55 +2930,45 @@
         <v>0.000866</v>
       </c>
       <c r="H41" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I41" t="n">
         <v>3.175</v>
       </c>
       <c r="J41" t="n">
-        <v>0.002440386540067832</v>
+        <v>0.002440386540067831</v>
       </c>
       <c r="K41" t="n">
         <v>127.142187354785</v>
       </c>
       <c r="L41" t="n">
-        <v>0.001272923963641632</v>
+        <v>0.001272923963641631</v>
       </c>
       <c r="M41" t="n">
         <v>66.3183206498186</v>
       </c>
       <c r="N41" t="n">
-        <v>52099.200379646</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-3.209238430557093e-17</v>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>[0.00610135]</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>[213.67688741]</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+        <v>52099.20037964602</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>0.0001231640292093314</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>test_ID_095</t>
+          <t>test_ID_022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T_150_C_1_069_107_16.csv</t>
+          <t>T_150_C_2_070_108_17.csv</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3403,61 +2985,51 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
         <v>0.000866</v>
       </c>
       <c r="H42" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I42" t="n">
         <v>3.175</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002919619240649737</v>
+        <v>0.0007756972094795218</v>
       </c>
       <c r="K42" t="n">
-        <v>137.914967289347</v>
+        <v>43.69035133474</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0004717993448001373</v>
+        <v>0.0004853675214597392</v>
       </c>
       <c r="M42" t="n">
-        <v>22.2865332229986</v>
+        <v>27.3378288330787</v>
       </c>
       <c r="N42" t="n">
-        <v>47237.31278694244</v>
-      </c>
-      <c r="O42" t="n">
-        <v>-3.729655473350135e-17</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>[0.00689806]</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>[231.37142148]</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr"/>
+        <v>56323.97641865361</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>0.0007330792019057392</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>test_ID_096</t>
+          <t>test_ID_037</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>T_150_C_2_070_108_17.csv</t>
+          <t>T_150_C_1_069_107_16.csv</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3474,61 +3046,51 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0.000866</v>
       </c>
       <c r="H43" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I43" t="n">
         <v>3.175</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0007756972094795681</v>
+        <v>0.002919619240649738</v>
       </c>
       <c r="K43" t="n">
-        <v>43.69035133474</v>
+        <v>137.914967289347</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0004853675214597681</v>
+        <v>0.0004717993448001379</v>
       </c>
       <c r="M43" t="n">
-        <v>27.3378288330787</v>
+        <v>22.2865332229986</v>
       </c>
       <c r="N43" t="n">
-        <v>56323.97641865025</v>
-      </c>
-      <c r="O43" t="n">
-        <v>-6.808789643208968e-17</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>[0.00607948]</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>[229.77271333]</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+        <v>47237.31278694243</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>0.000875812239462738</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>test_ID_097</t>
+          <t>test_ID_020</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>T_150_D_1_072_111_04.csv</t>
+          <t>T_150_D_2_073_112_05.csv</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3545,61 +3107,51 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="n">
         <v>0.000866</v>
       </c>
       <c r="H44" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I44" t="n">
         <v>3.175</v>
       </c>
       <c r="J44" t="n">
-        <v>0.004385461460634597</v>
+        <v>0.002229400711533884</v>
       </c>
       <c r="K44" t="n">
-        <v>190.806708666229</v>
+        <v>106.423782753718</v>
       </c>
       <c r="L44" t="n">
-        <v>0.002048999318419596</v>
+        <v>0.001046438241381984</v>
       </c>
       <c r="M44" t="n">
-        <v>89.1497552803521</v>
+        <v>49.9532970855636</v>
       </c>
       <c r="N44" t="n">
-        <v>43508.92383366616</v>
-      </c>
-      <c r="O44" t="n">
-        <v>-9.627715291671279e-17</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>[0.00729047]</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>[230.18281857]</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+        <v>47736.49806565988</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>0.0007321093497570839</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>test_ID_098</t>
+          <t>test_ID_021</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>T_150_D_2_073_112_05.csv</t>
+          <t>T_150_D_1_072_111_04.csv</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3616,61 +3168,51 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>0.000866</v>
       </c>
       <c r="H45" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I45" t="n">
         <v>3.175</v>
       </c>
       <c r="J45" t="n">
-        <v>0.002229400711533884</v>
+        <v>0.004385461460634597</v>
       </c>
       <c r="K45" t="n">
-        <v>106.423782753718</v>
+        <v>190.806708666229</v>
       </c>
       <c r="L45" t="n">
-        <v>0.001046438241381984</v>
+        <v>0.002048999318419596</v>
       </c>
       <c r="M45" t="n">
-        <v>49.9532970855636</v>
+        <v>89.1497552803521</v>
       </c>
       <c r="N45" t="n">
-        <v>47736.49806565988</v>
-      </c>
-      <c r="O45" t="n">
-        <v>-1.838806884535416e-16</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>[0.00680595]</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>[229.41907001]</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+        <v>43508.92383366616</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>0.001030591323611097</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>test_ID_099</t>
+          <t>test_ID_003</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>T_150_E_1_075_116_09.csv</t>
+          <t>T_150_E_2_076_117_10.csv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3687,61 +3229,51 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
         <v>0.000866</v>
       </c>
       <c r="H46" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I46" t="n">
         <v>3.175</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001642667931312869</v>
+        <v>0.002029688456395919</v>
       </c>
       <c r="K46" t="n">
-        <v>86.96884979516319</v>
+        <v>98.3135045128474</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008846657864568686</v>
+        <v>0.0002692857965243188</v>
       </c>
       <c r="M46" t="n">
-        <v>46.8374431829298</v>
+        <v>13.0435931132256</v>
       </c>
       <c r="N46" t="n">
-        <v>52943.65838484174</v>
-      </c>
-      <c r="O46" t="n">
-        <v>-6.852157730108388e-17</v>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>[0.00608636]</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>[216.34693032]</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+        <v>48437.73151640273</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>0.0004840251368253188</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>test_ID_100</t>
+          <t>test_ID_019</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>T_150_E_2_076_117_10.csv</t>
+          <t>T_150_E_1_075_116_09.csv</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3758,56 +3290,46 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0.000866</v>
       </c>
       <c r="H47" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I47" t="n">
         <v>3.175</v>
       </c>
       <c r="J47" t="n">
-        <v>0.002029688456395918</v>
+        <v>0.001642667931312869</v>
       </c>
       <c r="K47" t="n">
-        <v>98.3135045128474</v>
+        <v>86.96884979516319</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0002692857965243184</v>
+        <v>0.0008846657864568686</v>
       </c>
       <c r="M47" t="n">
-        <v>13.0435931132256</v>
+        <v>46.8374431829298</v>
       </c>
       <c r="N47" t="n">
-        <v>48437.73151640274</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-1.183948772354171e-16</v>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>[0.00607457]</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>[197.36300395]</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+        <v>52943.65838484174</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>0.0005983305746827686</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>test_ID_101</t>
+          <t>test_ID_004</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3835,7 +3357,7 @@
         <v>0.000866</v>
       </c>
       <c r="H48" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I48" t="n">
         <v>3.175</v>
@@ -3847,7 +3369,7 @@
         <v>107.531322495733</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0004515525620684006</v>
+        <v>0.0004515525620684005</v>
       </c>
       <c r="M48" t="n">
         <v>23.5320241377496</v>
@@ -3855,30 +3377,20 @@
       <c r="N48" t="n">
         <v>52113.58790648386</v>
       </c>
-      <c r="O48" t="n">
-        <v>-1.006139616066548e-16</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>[0.00675115]</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>[247.59971195]</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>8.460631615250054e-05</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>test_ID_102</t>
+          <t>test_ID_005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3906,7 +3418,7 @@
         <v>0.000866</v>
       </c>
       <c r="H49" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I49" t="n">
         <v>3.175</v>
@@ -3918,7 +3430,7 @@
         <v>214.622689722153</v>
       </c>
       <c r="L49" t="n">
-        <v>0.001324219784092685</v>
+        <v>0.001324219784092684</v>
       </c>
       <c r="M49" t="n">
         <v>60.5090028752196</v>
@@ -3926,30 +3438,20 @@
       <c r="N49" t="n">
         <v>45694.07858279248</v>
       </c>
-      <c r="O49" t="n">
-        <v>-8.500145032286355e-17</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>[0.00726536]</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>[240.59583819]</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>0.0008567276039679844</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>test_ID_103</t>
+          <t>test_ID_006</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3977,7 +3479,7 @@
         <v>0.000866</v>
       </c>
       <c r="H50" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I50" t="n">
         <v>3.175</v>
@@ -3989,7 +3491,7 @@
         <v>151.737831510864</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0005664390169995642</v>
+        <v>0.0005664390169995643</v>
       </c>
       <c r="M50" t="n">
         <v>29.9205011226317</v>
@@ -3997,30 +3499,20 @@
       <c r="N50" t="n">
         <v>52822.10480683522</v>
       </c>
-      <c r="O50" t="n">
-        <v>-6.418476861114186e-17</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>[0.00682053]</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>[254.63062289]</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>0.0002699520485847642</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>test_ID_104</t>
+          <t>test_ID_007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4048,7 +3540,7 @@
         <v>0.000866</v>
       </c>
       <c r="H51" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I51" t="n">
         <v>3.175</v>
@@ -4068,35 +3560,25 @@
       <c r="N51" t="n">
         <v>40497.81968468332</v>
       </c>
-      <c r="O51" t="n">
-        <v>-1.387778780781446e-16</v>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>[0.00796062]</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>[241.39220896]</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>0.001260259507802939</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>test_ID_105</t>
+          <t>test_ID_002</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>T_200_A_1_094_041_14.csv</t>
+          <t>T_200_A_3_096_033_11.csv</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4113,61 +3595,55 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
         <v>0.000866</v>
       </c>
       <c r="H52" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I52" t="n">
         <v>3.175</v>
       </c>
       <c r="J52" t="n">
-        <v>0.002485691494831069</v>
+        <v>0.00368499349653438</v>
       </c>
       <c r="K52" t="n">
-        <v>134.337541640328</v>
+        <v>162.188065728032</v>
       </c>
       <c r="L52" t="n">
-        <v>0.001082338208415669</v>
+        <v>0.002272049722026791</v>
       </c>
       <c r="M52" t="n">
-        <v>58.4942477553271</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
-        <v>54044.33410971532</v>
-      </c>
-      <c r="O52" t="n">
-        <v>-6.895525817007808e-17</v>
+        <v>44013.12129331158</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[0.00545578]</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>[186.76539531]</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>LPL = 100</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.00132275994714398</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>test_ID_106</t>
+          <t>test_ID_008</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>T_200_A_2_095_034_12.csv</t>
+          <t>T_200_A_1_094_041_14.csv</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4184,61 +3660,51 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>0.000866</v>
       </c>
       <c r="H53" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I53" t="n">
         <v>3.175</v>
       </c>
       <c r="J53" t="n">
-        <v>0.001228066336613659</v>
+        <v>0.002485691494831069</v>
       </c>
       <c r="K53" t="n">
-        <v>71.2418157261492</v>
+        <v>134.337541640328</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0003861060149173587</v>
+        <v>0.001082338208415669</v>
       </c>
       <c r="M53" t="n">
-        <v>22.3985404903691</v>
+        <v>58.4942477553271</v>
       </c>
       <c r="N53" t="n">
-        <v>58011.37414335085</v>
-      </c>
-      <c r="O53" t="n">
-        <v>-1.587271980518778e-16</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>[0.00465399]</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>[153.96170388]</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
+        <v>54044.33410971532</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>0.0005956601279578689</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>test_ID_107</t>
+          <t>test_ID_009</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>T_200_A_3_096_033_11.csv</t>
+          <t>T_200_A_2_095_034_12.csv</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4255,60 +3721,46 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
         <v>0.000866</v>
       </c>
       <c r="H54" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I54" t="n">
         <v>3.175</v>
       </c>
       <c r="J54" t="n">
-        <v>0.004655036302394712</v>
+        <v>0.001228066336613659</v>
       </c>
       <c r="K54" t="n">
-        <v>162.188065728032</v>
+        <v>71.2418157261492</v>
       </c>
       <c r="L54" t="n">
-        <v>0.004477101959842712</v>
+        <v>0.0003861060149173587</v>
       </c>
       <c r="M54" t="n">
-        <v>155.988580918375</v>
+        <v>22.3985404903691</v>
       </c>
       <c r="N54" t="n">
-        <v>34841.41802387166</v>
-      </c>
-      <c r="O54" t="n">
-        <v>-0.0009700428058606121</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>[0.00634629]</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>[191.29395231]</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>LPL @ 100</t>
-        </is>
+        <v>58011.37414335085</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>0.0002364311953404587</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>test_ID_108</t>
+          <t>test_ID_010</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4336,7 +3788,7 @@
         <v>0.000866</v>
       </c>
       <c r="H55" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I55" t="n">
         <v>3.175</v>
@@ -4356,30 +3808,20 @@
       <c r="N55" t="n">
         <v>54673.71837495033</v>
       </c>
-      <c r="O55" t="n">
-        <v>-6.505213034913027e-18</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>[0.0054088]</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>[186.37201145]</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>6.444663434220649e-05</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>test_ID_109</t>
+          <t>test_ID_012</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4407,7 +3849,7 @@
         <v>0.000866</v>
       </c>
       <c r="H56" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I56" t="n">
         <v>3.175</v>
@@ -4427,30 +3869,20 @@
       <c r="N56" t="n">
         <v>50095.81368631024</v>
       </c>
-      <c r="O56" t="n">
-        <v>-7.37257477290143e-17</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>[0.00574067]</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>[187.39180035]</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>0.0005357913646937737</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>test_ID_110</t>
+          <t>test_ID_013</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4478,7 +3910,7 @@
         <v>0.000866</v>
       </c>
       <c r="H57" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I57" t="n">
         <v>3.175</v>
@@ -4498,30 +3930,20 @@
       <c r="N57" t="n">
         <v>58316.18295655812</v>
       </c>
-      <c r="O57" t="n">
-        <v>-2.211772431870429e-17</v>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>[0.00529155]</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>[191.95047384]</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>0.0001747938059600222</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>test_ID_111</t>
+          <t>test_ID_014</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4549,7 +3971,7 @@
         <v>0.000866</v>
       </c>
       <c r="H58" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I58" t="n">
         <v>3.175</v>
@@ -4569,30 +3991,20 @@
       <c r="N58" t="n">
         <v>44272.16051279124</v>
       </c>
-      <c r="O58" t="n">
-        <v>-1.474514954580286e-17</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>[0.00658279]</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>[202.89022806]</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>0.001127086786231615</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>test_ID_112</t>
+          <t>test_ID_015</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4620,54 +4032,44 @@
         <v>0.000866</v>
       </c>
       <c r="H59" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I59" t="n">
         <v>3.175</v>
       </c>
       <c r="J59" t="n">
-        <v>0.004615041001057621</v>
+        <v>0.003679236313318479</v>
       </c>
       <c r="K59" t="n">
         <v>159.315233127494</v>
       </c>
       <c r="L59" t="n">
-        <v>0.004502664230031621</v>
+        <v>0.00230940647739198</v>
       </c>
       <c r="M59" t="n">
-        <v>155.435889158498</v>
+        <v>100</v>
       </c>
       <c r="N59" t="n">
-        <v>34520.87058186135</v>
-      </c>
-      <c r="O59" t="n">
-        <v>-0.0009358046877391214</v>
+        <v>43301.16892758106</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[0.00663262]</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>[200.59782047]</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>LPL @ 100</t>
-        </is>
+          <t>LPL = 100</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.001142736282227179</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>test_ID_113</t>
+          <t>test_ID_016</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4695,7 +4097,7 @@
         <v>0.000866</v>
       </c>
       <c r="H60" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I60" t="n">
         <v>3.175</v>
@@ -4715,30 +4117,20 @@
       <c r="N60" t="n">
         <v>52310.56454676712</v>
       </c>
-      <c r="O60" t="n">
-        <v>-1.773754754186285e-16</v>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>[0.00580383]</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>[198.98072405]</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>0.0002063811979691773</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>test_ID_114</t>
+          <t>test_ID_017</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4766,7 +4158,7 @@
         <v>0.000866</v>
       </c>
       <c r="H61" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I61" t="n">
         <v>3.175</v>
@@ -4786,30 +4178,20 @@
       <c r="N61" t="n">
         <v>55099.56525272816</v>
       </c>
-      <c r="O61" t="n">
-        <v>-5.746271514173174e-18</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>[0.00573765]</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[205.94279353]</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>0.0003618505727106058</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>test_ID_115</t>
+          <t>test_ID_018</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4837,7 +4219,7 @@
         <v>0.000866</v>
       </c>
       <c r="H62" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I62" t="n">
         <v>3.175</v>
@@ -4857,34 +4239,20 @@
       <c r="N62" t="n">
         <v>40562.80442848011</v>
       </c>
-      <c r="O62" t="n">
-        <v>-0.000255984054904099</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>[0.00632875]</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[187.98306967]</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>LPL @ 75</t>
-        </is>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>0.0009129031790100989</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>test_ID_116</t>
+          <t>test_ID_038</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4912,7 +4280,7 @@
         <v>0.000866</v>
       </c>
       <c r="H63" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I63" t="n">
         <v>3.175</v>
@@ -4932,30 +4300,20 @@
       <c r="N63" t="n">
         <v>51251.21984452443</v>
       </c>
-      <c r="O63" t="n">
-        <v>-1.791101988946053e-16</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>[0.00578348]</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[193.90783315]</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>-1.666305095732092e-05</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>test_ID_117</t>
+          <t>test_ID_039</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4983,7 +4341,7 @@
         <v>0.000866</v>
       </c>
       <c r="H64" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I64" t="n">
         <v>3.175</v>
@@ -5003,30 +4361,20 @@
       <c r="N64" t="n">
         <v>49625.43212271877</v>
       </c>
-      <c r="O64" t="n">
-        <v>-6.808789643208968e-17</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>[0.00566904]</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[182.07793808]</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>-5.101728079533185e-05</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>test_ID_118</t>
+          <t>test_ID_040</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5054,50 +4402,40 @@
         <v>0.000866</v>
       </c>
       <c r="H65" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I65" t="n">
         <v>3.175</v>
       </c>
       <c r="J65" t="n">
-        <v>0.002801238875892799</v>
+        <v>0.002801238875892798</v>
       </c>
       <c r="K65" t="n">
         <v>137.529404464271</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0007091321681881988</v>
+        <v>0.0007091321681881983</v>
       </c>
       <c r="M65" t="n">
         <v>34.8154973917735</v>
       </c>
       <c r="N65" t="n">
-        <v>49095.92168230859</v>
-      </c>
-      <c r="O65" t="n">
-        <v>-9.8879238130678e-17</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>[0.00579331]</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[186.23587121]</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
+        <v>49095.9216823086</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>1.674164147798338e-06</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>test_ID_119</t>
+          <t>test_ID_059</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5125,54 +4463,44 @@
         <v>0.000866</v>
       </c>
       <c r="H66" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I66" t="n">
         <v>3.175</v>
       </c>
       <c r="J66" t="n">
-        <v>0.002836324709717948</v>
+        <v>0.002601363834096357</v>
       </c>
       <c r="K66" t="n">
         <v>125.650398590921</v>
       </c>
       <c r="L66" t="n">
-        <v>0.002755051091441948</v>
+        <v>0.002070318807794312</v>
       </c>
       <c r="M66" t="n">
-        <v>122.049942516087</v>
+        <v>100</v>
       </c>
       <c r="N66" t="n">
-        <v>44300.42800121289</v>
-      </c>
-      <c r="O66" t="n">
-        <v>-0.0002349608756214479</v>
+        <v>48301.73962750141</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[0.00581521]</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[184.28113182]</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>LPL @ 100</t>
-        </is>
+          <t>LPL = 100</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>9.552114163655697e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>test_ID_120</t>
+          <t>test_ID_061</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5200,7 +4528,7 @@
         <v>0.000866</v>
       </c>
       <c r="H67" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I67" t="n">
         <v>3.175</v>
@@ -5218,32 +4546,22 @@
         <v>44.7571054503344</v>
       </c>
       <c r="N67" t="n">
-        <v>42336.50950927416</v>
-      </c>
-      <c r="O67" t="n">
-        <v>-2.298508605669269e-17</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>[0.00681378]</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[203.79857259]</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
+        <v>42336.50950927417</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>0.001640142602827623</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>test_ID_121</t>
+          <t>test_ID_062</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5271,54 +4589,44 @@
         <v>0.000866</v>
       </c>
       <c r="H68" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I68" t="n">
         <v>3.175</v>
       </c>
       <c r="J68" t="n">
-        <v>0.004985253954606032</v>
+        <v>0.004027151846016951</v>
       </c>
       <c r="K68" t="n">
         <v>165.156659126179</v>
       </c>
       <c r="L68" t="n">
-        <v>0.004869934368226032</v>
+        <v>0.002438382967616354</v>
       </c>
       <c r="M68" t="n">
-        <v>161.336232365224</v>
+        <v>100</v>
       </c>
       <c r="N68" t="n">
-        <v>33129.03627980388</v>
-      </c>
-      <c r="O68" t="n">
-        <v>-0.0009581021085890325</v>
+        <v>41010.78515068335</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>[0.00699032]</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[204.65696578]</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>LPL @ 100</t>
-        </is>
+          <t>LPL = 100</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.0008713315624624507</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>test_ID_122</t>
+          <t>test_ID_063</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5346,50 +4654,40 @@
         <v>0.000866</v>
       </c>
       <c r="H69" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I69" t="n">
         <v>3.175</v>
       </c>
       <c r="J69" t="n">
-        <v>0.004318579631240166</v>
+        <v>0.004318579631240168</v>
       </c>
       <c r="K69" t="n">
         <v>188.358407583882</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001009341110338467</v>
+        <v>0.001009341110338468</v>
       </c>
       <c r="M69" t="n">
         <v>44.0232438640259</v>
       </c>
       <c r="N69" t="n">
-        <v>43615.82364287471</v>
-      </c>
-      <c r="O69" t="n">
-        <v>-1.665334536937735e-16</v>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>[0.0071111]</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>[222.92474578]</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
+        <v>43615.8236428747</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="n">
+        <v>0.0008277733694668681</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>test_ID_123</t>
+          <t>test_ID_064</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5417,13 +4715,13 @@
         <v>0.000866</v>
       </c>
       <c r="H70" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I70" t="n">
         <v>3.175</v>
       </c>
       <c r="J70" t="n">
-        <v>0.004512857274977414</v>
+        <v>0.004512857274977415</v>
       </c>
       <c r="K70" t="n">
         <v>178.246468462332</v>
@@ -5435,32 +4733,22 @@
         <v>79.088294760099</v>
       </c>
       <c r="N70" t="n">
-        <v>39497.4752360685</v>
-      </c>
-      <c r="O70" t="n">
-        <v>-1.474514954580286e-17</v>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>[0.0073493]</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>[211.28392598]</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr"/>
+        <v>39497.47523606849</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="n">
+        <v>0.0008636320765332151</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>test_ID_124</t>
+          <t>test_ID_065</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5488,7 +4776,7 @@
         <v>0.000866</v>
       </c>
       <c r="H71" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I71" t="n">
         <v>3.175</v>
@@ -5500,7 +4788,7 @@
         <v>89.5786348354455</v>
       </c>
       <c r="L71" t="n">
-        <v>0.0007743519844788438</v>
+        <v>0.0007743519844788439</v>
       </c>
       <c r="M71" t="n">
         <v>28.9731903230109</v>
@@ -5508,30 +4796,20 @@
       <c r="N71" t="n">
         <v>37416.04709970556</v>
       </c>
-      <c r="O71" t="n">
-        <v>-4.380176776841438e-17</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>[0.00546613]</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>[129.6889121]</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>0.0003898922701446438</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>test_ID_125</t>
+          <t>test_ID_066</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5559,7 +4837,7 @@
         <v>0.000866</v>
       </c>
       <c r="H72" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I72" t="n">
         <v>3.175</v>
@@ -5579,30 +4857,20 @@
       <c r="N72" t="n">
         <v>42175.08103243844</v>
       </c>
-      <c r="O72" t="n">
-        <v>-1.127570259384925e-17</v>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>[0.00514178]</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>[132.50463468]</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>0.0006093202581949112</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>test_ID_126</t>
+          <t>test_ID_067</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5630,7 +4898,7 @@
         <v>0.000866</v>
       </c>
       <c r="H73" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I73" t="n">
         <v>3.175</v>
@@ -5650,30 +4918,20 @@
       <c r="N73" t="n">
         <v>34906.89202062578</v>
       </c>
-      <c r="O73" t="n">
-        <v>-1.708702623837155e-16</v>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>[0.00605676]</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>[141.60878781]</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="n">
+        <v>0.0008211559912235707</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>test_ID_127</t>
+          <t>test_ID_068</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5701,7 +4959,7 @@
         <v>0.000866</v>
       </c>
       <c r="H74" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I74" t="n">
         <v>3.175</v>
@@ -5721,30 +4979,20 @@
       <c r="N74" t="n">
         <v>38109.35075740957</v>
       </c>
-      <c r="O74" t="n">
-        <v>-5.811323644522304e-17</v>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>[0.00557443]</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>[136.21916497]</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>0.0007788589957005581</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>test_ID_128</t>
+          <t>test_ID_069</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5772,19 +5020,19 @@
         <v>0.000866</v>
       </c>
       <c r="H75" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I75" t="n">
         <v>3.175</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0008661956129445198</v>
+        <v>0.00086619561294452</v>
       </c>
       <c r="K75" t="n">
         <v>46.6700725180651</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0004282357690355198</v>
+        <v>0.0004282357690355199</v>
       </c>
       <c r="M75" t="n">
         <v>23.0730727529062</v>
@@ -5792,30 +5040,20 @@
       <c r="N75" t="n">
         <v>53879.36837894645</v>
       </c>
-      <c r="O75" t="n">
-        <v>-1.984089975648473e-17</v>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>[0.00462111]</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>[141.22362941]</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>0.0005373300618622199</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>test_ID_129</t>
+          <t>test_ID_070</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5843,7 +5081,7 @@
         <v>0.000866</v>
       </c>
       <c r="H76" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I76" t="n">
         <v>3.175</v>
@@ -5863,30 +5101,20 @@
       <c r="N76" t="n">
         <v>37447.92191543245</v>
       </c>
-      <c r="O76" t="n">
-        <v>-1.279358563532895e-16</v>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>[0.00564098]</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>[136.3471848]</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>0.001074375897386028</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>test_ID_130</t>
+          <t>test_ID_071</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5914,7 +5142,7 @@
         <v>0.000866</v>
       </c>
       <c r="H77" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I77" t="n">
         <v>3.175</v>
@@ -5934,30 +5162,20 @@
       <c r="N77" t="n">
         <v>39045.15951807063</v>
       </c>
-      <c r="O77" t="n">
-        <v>-1.407294419886185e-16</v>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>[0.00533035]</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>[130.03415098]</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="n">
+        <v>0.0006566808991932407</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>test_ID_131</t>
+          <t>test_ID_072</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5985,50 +5203,40 @@
         <v>0.000866</v>
       </c>
       <c r="H78" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I78" t="n">
         <v>3.175</v>
       </c>
       <c r="J78" t="n">
-        <v>0.002908448967036807</v>
+        <v>0.002908448967036806</v>
       </c>
       <c r="K78" t="n">
         <v>110.081902277342</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0004249535703063067</v>
+        <v>0.0004249535703063059</v>
       </c>
       <c r="M78" t="n">
         <v>16.0840702137286</v>
       </c>
       <c r="N78" t="n">
-        <v>37849.00595642767</v>
-      </c>
-      <c r="O78" t="n">
-        <v>-1.066854937725736e-16</v>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>[0.0058033]</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>[143.95125506]</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr"/>
+        <v>37849.00595642768</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>0.001021084008256706</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>test_ID_132</t>
+          <t>test_ID_073</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6056,7 +5264,7 @@
         <v>0.000866</v>
       </c>
       <c r="H79" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I79" t="n">
         <v>3.175</v>
@@ -6068,7 +5276,7 @@
         <v>60.0918208946391</v>
       </c>
       <c r="L79" t="n">
-        <v>0.000831168747132514</v>
+        <v>0.0008311687471325139</v>
       </c>
       <c r="M79" t="n">
         <v>35.9240131779057</v>
@@ -6076,30 +5284,20 @@
       <c r="N79" t="n">
         <v>43221.08272458697</v>
       </c>
-      <c r="O79" t="n">
-        <v>-1.140580685454751e-16</v>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>[0.00536874]</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>[145.60052924]</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>0.0001476417332973139</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>test_ID_133</t>
+          <t>test_ID_074</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6127,7 +5325,7 @@
         <v>0.000866</v>
       </c>
       <c r="H80" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I80" t="n">
         <v>3.175</v>
@@ -6139,7 +5337,7 @@
         <v>119.090300315133</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0003564904747817477</v>
+        <v>0.0003564904747817478</v>
       </c>
       <c r="M80" t="n">
         <v>12.64659236909</v>
@@ -6147,30 +5345,20 @@
       <c r="N80" t="n">
         <v>35475.26024876975</v>
       </c>
-      <c r="O80" t="n">
-        <v>-4.77048955893622e-17</v>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>[0.00592656]</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>[139.29562962]</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>0.0006196032013576478</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>test_ID_134</t>
+          <t>test_ID_075</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6198,7 +5386,7 @@
         <v>0.000866</v>
       </c>
       <c r="H81" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I81" t="n">
         <v>3.175</v>
@@ -6218,30 +5406,20 @@
       <c r="N81" t="n">
         <v>43749.63981955958</v>
       </c>
-      <c r="O81" t="n">
-        <v>-8.326672684688674e-17</v>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>[0.00580823]</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>[166.60858725]</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="n">
+        <v>0.0002125575271850833</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>test_ID_135</t>
+          <t>test_ID_060</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6269,55 +5447,45 @@
         <v>0.000866</v>
       </c>
       <c r="H82" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I82" t="n">
         <v>3.175</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0009160071804499832</v>
+        <v>0.000916007180450091</v>
       </c>
       <c r="K82" t="n">
         <v>43.099975477242</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0003289580731544832</v>
+        <v>0.0003289580731545218</v>
       </c>
       <c r="M82" t="n">
         <v>15.4781372773018</v>
       </c>
       <c r="N82" t="n">
-        <v>47052.00613828091</v>
-      </c>
-      <c r="O82" t="n">
-        <v>-8.326672684688674e-17</v>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>[0.00507381]</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>[144.6287459]</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr"/>
+        <v>47052.00613827537</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>0.000333785642721991</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>test_ID_136</t>
+          <t>test_ID_041</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>T_300_A_1_156_032_18.csv</t>
+          <t>T_300_A_2_157_044_19.csv</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6334,61 +5502,51 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
         <v>0.000866</v>
       </c>
       <c r="H83" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I83" t="n">
         <v>3.175</v>
       </c>
       <c r="J83" t="n">
-        <v>0.001611940297469171</v>
+        <v>0.001735194130145886</v>
       </c>
       <c r="K83" t="n">
-        <v>51.7861136852212</v>
+        <v>56.7732969744529</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0008208543378776714</v>
+        <v>0.001302955958264386</v>
       </c>
       <c r="M83" t="n">
-        <v>26.3712347951603</v>
+        <v>42.6310257037105</v>
       </c>
       <c r="N83" t="n">
-        <v>32126.57054763632</v>
-      </c>
-      <c r="O83" t="n">
-        <v>-7.134050294954619e-17</v>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>[0.00401321]</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>[64.67745758]</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr"/>
+        <v>32718.70045438644</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>0.0009347059551158865</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>test_ID_137</t>
+          <t>test_ID_057</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>T_300_A_2_157_044_19.csv</t>
+          <t>T_300_A_3_158_043_20.csv</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6405,65 +5563,51 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
         <v>0.000866</v>
       </c>
       <c r="H84" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I84" t="n">
         <v>3.175</v>
       </c>
       <c r="J84" t="n">
-        <v>0.001735194130145886</v>
+        <v>0.001133706609370434</v>
       </c>
       <c r="K84" t="n">
-        <v>56.7732969744529</v>
+        <v>56.9308587258361</v>
       </c>
       <c r="L84" t="n">
-        <v>0.001302955958264386</v>
+        <v>2.996225910133389e-05</v>
       </c>
       <c r="M84" t="n">
-        <v>42.6310257037105</v>
+        <v>1.50460191896753</v>
       </c>
       <c r="N84" t="n">
-        <v>32718.70045438644</v>
-      </c>
-      <c r="O84" t="n">
-        <v>-0.0003903194479703866</v>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>[0.00364606]</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>[69.48773288]</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>LPL @ 30</t>
-        </is>
+        <v>50216.57124981459</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>-0.0001436401650030661</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>test_ID_138</t>
+          <t>test_ID_058</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T_300_A_3_158_043_20.csv</t>
+          <t>T_300_A_1_156_032_18.csv</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6480,56 +5624,46 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0.000866</v>
       </c>
       <c r="H85" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I85" t="n">
         <v>3.175</v>
       </c>
       <c r="J85" t="n">
-        <v>0.001133706609370197</v>
+        <v>0.001611940297469171</v>
       </c>
       <c r="K85" t="n">
-        <v>56.9308587258361</v>
+        <v>51.7861136852212</v>
       </c>
       <c r="L85" t="n">
-        <v>2.996225910132739e-05</v>
+        <v>0.0008208543378776712</v>
       </c>
       <c r="M85" t="n">
-        <v>1.50460191896753</v>
+        <v>26.3712347951603</v>
       </c>
       <c r="N85" t="n">
-        <v>50216.57124982507</v>
-      </c>
-      <c r="O85" t="n">
-        <v>3.035766082959412e-18</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>[0.0035729]</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>[78.98547761]</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr"/>
+        <v>32126.57054763632</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>0.0001791885963953713</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>test_ID_139</t>
+          <t>test_ID_042</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6557,7 +5691,7 @@
         <v>0.000866</v>
       </c>
       <c r="H86" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I86" t="n">
         <v>3.175</v>
@@ -6569,38 +5703,28 @@
         <v>57.0351509504363</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0006235740665684952</v>
+        <v>0.0006235740665684951</v>
       </c>
       <c r="M86" t="n">
         <v>33.316765619273</v>
       </c>
       <c r="N86" t="n">
-        <v>53428.72227290323</v>
-      </c>
-      <c r="O86" t="n">
-        <v>-9.519295074422729e-17</v>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>[0.00356227]</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>[83.46997454]</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr"/>
+        <v>53428.72227290324</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>9.602688302589506e-05</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>test_ID_140</t>
+          <t>test_ID_043</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6628,50 +5752,40 @@
         <v>0.000866</v>
       </c>
       <c r="H87" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I87" t="n">
         <v>3.175</v>
       </c>
       <c r="J87" t="n">
-        <v>0.001197085137900793</v>
+        <v>0.001197085137900995</v>
       </c>
       <c r="K87" t="n">
         <v>51.8909929303517</v>
       </c>
       <c r="L87" t="n">
-        <v>8.90856777230806e-05</v>
+        <v>8.908567772309556e-05</v>
       </c>
       <c r="M87" t="n">
         <v>3.86166708328733</v>
       </c>
       <c r="N87" t="n">
-        <v>43347.78812921167</v>
-      </c>
-      <c r="O87" t="n">
-        <v>7.37257477290143e-18</v>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>[0.00384293]</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>[79.88715192]</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr"/>
+        <v>43347.78812920433</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="n">
+        <v>-0.0009169705344778045</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>test_ID_141</t>
+          <t>test_ID_044</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6699,13 +5813,13 @@
         <v>0.000866</v>
       </c>
       <c r="H88" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I88" t="n">
         <v>3.175</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0007068327420114109</v>
+        <v>0.0007068327420114108</v>
       </c>
       <c r="K88" t="n">
         <v>43.4660299348499</v>
@@ -6717,32 +5831,22 @@
         <v>24.7838060102016</v>
       </c>
       <c r="N88" t="n">
-        <v>61494.08106245904</v>
-      </c>
-      <c r="O88" t="n">
-        <v>-1.084202172485504e-17</v>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>[0.00331263]</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>[80.71874585]</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr"/>
+        <v>61494.08106245905</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="n">
+        <v>0.0001588269294999108</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>test_ID_142</t>
+          <t>test_ID_045</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6770,7 +5874,7 @@
         <v>0.000866</v>
       </c>
       <c r="H89" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I89" t="n">
         <v>3.175</v>
@@ -6782,38 +5886,28 @@
         <v>61.7681774556576</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0002320617808629958</v>
+        <v>0.0002320617808629959</v>
       </c>
       <c r="M89" t="n">
         <v>9.37621225235857</v>
       </c>
       <c r="N89" t="n">
-        <v>40403.94854116061</v>
-      </c>
-      <c r="O89" t="n">
-        <v>-1.958069123508821e-16</v>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>[0.00411088]</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>[85.28803901]</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr"/>
+        <v>40403.9485411606</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="n">
+        <v>0.0003953219097204959</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>test_ID_143</t>
+          <t>test_ID_046</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6841,7 +5935,7 @@
         <v>0.000866</v>
       </c>
       <c r="H90" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I90" t="n">
         <v>3.175</v>
@@ -6853,7 +5947,7 @@
         <v>56.27423602054</v>
       </c>
       <c r="L90" t="n">
-        <v>0.000946780209258465</v>
+        <v>0.0009467802092584651</v>
       </c>
       <c r="M90" t="n">
         <v>39.677883454939</v>
@@ -6861,30 +5955,20 @@
       <c r="N90" t="n">
         <v>41908.23072444175</v>
       </c>
-      <c r="O90" t="n">
-        <v>-1.650155706522938e-16</v>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>[0.00418117]</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>[91.40909649]</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="n">
+        <v>0.000458888064130165</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>test_ID_144</t>
+          <t>test_ID_047</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6912,7 +5996,7 @@
         <v>0.000866</v>
       </c>
       <c r="H91" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I91" t="n">
         <v>3.175</v>
@@ -6932,30 +6016,20 @@
       <c r="N91" t="n">
         <v>54375.76140805859</v>
       </c>
-      <c r="O91" t="n">
-        <v>-8.868773770931426e-17</v>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>[0.00384502]</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>[100.32410037]</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="n">
+        <v>-1.897273397861131e-05</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>test_ID_145</t>
+          <t>test_ID_048</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6983,7 +6057,7 @@
         <v>0.000866</v>
       </c>
       <c r="H92" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I92" t="n">
         <v>3.175</v>
@@ -6995,38 +6069,28 @@
         <v>54.103419580053</v>
       </c>
       <c r="L92" t="n">
-        <v>0.0001282871298544484</v>
+        <v>0.0001282871298544483</v>
       </c>
       <c r="M92" t="n">
         <v>5.61124040058898</v>
       </c>
       <c r="N92" t="n">
-        <v>43739.69865063917</v>
-      </c>
-      <c r="O92" t="n">
-        <v>-4.83554168928535e-17</v>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>[0.00382425]</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>[79.79221366]</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr"/>
+        <v>43739.69865063918</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="n">
+        <v>-0.0001868859276654517</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>test_ID_146</t>
+          <t>test_ID_049</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7054,7 +6118,7 @@
         <v>0.000866</v>
       </c>
       <c r="H93" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I93" t="n">
         <v>3.175</v>
@@ -7074,34 +6138,20 @@
       <c r="N93" t="n">
         <v>29016.84508627111</v>
       </c>
-      <c r="O93" t="n">
-        <v>-0.0006562035763068631</v>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>[0.00404133]</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>[82.77179247]</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>LPL @ 30</t>
-        </is>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="n">
+        <v>0.001262320824785163</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>test_ID_147</t>
+          <t>test_ID_050</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7129,50 +6179,40 @@
         <v>0.000866</v>
       </c>
       <c r="H94" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I94" t="n">
         <v>3.175</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0009501033114771959</v>
+        <v>0.000950103311477327</v>
       </c>
       <c r="K94" t="n">
         <v>43.0868710364167</v>
       </c>
       <c r="L94" t="n">
-        <v>3.835712248292174e-05</v>
+        <v>3.835712248292705e-05</v>
       </c>
       <c r="M94" t="n">
         <v>1.73948282232606</v>
       </c>
       <c r="N94" t="n">
-        <v>45349.66936324678</v>
-      </c>
-      <c r="O94" t="n">
-        <v>4.119968255444917e-18</v>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>[0.00392154]</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>[87.14115823]</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr"/>
+        <v>45349.66936324052</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="n">
+        <v>-0.0003254508736255729</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>test_ID_148</t>
+          <t>test_ID_051</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7200,50 +6240,40 @@
         <v>0.000866</v>
       </c>
       <c r="H95" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I95" t="n">
         <v>3.175</v>
       </c>
       <c r="J95" t="n">
-        <v>0.001310273959654997</v>
+        <v>0.00131027395965521</v>
       </c>
       <c r="K95" t="n">
         <v>59.7216564670194</v>
       </c>
       <c r="L95" t="n">
-        <v>2.030809767080685e-05</v>
+        <v>2.030809767081032e-05</v>
       </c>
       <c r="M95" t="n">
         <v>0.9256333178703851</v>
       </c>
       <c r="N95" t="n">
-        <v>45579.51871587562</v>
-      </c>
-      <c r="O95" t="n">
-        <v>3.035766082959412e-18</v>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>[0.00376918]</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>[80.63825522]</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr"/>
+        <v>45579.5187158682</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="n">
+        <v>-0.0002985639296833897</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>test_ID_149</t>
+          <t>test_ID_052</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7271,7 +6301,7 @@
         <v>0.000866</v>
       </c>
       <c r="H96" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I96" t="n">
         <v>3.175</v>
@@ -7291,30 +6321,20 @@
       <c r="N96" t="n">
         <v>71694.39434354132</v>
       </c>
-      <c r="O96" t="n">
-        <v>-1.029992063861229e-17</v>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>[0.00315583]</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>[82.86657251]</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="n">
+        <v>0.0008890854041372103</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>test_ID_150</t>
+          <t>test_ID_053</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7342,50 +6362,40 @@
         <v>0.000866</v>
       </c>
       <c r="H97" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I97" t="n">
         <v>3.175</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0009483485549953443</v>
+        <v>0.000948348554995344</v>
       </c>
       <c r="K97" t="n">
         <v>41.4568277525965</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0006561700142760442</v>
+        <v>0.000656170014276044</v>
       </c>
       <c r="M97" t="n">
         <v>28.6843134994752</v>
       </c>
       <c r="N97" t="n">
-        <v>43714.75818065651</v>
-      </c>
-      <c r="O97" t="n">
-        <v>-4.423544863740858e-17</v>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>[0.0037197]</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>[75.17641343]</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr"/>
+        <v>43714.75818065652</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="n">
+        <v>-0.000222000120179656</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>test_ID_151</t>
+          <t>test_ID_054</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7413,7 +6423,7 @@
         <v>0.000866</v>
       </c>
       <c r="H98" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I98" t="n">
         <v>3.175</v>
@@ -7425,7 +6435,7 @@
         <v>55.1712364974773</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0006578419678800567</v>
+        <v>0.0006578419678800566</v>
       </c>
       <c r="M98" t="n">
         <v>31.5012589561555</v>
@@ -7433,30 +6443,20 @@
       <c r="N98" t="n">
         <v>47885.75447332828</v>
       </c>
-      <c r="O98" t="n">
-        <v>-1.567756341414039e-16</v>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>[0.00366839]</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>[79.8920284]</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="n">
+        <v>0.002770838845663657</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>test_ID_152</t>
+          <t>test_ID_055</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7484,54 +6484,40 @@
         <v>0.000866</v>
       </c>
       <c r="H99" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I99" t="n">
         <v>3.175</v>
       </c>
       <c r="J99" t="n">
-        <v>0.002952844901490267</v>
+        <v>0.002952844901490266</v>
       </c>
       <c r="K99" t="n">
         <v>71.69828730701499</v>
       </c>
       <c r="L99" t="n">
-        <v>0.001928083322311667</v>
+        <v>0.001928083322311666</v>
       </c>
       <c r="M99" t="n">
         <v>46.8159610839017</v>
       </c>
       <c r="N99" t="n">
-        <v>24281.08813667446</v>
-      </c>
-      <c r="O99" t="n">
-        <v>-0.0002674287413348669</v>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>[0.00526576]</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>[87.19286708]</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>LPL @ 30</t>
-        </is>
+        <v>24281.08813667447</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="n">
+        <v>0.001264873486175366</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>test_ID_153</t>
+          <t>test_ID_056</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7559,54 +6545,44 @@
         <v>0.000866</v>
       </c>
       <c r="H100" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I100" t="n">
         <v>3.175</v>
       </c>
       <c r="J100" t="n">
-        <v>0.004018488165852548</v>
+        <v>0.003320356954643414</v>
       </c>
       <c r="K100" t="n">
         <v>77.33133438958311</v>
       </c>
       <c r="L100" t="n">
-        <v>0.003915640838196349</v>
+        <v>0.002576205607353917</v>
       </c>
       <c r="M100" t="n">
-        <v>75.3521519812235</v>
+        <v>60</v>
       </c>
       <c r="N100" t="n">
-        <v>19243.88755122208</v>
-      </c>
-      <c r="O100" t="n">
-        <v>-0.001375693056716748</v>
+        <v>23290.0665337917</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[0.00502987]</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>[88.65760866]</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>LPL @ 30</t>
-        </is>
+          <t>LPL = 60</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.001600669794872614</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>test_ID_154</t>
+          <t>test_ID_077</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7634,7 +6610,7 @@
         <v>0.000866</v>
       </c>
       <c r="H101" t="n">
-        <v>20.16</v>
+        <v>40.32</v>
       </c>
       <c r="I101" t="n">
         <v>3.175</v>
@@ -7654,25 +6630,15 @@
       <c r="N101" t="n">
         <v>33222.98543617944</v>
       </c>
-      <c r="O101" t="n">
-        <v>-1.387778780781446e-16</v>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>[0.00479692]</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>[92.92190035]</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>/Off</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>/Off</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="n">
+        <v>0.0006138388323634388</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/example/info/02 foot corrected info.xlsx
+++ b/example/info/02 foot corrected info.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>test id</t>
+          <t>test_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>old filename</t>
+          <t>old_filename</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>test type</t>
+          <t>test_type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>A_0 (mm)</t>
+          <t>A_0_(mm)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>h_0 (mm)</t>
+          <t>h_0_(mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>foot correction</t>
+          <t>foot_correction</t>
         </is>
       </c>
     </row>
@@ -807,13 +807,13 @@
         <v>192.947593520996</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005903185807671863</v>
+        <v>0.0005903185807671859</v>
       </c>
       <c r="M6" t="n">
         <v>35.2190159803605</v>
       </c>
       <c r="N6" t="n">
-        <v>59661.03241166723</v>
+        <v>59661.03241166724</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>-0.0004346933673407137</v>
+        <v>-0.0004346933673407142</v>
       </c>
     </row>
     <row r="7">
@@ -4855,7 +4855,7 @@
         <v>47.3625404782615</v>
       </c>
       <c r="N72" t="n">
-        <v>42175.08103243844</v>
+        <v>42175.08103243845</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="n">
-        <v>0.0006093202581949112</v>
+        <v>0.0006093202581949108</v>
       </c>
     </row>
     <row r="73">
@@ -5703,13 +5703,13 @@
         <v>57.0351509504363</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0006235740665684951</v>
+        <v>0.0006235740665684949</v>
       </c>
       <c r="M86" t="n">
         <v>33.316765619273</v>
       </c>
       <c r="N86" t="n">
-        <v>53428.72227290324</v>
+        <v>53428.72227290325</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="n">
-        <v>9.602688302589506e-05</v>
+        <v>9.602688302589484e-05</v>
       </c>
     </row>
     <row r="87">
